--- a/financial_models/Macro_Monitor.xlsx
+++ b/financial_models/Macro_Monitor.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10311"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc/financial_models/Opportunities/Monitor/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{61AF8F71-4FBE-3F4A-869D-37BD0EB209AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14267BA-64E8-DD49-AECA-701148FDE715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="2940" windowWidth="16200" windowHeight="9300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Macro" sheetId="2" r:id="rId1"/>
     <sheet name="Analysis" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentManualCount="8"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="85">
   <si>
     <t>China</t>
   </si>
@@ -45,13 +45,7 @@
     <t>US</t>
   </si>
   <si>
-    <t xml:space="preserve">MOS = </t>
-  </si>
-  <si>
     <t>HK</t>
-  </si>
-  <si>
-    <t>Required Margin of Safety:</t>
   </si>
   <si>
     <t># To-do with insights from "Big Debt Cycle"</t>
@@ -310,29 +304,65 @@
     <t>https://fred.stlouisfed.org/series/CPALTT01CNM659N</t>
   </si>
   <si>
-    <t>Inflation rate (use 10Y breakeven rate if too volatile) =</t>
-  </si>
-  <si>
-    <t>Economic Drivers:</t>
-  </si>
-  <si>
     <t>Nominal Risk-free rate  (use 10Y Treasury yield if available) =</t>
   </si>
   <si>
-    <t>Requires Manual Input</t>
-  </si>
-  <si>
-    <t>Target Portfolio Performance:</t>
-  </si>
-  <si>
-    <t>Target Performance =</t>
+    <t>Market Yields:</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>US BBB Bond yield</t>
+  </si>
+  <si>
+    <t>BBB Bond yield</t>
+  </si>
+  <si>
+    <t>Offshore BBB- Bond yield</t>
+  </si>
+  <si>
+    <t>Required Return</t>
+  </si>
+  <si>
+    <t>https://tradingeconomics.com/china/government-bond-yield</t>
+  </si>
+  <si>
+    <t>https://iftp.chinamoney.com.cn/chinese/scsjzqxx/</t>
+  </si>
+  <si>
+    <t>https://yield.chinabond.com.cn/cbweb-mn/yield_main?locale=en_US</t>
+  </si>
+  <si>
+    <t>CN Riskfree</t>
+  </si>
+  <si>
+    <t>CN Onshore BBB- Bond yield</t>
+  </si>
+  <si>
+    <t>CN Offshore BBB- Bond yield</t>
+  </si>
+  <si>
+    <t>https://fred.stlouisfed.org/series/DGS10</t>
+  </si>
+  <si>
+    <t>https://fred.stlouisfed.org/series/BAMLC0A4CBBBEY</t>
+  </si>
+  <si>
+    <t>US Riskfree</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>NOTES:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -364,12 +394,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF002060"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -457,8 +481,25 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -479,12 +520,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -493,6 +528,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFB6D7A8"/>
         <bgColor rgb="FFB6D7A8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor rgb="FFFFE599"/>
       </patternFill>
     </fill>
   </fills>
@@ -505,39 +552,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="dotted">
-        <color indexed="64"/>
-      </left>
-      <right style="dotted">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="dotted">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -651,13 +670,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="dotted">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="dotted">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="dotted">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -665,126 +684,156 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="4" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="10" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="2" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1066,192 +1115,181 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A061C73F-1F33-4614-90A5-D5D9D7C58056}">
-  <dimension ref="A2:H14"/>
+  <dimension ref="A2:F21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.5" customWidth="1"/>
-    <col min="2" max="2" width="62.5" customWidth="1"/>
-    <col min="3" max="3" width="10.5" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="32.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.5" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="32.6640625" customWidth="1"/>
-    <col min="7" max="7" width="10.5" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="32.6640625" customWidth="1"/>
+    <col min="2" max="2" width="47.83203125" customWidth="1"/>
+    <col min="3" max="6" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="6"/>
-      <c r="B2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="12" t="s">
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="4"/>
+      <c r="B2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="11"/>
-      <c r="B3" s="10" t="s">
+      <c r="D2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="7">
-        <f>F3</f>
-        <v>0.25</v>
-      </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="8">
-        <v>0.25</v>
-      </c>
-      <c r="H3" s="7">
-        <f>F3</f>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
-      <c r="B5" s="5" t="s">
+      <c r="F2" s="44" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="45">
+        <v>4.0899999999999999E-2</v>
+      </c>
+      <c r="D3" s="46">
+        <v>2.0799999999999999E-2</v>
+      </c>
+      <c r="E3" s="53"/>
+      <c r="F3" s="46"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="45">
+        <v>5.1499999999999997E-2</v>
+      </c>
+      <c r="D4" s="46">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="E4" s="53"/>
+      <c r="F4" s="46"/>
+    </row>
+    <row r="5" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="51"/>
+      <c r="D5" s="52">
+        <v>0.16</v>
+      </c>
+      <c r="E5" s="54"/>
+      <c r="F5" s="52"/>
+    </row>
+    <row r="6" spans="1:6" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="46">
+        <v>0.08</v>
+      </c>
+      <c r="D6" s="46">
+        <f>(D4+D5)/2</f>
+        <v>0.1125</v>
+      </c>
+      <c r="E6" s="46">
+        <f>(C6+D6)/2</f>
+        <v>9.6250000000000002E-2</v>
+      </c>
+      <c r="F6" s="46"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B10" s="55" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E11" s="43"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B12" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" s="43"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B13" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H5" s="3" t="str">
-        <f>H2</f>
-        <v>HK</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="1">
-        <v>3.9100000000000003E-2</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="1">
-        <v>2.8999999999999998E-2</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="1">
-        <v>3.2329999999999998E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B7" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" s="46">
-        <v>2.2200000000000001E-2</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="46">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46">
-        <v>1.5679999999999999E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
-      <c r="B9" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3" t="str">
-        <f>H5</f>
-        <v>HK</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
+      <c r="C13" s="49" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B15" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B12" s="48" t="s">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B16" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="49" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="49" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B19" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="40"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B20" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="40"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B21" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="39"/>
-      <c r="D12" s="49" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12" s="39"/>
-      <c r="F12" s="47"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B13" s="48" t="s">
+      <c r="C21" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="39"/>
-      <c r="D13" s="50" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" s="39"/>
-      <c r="F13" s="47"/>
-      <c r="H13" s="51" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B14" s="48" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" s="39"/>
-      <c r="D14" s="50" t="s">
-        <v>67</v>
-      </c>
-      <c r="E14" s="39"/>
-      <c r="F14" s="47"/>
-      <c r="H14" s="51" t="s">
-        <v>72</v>
-      </c>
+      <c r="D21" s="40"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation allowBlank="1" sqref="D3" xr:uid="{EA6F9DE9-1D2B-41CE-B86F-59C772E5B0CA}"/>
-  </dataValidations>
+  <phoneticPr fontId="16" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D12" r:id="rId1" xr:uid="{05C6860A-F093-492E-A0AF-7D2134D3C356}"/>
-    <hyperlink ref="D14" r:id="rId2" xr:uid="{286AD228-59EC-4FB0-A64C-3CB536B18819}"/>
-    <hyperlink ref="D13" r:id="rId3" xr:uid="{44FDAB98-97BD-4C87-B095-E2260A9245A6}"/>
+    <hyperlink ref="C19" r:id="rId1" xr:uid="{05C6860A-F093-492E-A0AF-7D2134D3C356}"/>
+    <hyperlink ref="C21" r:id="rId2" xr:uid="{286AD228-59EC-4FB0-A64C-3CB536B18819}"/>
+    <hyperlink ref="C20" r:id="rId3" xr:uid="{44FDAB98-97BD-4C87-B095-E2260A9245A6}"/>
+    <hyperlink ref="C17" r:id="rId4" xr:uid="{DB671679-E839-B64A-AD4E-6D8A323DAFC3}"/>
+    <hyperlink ref="C16" r:id="rId5" xr:uid="{9CB8AD70-9E02-9A41-8E3A-990A0C1E81AE}"/>
+    <hyperlink ref="C15" r:id="rId6" xr:uid="{45D5643F-FA1A-3C48-B2D9-4B6082295A37}"/>
+    <hyperlink ref="C13" r:id="rId7" xr:uid="{35ACA25B-AF93-B04F-A9DD-9D3D634DC7A6}"/>
+    <hyperlink ref="C12" r:id="rId8" xr:uid="{8FF27AF7-25A6-F443-A0E6-DAC1AFC8FB4A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId4"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -1274,677 +1312,677 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="6"/>
-      <c r="B2" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="12" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="12" t="s">
+      <c r="E2" s="2"/>
+      <c r="F2" s="6" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="45">
-        <f>Macro!D6-Macro!D7</f>
-        <v>1.6900000000000002E-2</v>
-      </c>
-      <c r="F3" s="45">
-        <f>Macro!F6-Macro!F7</f>
-        <v>7.9999999999999967E-3</v>
+        <v>59</v>
+      </c>
+      <c r="D3" s="39" t="e">
+        <f>Macro!C3-Macro!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F3" s="39" t="e">
+        <f>Macro!D3-Macro!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B4" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="43">
+      <c r="B4" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="37" t="e">
         <f>D37</f>
-        <v>2.4420000000000004E-2</v>
-      </c>
-      <c r="E4" s="42"/>
-      <c r="F4" s="41">
+        <v>#REF!</v>
+      </c>
+      <c r="E4" s="36"/>
+      <c r="F4" s="35" t="e">
         <f>F37</f>
-        <v>3.3600000000000005E-2</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B5" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="39">
+      <c r="B5" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="33">
         <f>IF(C29=4,1.2, IF(C29=-4,1.1,1))</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="8" t="e">
         <f>SUM(D3:D4)</f>
-        <v>4.1320000000000009E-2</v>
-      </c>
-      <c r="E5" s="38">
+        <v>#REF!</v>
+      </c>
+      <c r="E5" s="32">
         <f>IF(E29=4,1.2, IF(E29=-4,1.1,1))</f>
         <v>1</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="8" t="e">
         <f>SUM(F3:F4)</f>
-        <v>4.1599999999999998E-2</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
-      <c r="B7" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="35" t="str">
+      <c r="A7" s="4"/>
+      <c r="B7" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="30"/>
+      <c r="D7" s="29" t="str">
         <f>D2</f>
         <v>US</v>
       </c>
-      <c r="E7" s="35"/>
-      <c r="F7" s="12" t="str">
+      <c r="E7" s="29"/>
+      <c r="F7" s="6" t="str">
         <f>F2</f>
         <v>China</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
-      <c r="B8" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="33"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="23"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="27"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="11"/>
-      <c r="B9" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="26">
+      <c r="A9" s="5"/>
+      <c r="B9" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="20">
         <f>IF(LEFT(D9,1)="H",1,IF(LEFT(D9,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
-      <c r="D9" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" s="26">
+      <c r="D9" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="20">
         <f>IF(LEFT(F9,1)="H",1,IF(LEFT(F9,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
-      <c r="F9" s="28" t="s">
-        <v>55</v>
+      <c r="F9" s="22" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="11"/>
-      <c r="B10" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="26">
+      <c r="A10" s="5"/>
+      <c r="B10" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="20">
         <f>IF(LEFT(D10,1)="H",1,IF(LEFT(D10,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
-      <c r="D10" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="26">
+      <c r="D10" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="20">
         <f>IF(LEFT(F10,1)="H",1,IF(LEFT(F10,1)="C",-1,0))</f>
         <v>1</v>
       </c>
-      <c r="F10" s="32" t="s">
-        <v>52</v>
+      <c r="F10" s="26" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="11"/>
-      <c r="B11" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="26">
+      <c r="A11" s="5"/>
+      <c r="B11" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="20">
         <f>IF(LEFT(D11,1)="H",1,IF(LEFT(D11,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
-      <c r="D11" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="26">
+      <c r="D11" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="20">
         <f>IF(LEFT(F11,1)="H",1,IF(LEFT(F11,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
-      <c r="F11" s="31" t="s">
-        <v>50</v>
+      <c r="F11" s="25" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="26">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="20">
         <f>IF(LEFT(D12,1)="H",1,IF(LEFT(D12,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
-      <c r="D12" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="26">
+      <c r="D12" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="20">
         <f>IF(LEFT(F12,1)="H",1,IF(LEFT(F12,1)="C",-1,0))</f>
         <v>0</v>
       </c>
-      <c r="F12" s="20" t="s">
-        <v>18</v>
+      <c r="F12" s="14" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="11"/>
-      <c r="B13" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="26">
+      <c r="A13" s="5"/>
+      <c r="B13" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="20">
         <f>IF(LEFT(D13,1)="H",2,IF(LEFT(D13,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
-      <c r="D13" s="30" t="str">
+      <c r="D13" s="24" t="str">
         <f>IF(SUM(C9:C12)&gt;=3, "Hot", IF(SUM(C9:C12)&lt;=-3,"Cold", "Mixed"))</f>
         <v>Cold</v>
       </c>
-      <c r="E13" s="26">
+      <c r="E13" s="20">
         <f>IF(LEFT(F13,1)="H",2,IF(LEFT(F13,1)="C",-1,0))</f>
         <v>0</v>
       </c>
-      <c r="F13" s="30" t="str">
+      <c r="F13" s="24" t="str">
         <f>IF(SUM(E9:E12)&gt;=3, "Hot", IF(SUM(E9:E12)&lt;=-3,"Cold", "Mixed"))</f>
         <v>Mixed</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="11"/>
-      <c r="B14" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="26">
+      <c r="A14" s="5"/>
+      <c r="B14" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="20">
         <f>IF(LEFT(D14,1)="H",1,IF(LEFT(D14,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
-      <c r="D14" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="26">
+      <c r="D14" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="20">
         <f>IF(LEFT(F14,1)="H",1,IF(LEFT(F14,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
-      <c r="F14" s="28" t="s">
-        <v>45</v>
+      <c r="F14" s="22" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="11"/>
-      <c r="B15" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="26">
+      <c r="A15" s="5"/>
+      <c r="B15" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="20">
         <f>IF(LEFT(D15,1)="H",1,IF(LEFT(D15,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
-      <c r="D15" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="26">
+      <c r="D15" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="20">
         <f>IF(LEFT(F15,1)="H",1,IF(LEFT(F15,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
-      <c r="F15" s="28" t="s">
-        <v>43</v>
+      <c r="F15" s="22" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="11"/>
-      <c r="B16" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="26">
+      <c r="A16" s="5"/>
+      <c r="B16" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="20">
         <f>IF(LEFT(D16,1)="H",1,IF(LEFT(D16,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
-      <c r="D16" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="26">
+      <c r="D16" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="20">
         <f>IF(LEFT(F16,1)="H",1,IF(LEFT(F16,1)="C",-1,0))</f>
         <v>0</v>
       </c>
-      <c r="F16" s="20" t="s">
-        <v>18</v>
+      <c r="F16" s="14" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="11"/>
-      <c r="B17" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="26">
+      <c r="A17" s="5"/>
+      <c r="B17" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="20">
         <f>IF(LEFT(D17,1)="H",1,IF(LEFT(D17,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
-      <c r="D17" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="26">
+      <c r="D17" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="20">
         <f>IF(LEFT(F17,1)="H",1,IF(LEFT(F17,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
-      <c r="F17" s="20" t="s">
-        <v>39</v>
+      <c r="F17" s="14" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="11"/>
-      <c r="B18" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="26">
+      <c r="A18" s="5"/>
+      <c r="B18" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="20">
         <f>IF(LEFT(D18,1)="H",2,IF(LEFT(D18,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
-      <c r="D18" s="25" t="str">
+      <c r="D18" s="19" t="str">
         <f>IF(SUM(C14:C17)&gt;=3, "Hot", IF(SUM(C14:C17)&lt;=-3,"Cold", "Mixed"))</f>
         <v>Cold</v>
       </c>
-      <c r="E18" s="26">
+      <c r="E18" s="20">
         <f>IF(LEFT(F18,1)="H",2,IF(LEFT(F18,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
-      <c r="F18" s="25" t="str">
+      <c r="F18" s="19" t="str">
         <f>IF(SUM(E14:E17)&gt;=3, "Hot", IF(SUM(E14:E17)&lt;=-3,"Cold", "Mixed"))</f>
         <v>Cold</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="11"/>
-      <c r="B19" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="26">
+      <c r="A19" s="5"/>
+      <c r="B19" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="20">
         <f>IF(LEFT(D19,1)="H",1,IF(LEFT(D19,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
-      <c r="D19" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" s="26">
+      <c r="D19" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="20">
         <f>IF(LEFT(F19,1)="H",1,IF(LEFT(F19,1)="C",-1,0))</f>
         <v>1</v>
       </c>
-      <c r="F19" s="28" t="s">
-        <v>35</v>
+      <c r="F19" s="22" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="11"/>
-      <c r="B20" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="26">
+      <c r="A20" s="5"/>
+      <c r="B20" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="20">
         <f>IF(LEFT(D20,1)="H",1,IF(LEFT(D20,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
-      <c r="D20" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="26">
+      <c r="D20" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="20">
         <f>IF(LEFT(F20,1)="H",1,IF(LEFT(F20,1)="C",-1,0))</f>
         <v>0</v>
       </c>
-      <c r="F20" s="28" t="s">
-        <v>18</v>
+      <c r="F20" s="22" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="11"/>
-      <c r="B21" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="26">
+      <c r="A21" s="5"/>
+      <c r="B21" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="20">
         <f>IF(LEFT(D21,1)="H",1,IF(LEFT(D21,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
-      <c r="D21" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" s="26">
+      <c r="D21" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="20">
         <f>IF(LEFT(F21,1)="H",1,IF(LEFT(F21,1)="C",-1,0))</f>
         <v>0</v>
       </c>
-      <c r="F21" s="28" t="s">
-        <v>18</v>
+      <c r="F21" s="22" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="11"/>
-      <c r="B22" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="26">
+      <c r="A22" s="5"/>
+      <c r="B22" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="20">
         <f>IF(LEFT(D22,1)="H",1,IF(LEFT(D22,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
-      <c r="D22" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" s="26">
+      <c r="D22" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="20">
         <f>IF(LEFT(F22,1)="H",1,IF(LEFT(F22,1)="C",-1,0))</f>
         <v>0</v>
       </c>
-      <c r="F22" s="28" t="s">
-        <v>18</v>
+      <c r="F22" s="22" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="11"/>
-      <c r="B23" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="26">
+      <c r="A23" s="5"/>
+      <c r="B23" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="20">
         <f>IF(LEFT(D23,1)="H",2,IF(LEFT(D23,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
-      <c r="D23" s="25" t="str">
+      <c r="D23" s="19" t="str">
         <f>IF(SUM(C19:C22)&gt;=3, "Hot", IF(SUM(C19:C22)&lt;=-3,"Cold", "Mixed"))</f>
         <v>Cold</v>
       </c>
-      <c r="E23" s="26">
+      <c r="E23" s="20">
         <f>IF(LEFT(F23,1)="H",2,IF(LEFT(F23,1)="C",-1,0))</f>
         <v>0</v>
       </c>
-      <c r="F23" s="25" t="str">
+      <c r="F23" s="19" t="str">
         <f>IF(SUM(E19:E22)&gt;=3, "Hot", IF(SUM(E19:E22)&lt;=-3,"Cold", "Mixed"))</f>
         <v>Mixed</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="11"/>
-      <c r="B24" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="26">
+      <c r="A24" s="5"/>
+      <c r="B24" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="20">
         <f>IF(LEFT(D24,1)="H",1,IF(LEFT(D24,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
-      <c r="D24" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24" s="26">
+      <c r="D24" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="20">
         <f>IF(LEFT(F24,1)="H",1,IF(LEFT(F24,1)="C",-1,0))</f>
         <v>0</v>
       </c>
-      <c r="F24" s="28" t="s">
-        <v>25</v>
+      <c r="F24" s="22" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="11"/>
-      <c r="B25" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="26">
+      <c r="A25" s="5"/>
+      <c r="B25" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="20">
         <f>IF(LEFT(D25,1)="H",1,IF(LEFT(D25,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
-      <c r="D25" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25" s="26">
+      <c r="D25" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="20">
         <f>IF(LEFT(F25,1)="H",1,IF(LEFT(F25,1)="C",-1,0))</f>
         <v>0</v>
       </c>
-      <c r="F25" s="28" t="s">
-        <v>18</v>
+      <c r="F25" s="22" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="11"/>
-      <c r="B26" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="26">
+      <c r="A26" s="5"/>
+      <c r="B26" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="20">
         <f>IF(LEFT(D26,1)="H",1,IF(LEFT(D26,1)="C",-1,0))</f>
         <v>0</v>
       </c>
-      <c r="D26" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" s="26">
+      <c r="D26" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="20">
         <f>IF(LEFT(F26,1)="H",1,IF(LEFT(F26,1)="C",-1,0))</f>
         <v>1</v>
       </c>
-      <c r="F26" s="28" t="s">
-        <v>21</v>
+      <c r="F26" s="22" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="11"/>
-      <c r="B27" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" s="26">
+      <c r="A27" s="5"/>
+      <c r="B27" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="20">
         <f>IF(LEFT(D27,1)="H",1,IF(LEFT(D27,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
-      <c r="D27" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E27" s="26">
+      <c r="D27" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="20">
         <f>IF(LEFT(F27,1)="H",1,IF(LEFT(F27,1)="C",-1,0))</f>
         <v>0</v>
       </c>
-      <c r="F27" s="28" t="s">
-        <v>18</v>
+      <c r="F27" s="22" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="11"/>
-      <c r="B28" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="26">
+      <c r="A28" s="5"/>
+      <c r="B28" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="20">
         <f>IF(LEFT(D28,1)="H",2,IF(LEFT(D28,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
-      <c r="D28" s="25" t="str">
+      <c r="D28" s="19" t="str">
         <f>IF(SUM(C24:C27)&gt;=3, "Hot", IF(SUM(C24:C27)&lt;=-3,"Cold", "Mixed"))</f>
         <v>Cold</v>
       </c>
-      <c r="E28" s="26">
+      <c r="E28" s="20">
         <f>IF(LEFT(F28,1)="H",2,IF(LEFT(F28,1)="C",-1,0))</f>
         <v>0</v>
       </c>
-      <c r="F28" s="25" t="str">
+      <c r="F28" s="19" t="str">
         <f>IF(SUM(E24:E27)&gt;=3, "Hot", IF(SUM(E24:E27)&lt;=-3,"Cold", "Mixed"))</f>
         <v>Mixed</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="11"/>
-      <c r="B29" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="23">
+      <c r="A29" s="5"/>
+      <c r="B29" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="17">
         <f>SUM(C13,C18,C23,C28)</f>
         <v>-4</v>
       </c>
-      <c r="D29" s="22" t="str">
+      <c r="D29" s="16" t="str">
         <f>IF(OR(C29=4,C29=-4),"In extreme",IF(C29=0,"In equilibrium",IF(OR(C29&gt;0),"Relatively optimistic","Relatively pessimistic")))</f>
         <v>In extreme</v>
       </c>
-      <c r="E29" s="23">
+      <c r="E29" s="17">
         <f>SUM(E13,E18,E23,E28)</f>
         <v>-1</v>
       </c>
-      <c r="F29" s="22" t="str">
+      <c r="F29" s="16" t="str">
         <f>IF(OR(E29=4,E29=-4),"In extreme",IF(E29=0,"In equilibrium",IF(OR(E29&gt;0),"Relatively optimistic","Relatively pessimistic")))</f>
         <v>Relatively pessimistic</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="11"/>
+      <c r="A30" s="5"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="11"/>
-      <c r="B31" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="21" t="s">
+      <c r="A31" s="5"/>
+      <c r="B31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E31" s="11"/>
-      <c r="F31" s="21" t="s">
+      <c r="E31" s="5"/>
+      <c r="F31" s="15" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" s="19">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="13">
         <f>IF(LEFT(D32,1)="H",2,IF(LEFT(D32,1)="C",0,1))</f>
         <v>0</v>
       </c>
-      <c r="D32" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E32" s="19">
+      <c r="D32" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="13">
         <f>IF(LEFT(F32,1)="H",2,IF(LEFT(F32,1)="C",0,1))</f>
         <v>2</v>
       </c>
-      <c r="F32" s="20" t="s">
-        <v>12</v>
+      <c r="F32" s="14" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B33" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="19">
+      <c r="B33" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="13" t="e">
         <f>IF(LEFT(D33,1)="H",2,IF(LEFT(D33,1)="C",0,1))</f>
-        <v>1</v>
-      </c>
-      <c r="D33" s="18" t="str">
-        <f>IF(Macro!D7&gt;=3%, "Hot - High", IF(Macro!D7&lt;=1.5%, "Cold - Low", "Mixed - Dormant"))</f>
-        <v>Mixed - Dormant</v>
-      </c>
-      <c r="E33" s="19">
+        <v>#REF!</v>
+      </c>
+      <c r="D33" s="12" t="e">
+        <f>IF(Macro!#REF!&gt;=3%, "Hot - High", IF(Macro!#REF!&lt;=1.5%, "Cold - Low", "Mixed - Dormant"))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E33" s="13" t="e">
         <f>IF(LEFT(F33,1)="H",2,IF(LEFT(F33,1)="C",0,1))</f>
-        <v>1</v>
-      </c>
-      <c r="F33" s="18" t="str">
-        <f>IF(Macro!F7&gt;=3%, "Hot - High", IF(Macro!F7&lt;=1.5%, "Cold - Low", "Mixed - Dormant"))</f>
-        <v>Mixed - Dormant</v>
+        <v>#REF!</v>
+      </c>
+      <c r="F33" s="12" t="e">
+        <f>IF(Macro!#REF!&gt;=3%, "Hot - High", IF(Macro!#REF!&lt;=1.5%, "Cold - Low", "Mixed - Dormant"))</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B34" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="19">
+      <c r="B34" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="13">
         <f>IF(LEFT(D34,1)="H",2,IF(LEFT(D34,1)="C",0,1))</f>
         <v>0</v>
       </c>
-      <c r="D34" s="18" t="str">
+      <c r="D34" s="12" t="str">
         <f>D10</f>
         <v>Cold - Negative</v>
       </c>
-      <c r="E34" s="19">
+      <c r="E34" s="13">
         <f>IF(LEFT(F34,1)="H",2,IF(LEFT(F34,1)="C",0,1))</f>
         <v>2</v>
       </c>
-      <c r="F34" s="18" t="str">
+      <c r="F34" s="12" t="str">
         <f>F10</f>
         <v>Hot - Positive</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B35" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" s="19">
+      <c r="B35" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="13">
         <f>IF(LEFT(D35,1)="H",2,IF(LEFT(D35,1)="C",0,1))</f>
         <v>0</v>
       </c>
-      <c r="D35" s="18" t="str">
+      <c r="D35" s="12" t="str">
         <f>D16</f>
         <v>Cold - High</v>
       </c>
-      <c r="E35" s="19">
+      <c r="E35" s="13">
         <f>IF(LEFT(F35,1)="H",2,IF(LEFT(F35,1)="C",0,1))</f>
         <v>1</v>
       </c>
-      <c r="F35" s="18" t="str">
+      <c r="F35" s="12" t="str">
         <f>F16</f>
         <v>Mixed</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B36" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="19">
+      <c r="B36" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="13">
         <f>IF(LEFT(D36,1)="H",2,IF(LEFT(D36,1)="C",0,1))</f>
         <v>0</v>
       </c>
-      <c r="D36" s="18" t="str">
+      <c r="D36" s="12" t="str">
         <f>D17</f>
         <v>Cold - Wide</v>
       </c>
-      <c r="E36" s="19">
+      <c r="E36" s="13">
         <f>IF(LEFT(F36,1)="H",2,IF(LEFT(F36,1)="C",0,1))</f>
         <v>0</v>
       </c>
-      <c r="F36" s="18" t="str">
+      <c r="F36" s="12" t="str">
         <f>F17</f>
         <v>Cold - Wide</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B37" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" s="16">
+      <c r="B37" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="10" t="e">
         <f>SUM(C32:C36)/10</f>
-        <v>0.1</v>
-      </c>
-      <c r="D37" s="14">
-        <f>Macro!D7*(1+C37)</f>
-        <v>2.4420000000000004E-2</v>
-      </c>
-      <c r="E37" s="15">
+        <v>#REF!</v>
+      </c>
+      <c r="D37" s="8" t="e">
+        <f>Macro!#REF!*(1+C37)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E37" s="9" t="e">
         <f>SUM(E32:E36)/10</f>
-        <v>0.6</v>
-      </c>
-      <c r="F37" s="14">
-        <f>Macro!F7*(1+E37)</f>
-        <v>3.3600000000000005E-2</v>
+        <v>#REF!</v>
+      </c>
+      <c r="F37" s="8" t="e">
+        <f>Macro!#REF!*(1+E37)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B39" s="13" t="s">
-        <v>6</v>
+      <c r="B39" s="7" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <dataValidations count="19">
     <dataValidation allowBlank="1" sqref="F29 D29" xr:uid="{EA6F9DE9-1D2B-41CE-B86F-59C772E5B0CA}"/>
     <dataValidation type="list" allowBlank="1" sqref="D16 F16" xr:uid="{CB91B3B3-F107-40CA-9A38-987E11E74D07}">

--- a/financial_models/Macro_Monitor.xlsx
+++ b/financial_models/Macro_Monitor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14267BA-64E8-DD49-AECA-701148FDE715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC2429A2-5B2E-5E4C-8A5F-4CBAFC3E1A32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -499,7 +499,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -539,6 +539,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor rgb="FFFFE599"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor rgb="FFFFE599"/>
       </patternFill>
     </fill>
@@ -711,7 +717,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -811,7 +817,7 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -820,7 +826,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -834,6 +839,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1118,7 +1129,7 @@
   <dimension ref="A2:F21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1156,7 +1167,7 @@
       <c r="D3" s="46">
         <v>2.0799999999999999E-2</v>
       </c>
-      <c r="E3" s="53"/>
+      <c r="E3" s="55"/>
       <c r="F3" s="46"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1169,39 +1180,39 @@
       <c r="D4" s="46">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="E4" s="53"/>
+      <c r="E4" s="52"/>
       <c r="F4" s="46"/>
     </row>
     <row r="5" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="52">
+      <c r="C5" s="50"/>
+      <c r="D5" s="51">
         <v>0.16</v>
       </c>
-      <c r="E5" s="54"/>
-      <c r="F5" s="52"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="51"/>
     </row>
     <row r="6" spans="1:6" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B6" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="46">
+      <c r="C6" s="56">
         <v>0.08</v>
       </c>
-      <c r="D6" s="46">
+      <c r="D6" s="56">
         <f>(D4+D5)/2</f>
         <v>0.1125</v>
       </c>
-      <c r="E6" s="46">
+      <c r="E6" s="56">
         <f>(C6+D6)/2</f>
         <v>9.6250000000000002E-2</v>
       </c>
-      <c r="F6" s="46"/>
+      <c r="F6" s="56"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="54" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1218,7 +1229,7 @@
       <c r="E12" s="43"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B13" s="50" t="s">
+      <c r="B13" s="5" t="s">
         <v>70</v>
       </c>
       <c r="C13" s="49" t="s">
@@ -1226,7 +1237,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="5" t="s">
         <v>77</v>
       </c>
       <c r="C15" s="49" t="s">
@@ -1234,7 +1245,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B16" s="50" t="s">
+      <c r="B16" s="5" t="s">
         <v>78</v>
       </c>
       <c r="C16" s="49" t="s">
@@ -1242,7 +1253,7 @@
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="5" t="s">
         <v>79</v>
       </c>
       <c r="C17" s="49" t="s">

--- a/financial_models/Macro_Monitor.xlsx
+++ b/financial_models/Macro_Monitor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC2429A2-5B2E-5E4C-8A5F-4CBAFC3E1A32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8F27C2A-18F9-3140-9742-3B7DBF65F6A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -717,7 +717,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -839,9 +839,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1162,12 +1159,14 @@
         <v>67</v>
       </c>
       <c r="C3" s="45">
-        <v>4.0899999999999999E-2</v>
+        <v>4.2099999999999999E-2</v>
       </c>
       <c r="D3" s="46">
         <v>2.0799999999999999E-2</v>
       </c>
-      <c r="E3" s="55"/>
+      <c r="E3" s="45">
+        <v>2.7650000000000001E-2</v>
+      </c>
       <c r="F3" s="46"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1175,7 +1174,7 @@
         <v>71</v>
       </c>
       <c r="C4" s="45">
-        <v>5.1499999999999997E-2</v>
+        <v>5.2900000000000003E-2</v>
       </c>
       <c r="D4" s="46">
         <v>6.5000000000000002E-2</v>
@@ -1198,18 +1197,18 @@
       <c r="B6" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="56">
+      <c r="C6" s="55">
         <v>0.08</v>
       </c>
-      <c r="D6" s="56">
+      <c r="D6" s="55">
         <f>(D4+D5)/2</f>
         <v>0.1125</v>
       </c>
-      <c r="E6" s="56">
+      <c r="E6" s="55">
         <f>(C6+D6)/2</f>
         <v>9.6250000000000002E-2</v>
       </c>
-      <c r="F6" s="56"/>
+      <c r="F6" s="55"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" s="54" t="s">

--- a/financial_models/Macro_Monitor.xlsx
+++ b/financial_models/Macro_Monitor.xlsx
@@ -1,36 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8F27C2A-18F9-3140-9742-3B7DBF65F6A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1689A017-5722-4BEF-A1C2-2B5087653480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="12690" windowHeight="7643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Macro" sheetId="2" r:id="rId1"/>
     <sheet name="Analysis" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" concurrentManualCount="8"/>
+  <calcPr calcId="191029" calcOnSave="0" concurrentManualCount="16"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -362,11 +351,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -374,7 +363,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -447,7 +436,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -463,20 +452,20 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="5" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -485,7 +474,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -494,7 +483,7 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -844,8 +833,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1129,14 +1118,14 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9"/>
   <cols>
-    <col min="1" max="1" width="2.5" customWidth="1"/>
-    <col min="2" max="2" width="47.83203125" customWidth="1"/>
-    <col min="3" max="6" width="20.83203125" customWidth="1"/>
+    <col min="1" max="1" width="2.46484375" customWidth="1"/>
+    <col min="2" max="2" width="47.796875" customWidth="1"/>
+    <col min="3" max="6" width="20.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="15">
       <c r="A2" s="4"/>
       <c r="B2" s="3" t="s">
         <v>68</v>
@@ -1154,7 +1143,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="B3" t="s">
         <v>67</v>
       </c>
@@ -1169,7 +1158,7 @@
       </c>
       <c r="F3" s="46"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="B4" t="s">
         <v>71</v>
       </c>
@@ -1182,7 +1171,7 @@
       <c r="E4" s="52"/>
       <c r="F4" s="46"/>
     </row>
-    <row r="5" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="14.25" thickBot="1">
       <c r="B5" s="48" t="s">
         <v>72</v>
       </c>
@@ -1193,7 +1182,7 @@
       <c r="E5" s="53"/>
       <c r="F5" s="51"/>
     </row>
-    <row r="6" spans="1:6" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="14.25" thickTop="1">
       <c r="B6" s="47" t="s">
         <v>73</v>
       </c>
@@ -1210,15 +1199,15 @@
       </c>
       <c r="F6" s="55"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="B10" s="54" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="E11" s="43"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="B12" s="5" t="s">
         <v>82</v>
       </c>
@@ -1227,7 +1216,7 @@
       </c>
       <c r="E12" s="43"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="B13" s="5" t="s">
         <v>70</v>
       </c>
@@ -1235,7 +1224,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="B15" s="5" t="s">
         <v>77</v>
       </c>
@@ -1243,7 +1232,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="B16" s="5" t="s">
         <v>78</v>
       </c>
@@ -1251,7 +1240,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:4">
       <c r="B17" s="5" t="s">
         <v>79</v>
       </c>
@@ -1259,7 +1248,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:4">
       <c r="B19" s="18" t="s">
         <v>62</v>
       </c>
@@ -1268,7 +1257,7 @@
       </c>
       <c r="D19" s="40"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:4">
       <c r="B20" s="18" t="s">
         <v>63</v>
       </c>
@@ -1277,7 +1266,7 @@
       </c>
       <c r="D20" s="40"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:4">
       <c r="B21" s="18" t="s">
         <v>64</v>
       </c>
@@ -1311,17 +1300,17 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9"/>
   <cols>
-    <col min="1" max="1" width="2.5" customWidth="1"/>
-    <col min="2" max="2" width="62.5" customWidth="1"/>
-    <col min="3" max="3" width="10.5" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="2.46484375" customWidth="1"/>
+    <col min="2" max="2" width="62.46484375" customWidth="1"/>
+    <col min="3" max="3" width="10.46484375" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="32.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.5" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="10.46484375" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="15">
       <c r="A2" s="4"/>
       <c r="B2" s="3" t="s">
         <v>60</v>
@@ -1335,7 +1324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="B3" t="s">
         <v>59</v>
       </c>
@@ -1348,7 +1337,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="B4" s="38" t="s">
         <v>58</v>
       </c>
@@ -1362,7 +1351,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="B5" s="34" t="s">
         <v>57</v>
       </c>
@@ -1383,7 +1372,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="15">
       <c r="A7" s="4"/>
       <c r="B7" s="31" t="s">
         <v>56</v>
@@ -1399,7 +1388,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" s="5"/>
       <c r="B8" s="7" t="s">
         <v>55</v>
@@ -1409,7 +1398,7 @@
       <c r="E8" s="23"/>
       <c r="F8" s="27"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" s="5"/>
       <c r="B9" s="23" t="s">
         <v>54</v>
@@ -1429,7 +1418,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" s="5"/>
       <c r="B10" s="23" t="s">
         <v>52</v>
@@ -1449,7 +1438,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" s="5"/>
       <c r="B11" s="23" t="s">
         <v>49</v>
@@ -1469,7 +1458,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" s="5"/>
       <c r="B12" s="5" t="s">
         <v>47</v>
@@ -1489,7 +1478,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" s="5"/>
       <c r="B13" s="21" t="s">
         <v>45</v>
@@ -1511,7 +1500,7 @@
         <v>Mixed</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" s="5"/>
       <c r="B14" s="23" t="s">
         <v>44</v>
@@ -1531,7 +1520,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" s="5"/>
       <c r="B15" s="23" t="s">
         <v>42</v>
@@ -1551,7 +1540,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" s="5"/>
       <c r="B16" s="23" t="s">
         <v>40</v>
@@ -1571,7 +1560,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" s="5"/>
       <c r="B17" s="23" t="s">
         <v>38</v>
@@ -1591,7 +1580,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" s="5"/>
       <c r="B18" s="21" t="s">
         <v>36</v>
@@ -1613,7 +1602,7 @@
         <v>Cold</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" s="5"/>
       <c r="B19" s="23" t="s">
         <v>35</v>
@@ -1633,7 +1622,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" s="5"/>
       <c r="B20" s="23" t="s">
         <v>32</v>
@@ -1653,7 +1642,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" s="5"/>
       <c r="B21" s="23" t="s">
         <v>30</v>
@@ -1673,7 +1662,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" s="5"/>
       <c r="B22" s="23" t="s">
         <v>28</v>
@@ -1693,7 +1682,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23" s="5"/>
       <c r="B23" s="21" t="s">
         <v>26</v>
@@ -1715,7 +1704,7 @@
         <v>Mixed</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24" s="5"/>
       <c r="B24" s="23" t="s">
         <v>25</v>
@@ -1735,7 +1724,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" s="5"/>
       <c r="B25" s="23" t="s">
         <v>22</v>
@@ -1755,7 +1744,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" s="5"/>
       <c r="B26" s="23" t="s">
         <v>20</v>
@@ -1775,7 +1764,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27" s="5"/>
       <c r="B27" s="23" t="s">
         <v>18</v>
@@ -1795,7 +1784,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="A28" s="5"/>
       <c r="B28" s="21" t="s">
         <v>15</v>
@@ -1817,7 +1806,7 @@
         <v>Mixed</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="A29" s="5"/>
       <c r="B29" s="18" t="s">
         <v>14</v>
@@ -1839,10 +1828,10 @@
         <v>Relatively pessimistic</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="A30" s="5"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="A31" s="5"/>
       <c r="B31" s="7" t="s">
         <v>13</v>
@@ -1856,7 +1845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="A32" s="5"/>
       <c r="B32" s="5" t="s">
         <v>12</v>
@@ -1876,7 +1865,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:6">
       <c r="B33" s="5" t="s">
         <v>9</v>
       </c>
@@ -1897,7 +1886,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:6">
       <c r="B34" s="5" t="s">
         <v>8</v>
       </c>
@@ -1918,7 +1907,7 @@
         <v>Hot - Positive</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:6">
       <c r="B35" s="5" t="s">
         <v>7</v>
       </c>
@@ -1939,7 +1928,7 @@
         <v>Mixed</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:6">
       <c r="B36" s="5" t="s">
         <v>6</v>
       </c>
@@ -1960,7 +1949,7 @@
         <v>Cold - Wide</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:6">
       <c r="B37" s="11" t="s">
         <v>5</v>
       </c>
@@ -1981,12 +1970,12 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:6">
       <c r="B39" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:6">
       <c r="B40" t="s">
         <v>3</v>
       </c>

--- a/financial_models/Macro_Monitor.xlsx
+++ b/financial_models/Macro_Monitor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1689A017-5722-4BEF-A1C2-2B5087653480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDAEB6B2-0BAC-4081-945B-FF60E2B9731D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="12690" windowHeight="7643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1103" yWindow="1103" windowWidth="12690" windowHeight="7642" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Macro" sheetId="2" r:id="rId1"/>

--- a/financial_models/Macro_Monitor.xlsx
+++ b/financial_models/Macro_Monitor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDAEB6B2-0BAC-4081-945B-FF60E2B9731D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{68FCAD31-FBF0-43CD-A215-AE4DE0E0892D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1103" yWindow="1103" windowWidth="12690" windowHeight="7642" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="12690" windowHeight="7643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Macro" sheetId="2" r:id="rId1"/>

--- a/financial_models/Macro_Monitor.xlsx
+++ b/financial_models/Macro_Monitor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{68FCAD31-FBF0-43CD-A215-AE4DE0E0892D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{80258D73-054E-4E1B-9AA3-399A01186B53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="12690" windowHeight="7643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2205" yWindow="2205" windowWidth="12690" windowHeight="7642" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Macro" sheetId="2" r:id="rId1"/>

--- a/financial_models/Macro_Monitor.xlsx
+++ b/financial_models/Macro_Monitor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10311"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{80258D73-054E-4E1B-9AA3-399A01186B53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2BAFBF3-F202-8F48-866D-27C6377BD46D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2205" windowWidth="12690" windowHeight="7642" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2200" yWindow="2200" windowWidth="12700" windowHeight="7640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Macro" sheetId="2" r:id="rId1"/>
@@ -20,6 +20,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -351,11 +362,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -363,7 +374,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -436,7 +447,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -452,20 +463,20 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="5" tint="-0.249977111117893"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -474,7 +485,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -483,7 +494,7 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -833,8 +844,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1118,14 +1129,14 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.46484375" customWidth="1"/>
-    <col min="2" max="2" width="47.796875" customWidth="1"/>
-    <col min="3" max="6" width="20.796875" customWidth="1"/>
+    <col min="1" max="1" width="2.5" customWidth="1"/>
+    <col min="2" max="2" width="47.83203125" customWidth="1"/>
+    <col min="3" max="6" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="15">
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="3" t="s">
         <v>68</v>
@@ -1143,7 +1154,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>67</v>
       </c>
@@ -1158,12 +1169,12 @@
       </c>
       <c r="F3" s="46"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>71</v>
       </c>
       <c r="C4" s="45">
-        <v>5.2900000000000003E-2</v>
+        <v>5.3099999999999994E-2</v>
       </c>
       <c r="D4" s="46">
         <v>6.5000000000000002E-2</v>
@@ -1171,7 +1182,7 @@
       <c r="E4" s="52"/>
       <c r="F4" s="46"/>
     </row>
-    <row r="5" spans="1:6" ht="14.25" thickBot="1">
+    <row r="5" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="48" t="s">
         <v>72</v>
       </c>
@@ -1182,7 +1193,7 @@
       <c r="E5" s="53"/>
       <c r="F5" s="51"/>
     </row>
-    <row r="6" spans="1:6" ht="14.25" thickTop="1">
+    <row r="6" spans="1:6" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B6" s="47" t="s">
         <v>73</v>
       </c>
@@ -1199,15 +1210,15 @@
       </c>
       <c r="F6" s="55"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" s="54" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E11" s="43"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" s="5" t="s">
         <v>82</v>
       </c>
@@ -1216,7 +1227,7 @@
       </c>
       <c r="E12" s="43"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13" s="5" t="s">
         <v>70</v>
       </c>
@@ -1224,7 +1235,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B15" s="5" t="s">
         <v>77</v>
       </c>
@@ -1232,7 +1243,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B16" s="5" t="s">
         <v>78</v>
       </c>
@@ -1240,7 +1251,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" s="5" t="s">
         <v>79</v>
       </c>
@@ -1248,7 +1259,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="2:4">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19" s="18" t="s">
         <v>62</v>
       </c>
@@ -1257,7 +1268,7 @@
       </c>
       <c r="D19" s="40"/>
     </row>
-    <row r="20" spans="2:4">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B20" s="18" t="s">
         <v>63</v>
       </c>
@@ -1266,7 +1277,7 @@
       </c>
       <c r="D20" s="40"/>
     </row>
-    <row r="21" spans="2:4">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B21" s="18" t="s">
         <v>64</v>
       </c>
@@ -1300,17 +1311,17 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.46484375" customWidth="1"/>
-    <col min="2" max="2" width="62.46484375" customWidth="1"/>
-    <col min="3" max="3" width="10.46484375" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="2.5" customWidth="1"/>
+    <col min="2" max="2" width="62.5" customWidth="1"/>
+    <col min="3" max="3" width="10.5" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="32.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.46484375" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="15">
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="3" t="s">
         <v>60</v>
@@ -1324,7 +1335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>59</v>
       </c>
@@ -1337,7 +1348,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" s="38" t="s">
         <v>58</v>
       </c>
@@ -1351,7 +1362,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" s="34" t="s">
         <v>57</v>
       </c>
@@ -1372,7 +1383,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15">
+    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="31" t="s">
         <v>56</v>
@@ -1388,7 +1399,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="7" t="s">
         <v>55</v>
@@ -1398,7 +1409,7 @@
       <c r="E8" s="23"/>
       <c r="F8" s="27"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="23" t="s">
         <v>54</v>
@@ -1418,7 +1429,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="23" t="s">
         <v>52</v>
@@ -1438,7 +1449,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="23" t="s">
         <v>49</v>
@@ -1458,7 +1469,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="5" t="s">
         <v>47</v>
@@ -1478,7 +1489,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="21" t="s">
         <v>45</v>
@@ -1500,7 +1511,7 @@
         <v>Mixed</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="23" t="s">
         <v>44</v>
@@ -1520,7 +1531,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="23" t="s">
         <v>42</v>
@@ -1540,7 +1551,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
       <c r="B16" s="23" t="s">
         <v>40</v>
@@ -1560,7 +1571,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="23" t="s">
         <v>38</v>
@@ -1580,7 +1591,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="21" t="s">
         <v>36</v>
@@ -1602,7 +1613,7 @@
         <v>Cold</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
       <c r="B19" s="23" t="s">
         <v>35</v>
@@ -1622,7 +1633,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
       <c r="B20" s="23" t="s">
         <v>32</v>
@@ -1642,7 +1653,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="23" t="s">
         <v>30</v>
@@ -1662,7 +1673,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22" s="23" t="s">
         <v>28</v>
@@ -1682,7 +1693,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
       <c r="B23" s="21" t="s">
         <v>26</v>
@@ -1704,7 +1715,7 @@
         <v>Mixed</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="B24" s="23" t="s">
         <v>25</v>
@@ -1724,7 +1735,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="5"/>
       <c r="B25" s="23" t="s">
         <v>22</v>
@@ -1744,7 +1755,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
       <c r="B26" s="23" t="s">
         <v>20</v>
@@ -1764,7 +1775,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
       <c r="B27" s="23" t="s">
         <v>18</v>
@@ -1784,7 +1795,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
       <c r="B28" s="21" t="s">
         <v>15</v>
@@ -1806,7 +1817,7 @@
         <v>Mixed</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
       <c r="B29" s="18" t="s">
         <v>14</v>
@@ -1828,10 +1839,10 @@
         <v>Relatively pessimistic</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="5"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
       <c r="B31" s="7" t="s">
         <v>13</v>
@@ -1845,7 +1856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
       <c r="B32" s="5" t="s">
         <v>12</v>
@@ -1865,7 +1876,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="2:6">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" s="5" t="s">
         <v>9</v>
       </c>
@@ -1886,7 +1897,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="2:6">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B34" s="5" t="s">
         <v>8</v>
       </c>
@@ -1907,7 +1918,7 @@
         <v>Hot - Positive</v>
       </c>
     </row>
-    <row r="35" spans="2:6">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35" s="5" t="s">
         <v>7</v>
       </c>
@@ -1928,7 +1939,7 @@
         <v>Mixed</v>
       </c>
     </row>
-    <row r="36" spans="2:6">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B36" s="5" t="s">
         <v>6</v>
       </c>
@@ -1949,7 +1960,7 @@
         <v>Cold - Wide</v>
       </c>
     </row>
-    <row r="37" spans="2:6">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37" s="11" t="s">
         <v>5</v>
       </c>
@@ -1970,12 +1981,12 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="39" spans="2:6">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B39" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="2:6">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>3</v>
       </c>

--- a/financial_models/Macro_Monitor.xlsx
+++ b/financial_models/Macro_Monitor.xlsx
@@ -1,36 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2BAFBF3-F202-8F48-866D-27C6377BD46D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DAC1743-1D72-493D-91FF-4623EBD7C083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2200" yWindow="2200" windowWidth="12700" windowHeight="7640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Macro" sheetId="2" r:id="rId1"/>
     <sheet name="Analysis" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" calcOnSave="0" concurrentManualCount="16"/>
+  <calcPr calcId="191029" concurrentManualCount="8"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -362,11 +351,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -374,7 +363,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -447,7 +436,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -463,20 +452,20 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="5" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -485,7 +474,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -494,7 +483,7 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -844,8 +833,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1126,17 +1115,17 @@
   <dimension ref="A2:F21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9"/>
   <cols>
-    <col min="1" max="1" width="2.5" customWidth="1"/>
-    <col min="2" max="2" width="47.83203125" customWidth="1"/>
-    <col min="3" max="6" width="20.83203125" customWidth="1"/>
+    <col min="1" max="1" width="2.46484375" customWidth="1"/>
+    <col min="2" max="2" width="47.796875" customWidth="1"/>
+    <col min="3" max="6" width="20.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="15">
       <c r="A2" s="4"/>
       <c r="B2" s="3" t="s">
         <v>68</v>
@@ -1154,7 +1143,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="B3" t="s">
         <v>67</v>
       </c>
@@ -1169,7 +1158,7 @@
       </c>
       <c r="F3" s="46"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="B4" t="s">
         <v>71</v>
       </c>
@@ -1182,7 +1171,7 @@
       <c r="E4" s="52"/>
       <c r="F4" s="46"/>
     </row>
-    <row r="5" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="14.25" thickBot="1">
       <c r="B5" s="48" t="s">
         <v>72</v>
       </c>
@@ -1193,32 +1182,33 @@
       <c r="E5" s="53"/>
       <c r="F5" s="51"/>
     </row>
-    <row r="6" spans="1:6" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="14.25" thickTop="1">
       <c r="B6" s="47" t="s">
         <v>73</v>
       </c>
       <c r="C6" s="55">
+        <f>MAX(8%,C4)</f>
         <v>0.08</v>
       </c>
       <c r="D6" s="55">
-        <f>(D4+D5)/2</f>
-        <v>0.1125</v>
+        <f>MAX(10%,D4,C4)</f>
+        <v>0.1</v>
       </c>
       <c r="E6" s="55">
         <f>(C6+D6)/2</f>
-        <v>9.6250000000000002E-2</v>
+        <v>0.09</v>
       </c>
       <c r="F6" s="55"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="B10" s="54" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="E11" s="43"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="B12" s="5" t="s">
         <v>82</v>
       </c>
@@ -1227,7 +1217,7 @@
       </c>
       <c r="E12" s="43"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="B13" s="5" t="s">
         <v>70</v>
       </c>
@@ -1235,7 +1225,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="B15" s="5" t="s">
         <v>77</v>
       </c>
@@ -1243,7 +1233,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="B16" s="5" t="s">
         <v>78</v>
       </c>
@@ -1251,7 +1241,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:4">
       <c r="B17" s="5" t="s">
         <v>79</v>
       </c>
@@ -1259,7 +1249,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:4">
       <c r="B19" s="18" t="s">
         <v>62</v>
       </c>
@@ -1268,7 +1258,7 @@
       </c>
       <c r="D19" s="40"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:4">
       <c r="B20" s="18" t="s">
         <v>63</v>
       </c>
@@ -1277,7 +1267,7 @@
       </c>
       <c r="D20" s="40"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:4">
       <c r="B21" s="18" t="s">
         <v>64</v>
       </c>
@@ -1311,17 +1301,17 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9"/>
   <cols>
-    <col min="1" max="1" width="2.5" customWidth="1"/>
-    <col min="2" max="2" width="62.5" customWidth="1"/>
-    <col min="3" max="3" width="10.5" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="2.46484375" customWidth="1"/>
+    <col min="2" max="2" width="62.46484375" customWidth="1"/>
+    <col min="3" max="3" width="10.46484375" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="32.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.5" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="10.46484375" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="15">
       <c r="A2" s="4"/>
       <c r="B2" s="3" t="s">
         <v>60</v>
@@ -1335,7 +1325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="B3" t="s">
         <v>59</v>
       </c>
@@ -1348,7 +1338,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="B4" s="38" t="s">
         <v>58</v>
       </c>
@@ -1362,7 +1352,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="B5" s="34" t="s">
         <v>57</v>
       </c>
@@ -1383,7 +1373,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="15">
       <c r="A7" s="4"/>
       <c r="B7" s="31" t="s">
         <v>56</v>
@@ -1399,7 +1389,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" s="5"/>
       <c r="B8" s="7" t="s">
         <v>55</v>
@@ -1409,7 +1399,7 @@
       <c r="E8" s="23"/>
       <c r="F8" s="27"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" s="5"/>
       <c r="B9" s="23" t="s">
         <v>54</v>
@@ -1429,7 +1419,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" s="5"/>
       <c r="B10" s="23" t="s">
         <v>52</v>
@@ -1449,7 +1439,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" s="5"/>
       <c r="B11" s="23" t="s">
         <v>49</v>
@@ -1469,7 +1459,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" s="5"/>
       <c r="B12" s="5" t="s">
         <v>47</v>
@@ -1489,7 +1479,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" s="5"/>
       <c r="B13" s="21" t="s">
         <v>45</v>
@@ -1511,7 +1501,7 @@
         <v>Mixed</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" s="5"/>
       <c r="B14" s="23" t="s">
         <v>44</v>
@@ -1531,7 +1521,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" s="5"/>
       <c r="B15" s="23" t="s">
         <v>42</v>
@@ -1551,7 +1541,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" s="5"/>
       <c r="B16" s="23" t="s">
         <v>40</v>
@@ -1571,7 +1561,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" s="5"/>
       <c r="B17" s="23" t="s">
         <v>38</v>
@@ -1591,7 +1581,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" s="5"/>
       <c r="B18" s="21" t="s">
         <v>36</v>
@@ -1613,7 +1603,7 @@
         <v>Cold</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" s="5"/>
       <c r="B19" s="23" t="s">
         <v>35</v>
@@ -1633,7 +1623,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" s="5"/>
       <c r="B20" s="23" t="s">
         <v>32</v>
@@ -1653,7 +1643,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" s="5"/>
       <c r="B21" s="23" t="s">
         <v>30</v>
@@ -1673,7 +1663,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" s="5"/>
       <c r="B22" s="23" t="s">
         <v>28</v>
@@ -1693,7 +1683,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23" s="5"/>
       <c r="B23" s="21" t="s">
         <v>26</v>
@@ -1715,7 +1705,7 @@
         <v>Mixed</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24" s="5"/>
       <c r="B24" s="23" t="s">
         <v>25</v>
@@ -1735,7 +1725,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" s="5"/>
       <c r="B25" s="23" t="s">
         <v>22</v>
@@ -1755,7 +1745,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" s="5"/>
       <c r="B26" s="23" t="s">
         <v>20</v>
@@ -1775,7 +1765,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27" s="5"/>
       <c r="B27" s="23" t="s">
         <v>18</v>
@@ -1795,7 +1785,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="A28" s="5"/>
       <c r="B28" s="21" t="s">
         <v>15</v>
@@ -1817,7 +1807,7 @@
         <v>Mixed</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="A29" s="5"/>
       <c r="B29" s="18" t="s">
         <v>14</v>
@@ -1839,10 +1829,10 @@
         <v>Relatively pessimistic</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="A30" s="5"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="A31" s="5"/>
       <c r="B31" s="7" t="s">
         <v>13</v>
@@ -1856,7 +1846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="A32" s="5"/>
       <c r="B32" s="5" t="s">
         <v>12</v>
@@ -1876,7 +1866,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:6">
       <c r="B33" s="5" t="s">
         <v>9</v>
       </c>
@@ -1897,7 +1887,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:6">
       <c r="B34" s="5" t="s">
         <v>8</v>
       </c>
@@ -1918,7 +1908,7 @@
         <v>Hot - Positive</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:6">
       <c r="B35" s="5" t="s">
         <v>7</v>
       </c>
@@ -1939,7 +1929,7 @@
         <v>Mixed</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:6">
       <c r="B36" s="5" t="s">
         <v>6</v>
       </c>
@@ -1960,7 +1950,7 @@
         <v>Cold - Wide</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:6">
       <c r="B37" s="11" t="s">
         <v>5</v>
       </c>
@@ -1981,12 +1971,12 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:6">
       <c r="B39" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:6">
       <c r="B40" t="s">
         <v>3</v>
       </c>

--- a/financial_models/Macro_Monitor.xlsx
+++ b/financial_models/Macro_Monitor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10311"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DAC1743-1D72-493D-91FF-4623EBD7C083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{769B009A-5C20-854A-9D9C-3EEE00258D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Macro" sheetId="2" r:id="rId1"/>
@@ -20,6 +20,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -351,11 +362,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -363,7 +374,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -436,7 +447,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -452,20 +463,20 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="5" tint="-0.249977111117893"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -474,7 +485,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -483,7 +494,7 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -833,8 +844,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1114,18 +1125,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A061C73F-1F33-4614-90A5-D5D9D7C58056}">
   <dimension ref="A2:F21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.46484375" customWidth="1"/>
-    <col min="2" max="2" width="47.796875" customWidth="1"/>
-    <col min="3" max="6" width="20.796875" customWidth="1"/>
+    <col min="1" max="1" width="2.5" customWidth="1"/>
+    <col min="2" max="2" width="47.83203125" customWidth="1"/>
+    <col min="3" max="6" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="15">
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="3" t="s">
         <v>68</v>
@@ -1143,7 +1154,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>67</v>
       </c>
@@ -1151,14 +1162,14 @@
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="D3" s="46">
-        <v>2.0799999999999999E-2</v>
+        <v>2.1309999999999999E-2</v>
       </c>
       <c r="E3" s="45">
         <v>2.7650000000000001E-2</v>
       </c>
       <c r="F3" s="46"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>71</v>
       </c>
@@ -1171,7 +1182,7 @@
       <c r="E4" s="52"/>
       <c r="F4" s="46"/>
     </row>
-    <row r="5" spans="1:6" ht="14.25" thickBot="1">
+    <row r="5" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="48" t="s">
         <v>72</v>
       </c>
@@ -1182,7 +1193,7 @@
       <c r="E5" s="53"/>
       <c r="F5" s="51"/>
     </row>
-    <row r="6" spans="1:6" ht="14.25" thickTop="1">
+    <row r="6" spans="1:6" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B6" s="47" t="s">
         <v>73</v>
       </c>
@@ -1191,24 +1202,24 @@
         <v>0.08</v>
       </c>
       <c r="D6" s="55">
-        <f>MAX(10%,D4,C4)</f>
-        <v>0.1</v>
+        <f>MAX(D4,C6*1.1)</f>
+        <v>8.8000000000000009E-2</v>
       </c>
       <c r="E6" s="55">
         <f>(C6+D6)/2</f>
-        <v>0.09</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="F6" s="55"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" s="54" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E11" s="43"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" s="5" t="s">
         <v>82</v>
       </c>
@@ -1217,7 +1228,7 @@
       </c>
       <c r="E12" s="43"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13" s="5" t="s">
         <v>70</v>
       </c>
@@ -1225,7 +1236,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B15" s="5" t="s">
         <v>77</v>
       </c>
@@ -1233,7 +1244,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B16" s="5" t="s">
         <v>78</v>
       </c>
@@ -1241,7 +1252,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" s="5" t="s">
         <v>79</v>
       </c>
@@ -1249,7 +1260,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="2:4">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19" s="18" t="s">
         <v>62</v>
       </c>
@@ -1258,7 +1269,7 @@
       </c>
       <c r="D19" s="40"/>
     </row>
-    <row r="20" spans="2:4">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B20" s="18" t="s">
         <v>63</v>
       </c>
@@ -1267,7 +1278,7 @@
       </c>
       <c r="D20" s="40"/>
     </row>
-    <row r="21" spans="2:4">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B21" s="18" t="s">
         <v>64</v>
       </c>
@@ -1301,17 +1312,17 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.46484375" customWidth="1"/>
-    <col min="2" max="2" width="62.46484375" customWidth="1"/>
-    <col min="3" max="3" width="10.46484375" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="2.5" customWidth="1"/>
+    <col min="2" max="2" width="62.5" customWidth="1"/>
+    <col min="3" max="3" width="10.5" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="32.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.46484375" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="15">
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="3" t="s">
         <v>60</v>
@@ -1325,7 +1336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>59</v>
       </c>
@@ -1338,7 +1349,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" s="38" t="s">
         <v>58</v>
       </c>
@@ -1352,7 +1363,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" s="34" t="s">
         <v>57</v>
       </c>
@@ -1373,7 +1384,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15">
+    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="31" t="s">
         <v>56</v>
@@ -1389,7 +1400,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="7" t="s">
         <v>55</v>
@@ -1399,7 +1410,7 @@
       <c r="E8" s="23"/>
       <c r="F8" s="27"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="23" t="s">
         <v>54</v>
@@ -1419,7 +1430,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="23" t="s">
         <v>52</v>
@@ -1439,7 +1450,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="23" t="s">
         <v>49</v>
@@ -1459,7 +1470,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="5" t="s">
         <v>47</v>
@@ -1479,7 +1490,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="21" t="s">
         <v>45</v>
@@ -1501,7 +1512,7 @@
         <v>Mixed</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="23" t="s">
         <v>44</v>
@@ -1521,7 +1532,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="23" t="s">
         <v>42</v>
@@ -1541,7 +1552,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
       <c r="B16" s="23" t="s">
         <v>40</v>
@@ -1561,7 +1572,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="23" t="s">
         <v>38</v>
@@ -1581,7 +1592,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="21" t="s">
         <v>36</v>
@@ -1603,7 +1614,7 @@
         <v>Cold</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
       <c r="B19" s="23" t="s">
         <v>35</v>
@@ -1623,7 +1634,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
       <c r="B20" s="23" t="s">
         <v>32</v>
@@ -1643,7 +1654,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="23" t="s">
         <v>30</v>
@@ -1663,7 +1674,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22" s="23" t="s">
         <v>28</v>
@@ -1683,7 +1694,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
       <c r="B23" s="21" t="s">
         <v>26</v>
@@ -1705,7 +1716,7 @@
         <v>Mixed</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="B24" s="23" t="s">
         <v>25</v>
@@ -1725,7 +1736,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="5"/>
       <c r="B25" s="23" t="s">
         <v>22</v>
@@ -1745,7 +1756,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
       <c r="B26" s="23" t="s">
         <v>20</v>
@@ -1765,7 +1776,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
       <c r="B27" s="23" t="s">
         <v>18</v>
@@ -1785,7 +1796,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
       <c r="B28" s="21" t="s">
         <v>15</v>
@@ -1807,7 +1818,7 @@
         <v>Mixed</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
       <c r="B29" s="18" t="s">
         <v>14</v>
@@ -1829,10 +1840,10 @@
         <v>Relatively pessimistic</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="5"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
       <c r="B31" s="7" t="s">
         <v>13</v>
@@ -1846,7 +1857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
       <c r="B32" s="5" t="s">
         <v>12</v>
@@ -1866,7 +1877,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="2:6">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" s="5" t="s">
         <v>9</v>
       </c>
@@ -1887,7 +1898,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="2:6">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B34" s="5" t="s">
         <v>8</v>
       </c>
@@ -1908,7 +1919,7 @@
         <v>Hot - Positive</v>
       </c>
     </row>
-    <row r="35" spans="2:6">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35" s="5" t="s">
         <v>7</v>
       </c>
@@ -1929,7 +1940,7 @@
         <v>Mixed</v>
       </c>
     </row>
-    <row r="36" spans="2:6">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B36" s="5" t="s">
         <v>6</v>
       </c>
@@ -1950,7 +1961,7 @@
         <v>Cold - Wide</v>
       </c>
     </row>
-    <row r="37" spans="2:6">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37" s="11" t="s">
         <v>5</v>
       </c>
@@ -1971,12 +1982,12 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="39" spans="2:6">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B39" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="2:6">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>3</v>
       </c>

--- a/financial_models/Macro_Monitor.xlsx
+++ b/financial_models/Macro_Monitor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{769B009A-5C20-854A-9D9C-3EEE00258D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2481DE73-5867-4B56-891C-A19647FCEE2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Macro" sheetId="2" r:id="rId1"/>
@@ -21,23 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="86">
   <si>
     <t>China</t>
   </si>
@@ -357,16 +346,20 @@
   <si>
     <t>NOTES:</t>
   </si>
+  <si>
+    <t>Target Return</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -374,7 +367,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -447,7 +440,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -463,20 +456,20 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="5" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -485,7 +478,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -494,7 +487,7 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -844,8 +837,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1125,18 +1118,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A061C73F-1F33-4614-90A5-D5D9D7C58056}">
   <dimension ref="A2:F21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="77" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9"/>
   <cols>
-    <col min="1" max="1" width="2.5" customWidth="1"/>
-    <col min="2" max="2" width="47.83203125" customWidth="1"/>
-    <col min="3" max="6" width="20.83203125" customWidth="1"/>
+    <col min="1" max="1" width="2.46484375" customWidth="1"/>
+    <col min="2" max="2" width="47.796875" customWidth="1"/>
+    <col min="3" max="6" width="20.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="15">
       <c r="A2" s="4"/>
       <c r="B2" s="3" t="s">
         <v>68</v>
@@ -1154,7 +1147,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="B3" t="s">
         <v>67</v>
       </c>
@@ -1169,7 +1162,7 @@
       </c>
       <c r="F3" s="46"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="B4" t="s">
         <v>71</v>
       </c>
@@ -1182,7 +1175,7 @@
       <c r="E4" s="52"/>
       <c r="F4" s="46"/>
     </row>
-    <row r="5" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="14.25" thickBot="1">
       <c r="B5" s="48" t="s">
         <v>72</v>
       </c>
@@ -1193,7 +1186,7 @@
       <c r="E5" s="53"/>
       <c r="F5" s="51"/>
     </row>
-    <row r="6" spans="1:6" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="14.25" thickTop="1">
       <c r="B6" s="47" t="s">
         <v>73</v>
       </c>
@@ -1211,15 +1204,24 @@
       </c>
       <c r="F6" s="55"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="15">
+      <c r="A8" s="4"/>
+      <c r="B8" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="45">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="B10" s="54" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="E11" s="43"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="B12" s="5" t="s">
         <v>82</v>
       </c>
@@ -1228,7 +1230,7 @@
       </c>
       <c r="E12" s="43"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="B13" s="5" t="s">
         <v>70</v>
       </c>
@@ -1236,7 +1238,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="B15" s="5" t="s">
         <v>77</v>
       </c>
@@ -1244,7 +1246,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="B16" s="5" t="s">
         <v>78</v>
       </c>
@@ -1252,7 +1254,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:4">
       <c r="B17" s="5" t="s">
         <v>79</v>
       </c>
@@ -1260,7 +1262,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:4">
       <c r="B19" s="18" t="s">
         <v>62</v>
       </c>
@@ -1269,7 +1271,7 @@
       </c>
       <c r="D19" s="40"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:4">
       <c r="B20" s="18" t="s">
         <v>63</v>
       </c>
@@ -1278,7 +1280,7 @@
       </c>
       <c r="D20" s="40"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:4">
       <c r="B21" s="18" t="s">
         <v>64</v>
       </c>
@@ -1312,17 +1314,17 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9"/>
   <cols>
-    <col min="1" max="1" width="2.5" customWidth="1"/>
-    <col min="2" max="2" width="62.5" customWidth="1"/>
-    <col min="3" max="3" width="10.5" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="2.46484375" customWidth="1"/>
+    <col min="2" max="2" width="62.46484375" customWidth="1"/>
+    <col min="3" max="3" width="10.46484375" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="32.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.5" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="10.46484375" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="15">
       <c r="A2" s="4"/>
       <c r="B2" s="3" t="s">
         <v>60</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="B3" t="s">
         <v>59</v>
       </c>
@@ -1349,7 +1351,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="B4" s="38" t="s">
         <v>58</v>
       </c>
@@ -1363,7 +1365,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="B5" s="34" t="s">
         <v>57</v>
       </c>
@@ -1384,7 +1386,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="15">
       <c r="A7" s="4"/>
       <c r="B7" s="31" t="s">
         <v>56</v>
@@ -1400,7 +1402,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" s="5"/>
       <c r="B8" s="7" t="s">
         <v>55</v>
@@ -1410,7 +1412,7 @@
       <c r="E8" s="23"/>
       <c r="F8" s="27"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" s="5"/>
       <c r="B9" s="23" t="s">
         <v>54</v>
@@ -1430,7 +1432,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" s="5"/>
       <c r="B10" s="23" t="s">
         <v>52</v>
@@ -1450,7 +1452,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" s="5"/>
       <c r="B11" s="23" t="s">
         <v>49</v>
@@ -1470,7 +1472,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" s="5"/>
       <c r="B12" s="5" t="s">
         <v>47</v>
@@ -1490,7 +1492,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" s="5"/>
       <c r="B13" s="21" t="s">
         <v>45</v>
@@ -1512,7 +1514,7 @@
         <v>Mixed</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" s="5"/>
       <c r="B14" s="23" t="s">
         <v>44</v>
@@ -1532,7 +1534,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" s="5"/>
       <c r="B15" s="23" t="s">
         <v>42</v>
@@ -1552,7 +1554,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" s="5"/>
       <c r="B16" s="23" t="s">
         <v>40</v>
@@ -1572,7 +1574,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" s="5"/>
       <c r="B17" s="23" t="s">
         <v>38</v>
@@ -1592,7 +1594,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" s="5"/>
       <c r="B18" s="21" t="s">
         <v>36</v>
@@ -1614,7 +1616,7 @@
         <v>Cold</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" s="5"/>
       <c r="B19" s="23" t="s">
         <v>35</v>
@@ -1634,7 +1636,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" s="5"/>
       <c r="B20" s="23" t="s">
         <v>32</v>
@@ -1654,7 +1656,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" s="5"/>
       <c r="B21" s="23" t="s">
         <v>30</v>
@@ -1674,7 +1676,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" s="5"/>
       <c r="B22" s="23" t="s">
         <v>28</v>
@@ -1694,7 +1696,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23" s="5"/>
       <c r="B23" s="21" t="s">
         <v>26</v>
@@ -1716,7 +1718,7 @@
         <v>Mixed</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24" s="5"/>
       <c r="B24" s="23" t="s">
         <v>25</v>
@@ -1736,7 +1738,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" s="5"/>
       <c r="B25" s="23" t="s">
         <v>22</v>
@@ -1756,7 +1758,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" s="5"/>
       <c r="B26" s="23" t="s">
         <v>20</v>
@@ -1776,7 +1778,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27" s="5"/>
       <c r="B27" s="23" t="s">
         <v>18</v>
@@ -1796,7 +1798,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="A28" s="5"/>
       <c r="B28" s="21" t="s">
         <v>15</v>
@@ -1818,7 +1820,7 @@
         <v>Mixed</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="A29" s="5"/>
       <c r="B29" s="18" t="s">
         <v>14</v>
@@ -1840,10 +1842,10 @@
         <v>Relatively pessimistic</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="A30" s="5"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="A31" s="5"/>
       <c r="B31" s="7" t="s">
         <v>13</v>
@@ -1857,7 +1859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="A32" s="5"/>
       <c r="B32" s="5" t="s">
         <v>12</v>
@@ -1877,7 +1879,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:6">
       <c r="B33" s="5" t="s">
         <v>9</v>
       </c>
@@ -1898,7 +1900,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:6">
       <c r="B34" s="5" t="s">
         <v>8</v>
       </c>
@@ -1919,7 +1921,7 @@
         <v>Hot - Positive</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:6">
       <c r="B35" s="5" t="s">
         <v>7</v>
       </c>
@@ -1940,7 +1942,7 @@
         <v>Mixed</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:6">
       <c r="B36" s="5" t="s">
         <v>6</v>
       </c>
@@ -1961,7 +1963,7 @@
         <v>Cold - Wide</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:6">
       <c r="B37" s="11" t="s">
         <v>5</v>
       </c>
@@ -1982,12 +1984,12 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:6">
       <c r="B39" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:6">
       <c r="B40" t="s">
         <v>3</v>
       </c>

--- a/financial_models/Macro_Monitor.xlsx
+++ b/financial_models/Macro_Monitor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2481DE73-5867-4B56-891C-A19647FCEE2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E19CF0-D1FB-4C1E-A244-6E12E09B586B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1119,7 +1119,7 @@
   <dimension ref="A2:F21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="77" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9"/>
@@ -1191,16 +1191,16 @@
         <v>73</v>
       </c>
       <c r="C6" s="55">
-        <f>MAX(8%,C4)</f>
-        <v>0.08</v>
+        <f>MAX(6%,C4)</f>
+        <v>0.06</v>
       </c>
       <c r="D6" s="55">
-        <f>MAX(D4,C6*1.1)</f>
-        <v>8.8000000000000009E-2</v>
+        <f>MAX(D4,C6*1.2)</f>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="E6" s="55">
         <f>(C6+D6)/2</f>
-        <v>8.4000000000000005E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="F6" s="55"/>
     </row>

--- a/financial_models/Macro_Monitor.xlsx
+++ b/financial_models/Macro_Monitor.xlsx
@@ -1,32 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10311"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E19CF0-D1FB-4C1E-A244-6E12E09B586B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{044C1219-29F9-6743-B92A-0562C59A8B76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Macro" sheetId="2" r:id="rId1"/>
-    <sheet name="Analysis" sheetId="4" r:id="rId2"/>
+    <sheet name="Commodities" sheetId="5" r:id="rId2"/>
+    <sheet name="RE" sheetId="6" r:id="rId3"/>
+    <sheet name="Analysis" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029" concurrentManualCount="8"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="120">
   <si>
     <t>China</t>
   </si>
@@ -250,31 +263,6 @@
     <t>Current Environment Assessment</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">⇒ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Adj. Rf</t>
-    </r>
-  </si>
-  <si>
-    <t>+ Interest Rate Risk Premium</t>
-  </si>
-  <si>
-    <t>⇒ Real risk-free rate +</t>
-  </si>
-  <si>
-    <t>Discount rate:</t>
-  </si>
-  <si>
     <t>https://fred.stlouisfed.org/series/CORESTICKM159SFRBATL</t>
   </si>
   <si>
@@ -344,22 +332,136 @@
     <t>CN</t>
   </si>
   <si>
-    <t>NOTES:</t>
-  </si>
-  <si>
     <t>Target Return</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crude oil</t>
+  </si>
+  <si>
+    <t>https://tradingeconomics.com/commodity/crude-oil</t>
+  </si>
+  <si>
+    <t>Energy:</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>Metals:</t>
+  </si>
+  <si>
+    <t>https://tradingeconomics.com/commodity/gold</t>
+  </si>
+  <si>
+    <t>All-in-one Dash Board</t>
+  </si>
+  <si>
+    <t>https://tradingeconomics.com/commodities</t>
+  </si>
+  <si>
+    <t>https://tradingeconomics.com/commodity/wheat</t>
+  </si>
+  <si>
+    <t>Wheat</t>
+  </si>
+  <si>
+    <t>Agricultural:</t>
+  </si>
+  <si>
+    <t>All-in-one Currency Dashboard</t>
+  </si>
+  <si>
+    <t>https://tradingeconomics.com/currencies</t>
+  </si>
+  <si>
+    <t>https://tradingeconomics.com/china/currency</t>
+  </si>
+  <si>
+    <t>USDCNY</t>
+  </si>
+  <si>
+    <t>All-in-One Bond Prices</t>
+  </si>
+  <si>
+    <t>https://tradingeconomics.com/bonds</t>
+  </si>
+  <si>
+    <t>All-in-One Growth Rate</t>
+  </si>
+  <si>
+    <t>https://tradingeconomics.com/country-list/gdp-growth-rate</t>
+  </si>
+  <si>
+    <t>https://tradingeconomics.com/country-list/inflation-rate</t>
+  </si>
+  <si>
+    <t>All-in-One Inflation Rate</t>
+  </si>
+  <si>
+    <t>Growth &amp; Inflation Rate</t>
+  </si>
+  <si>
+    <t>https://tradingeconomics.com/cadcny:cur</t>
+  </si>
+  <si>
+    <t>CADCNY</t>
+  </si>
+  <si>
+    <t>HKDCNY</t>
+  </si>
+  <si>
+    <t>https://tradingeconomics.com/hkdcny:cur</t>
+  </si>
+  <si>
+    <t>https://tradingeconomics.com/canada/currency</t>
+  </si>
+  <si>
+    <t>USDCAD</t>
+  </si>
+  <si>
+    <t>https://tradingeconomics.com/japan/currency</t>
+  </si>
+  <si>
+    <t>USDJAY</t>
+  </si>
+  <si>
+    <t>EURUSD</t>
+  </si>
+  <si>
+    <t>https://tradingeconomics.com/euro-area/currency</t>
+  </si>
+  <si>
+    <t>https://hk.centanet.com/CCI/CCI</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Residential</t>
+  </si>
+  <si>
+    <t>Commercial</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -367,7 +469,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -439,37 +541,16 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="5" tint="-0.249977111117893"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -478,18 +559,21 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
-      <b/>
       <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <color theme="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="9">
@@ -542,7 +626,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -625,50 +709,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="dotted">
-        <color indexed="64"/>
-      </right>
-      <top style="dotted">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="dotted">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color indexed="64"/>
-      </left>
-      <right style="dotted">
-        <color indexed="64"/>
-      </right>
-      <top style="dotted">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color indexed="64"/>
-      </left>
-      <right style="dotted">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -708,14 +748,13 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -785,60 +824,50 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="10" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="10" fontId="2" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="10" fontId="2" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1116,941 +1145,1113 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A061C73F-1F33-4614-90A5-D5D9D7C58056}">
-  <dimension ref="A2:F21"/>
+  <dimension ref="A2:F40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="77" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="114" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.46484375" customWidth="1"/>
-    <col min="2" max="2" width="47.796875" customWidth="1"/>
-    <col min="3" max="6" width="20.796875" customWidth="1"/>
+    <col min="1" max="1" width="2.5" style="22" customWidth="1"/>
+    <col min="2" max="2" width="47.83203125" style="22" customWidth="1"/>
+    <col min="3" max="6" width="20.83203125" style="22" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="22"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="15">
-      <c r="A2" s="4"/>
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B3" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="32">
+        <v>4.2099999999999999E-2</v>
+      </c>
+      <c r="D3" s="33">
+        <v>2.1309999999999999E-2</v>
+      </c>
+      <c r="E3" s="32">
+        <v>2.7650000000000001E-2</v>
+      </c>
+      <c r="F3" s="33"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B4" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="32">
+        <v>5.3099999999999994E-2</v>
+      </c>
+      <c r="D4" s="33">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="E4" s="38"/>
+      <c r="F4" s="33"/>
+    </row>
+    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="44" t="s">
+      <c r="C5" s="36"/>
+      <c r="D5" s="37">
+        <v>0.16</v>
+      </c>
+      <c r="E5" s="39"/>
+      <c r="F5" s="37"/>
+    </row>
+    <row r="6" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="20" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="B3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="45">
-        <v>4.2099999999999999E-2</v>
-      </c>
-      <c r="D3" s="46">
-        <v>2.1309999999999999E-2</v>
-      </c>
-      <c r="E3" s="45">
-        <v>2.7650000000000001E-2</v>
-      </c>
-      <c r="F3" s="46"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="B4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="45">
-        <v>5.3099999999999994E-2</v>
-      </c>
-      <c r="D4" s="46">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="E4" s="52"/>
-      <c r="F4" s="46"/>
-    </row>
-    <row r="5" spans="1:6" ht="14.25" thickBot="1">
-      <c r="B5" s="48" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="51">
-        <v>0.16</v>
-      </c>
-      <c r="E5" s="53"/>
-      <c r="F5" s="51"/>
-    </row>
-    <row r="6" spans="1:6" ht="14.25" thickTop="1">
-      <c r="B6" s="47" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6" s="55">
+      <c r="C6" s="40">
         <f>MAX(6%,C4)</f>
         <v>0.06</v>
       </c>
-      <c r="D6" s="55">
+      <c r="D6" s="40">
         <f>MAX(D4,C6*1.2)</f>
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="E6" s="55">
+      <c r="E6" s="40">
         <f>(C6+D6)/2</f>
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="F6" s="55"/>
-    </row>
-    <row r="8" spans="1:6" ht="15">
-      <c r="A8" s="4"/>
-      <c r="B8" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C8" s="45">
+      <c r="F6" s="40"/>
+    </row>
+    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
+      <c r="B8" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="32">
         <v>0.15</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="B10" s="54" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="E11" s="43"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="B12" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C12" s="49" t="s">
-        <v>80</v>
-      </c>
-      <c r="E12" s="43"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="B13" s="5" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B10" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" s="46"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E11" s="46"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B12" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B13" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="45" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B15" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="49" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="B15" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" s="49" t="s">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B16" s="4" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="B16" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C16" s="49" t="s">
+      <c r="C16" s="45" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B17" s="4" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C17" s="49" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="18" t="s">
+      <c r="C17" s="45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="3"/>
+      <c r="B19" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B21" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="45" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B23" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="D23" s="31"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D24" s="31"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B25" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="31"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B26" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="C19" s="41" t="s">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B27" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="40"/>
-    </row>
-    <row r="20" spans="2:4">
-      <c r="B20" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="D20" s="40"/>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="B21" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="D21" s="40"/>
+    </row>
+    <row r="29" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="3"/>
+      <c r="B29" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B31" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" s="45" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B33" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C33" s="45" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B34" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" s="45" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B35" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C35" s="45" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B37" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C37" s="45" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B38" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="C38" s="45" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B40" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C40" s="45" t="s">
+        <v>112</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C19" r:id="rId1" xr:uid="{05C6860A-F093-492E-A0AF-7D2134D3C356}"/>
-    <hyperlink ref="C21" r:id="rId2" xr:uid="{286AD228-59EC-4FB0-A64C-3CB536B18819}"/>
-    <hyperlink ref="C20" r:id="rId3" xr:uid="{44FDAB98-97BD-4C87-B095-E2260A9245A6}"/>
+    <hyperlink ref="C25" r:id="rId1" xr:uid="{05C6860A-F093-492E-A0AF-7D2134D3C356}"/>
+    <hyperlink ref="C27" r:id="rId2" xr:uid="{286AD228-59EC-4FB0-A64C-3CB536B18819}"/>
+    <hyperlink ref="C26" r:id="rId3" xr:uid="{44FDAB98-97BD-4C87-B095-E2260A9245A6}"/>
     <hyperlink ref="C17" r:id="rId4" xr:uid="{DB671679-E839-B64A-AD4E-6D8A323DAFC3}"/>
     <hyperlink ref="C16" r:id="rId5" xr:uid="{9CB8AD70-9E02-9A41-8E3A-990A0C1E81AE}"/>
     <hyperlink ref="C15" r:id="rId6" xr:uid="{45D5643F-FA1A-3C48-B2D9-4B6082295A37}"/>
     <hyperlink ref="C13" r:id="rId7" xr:uid="{35ACA25B-AF93-B04F-A9DD-9D3D634DC7A6}"/>
     <hyperlink ref="C12" r:id="rId8" xr:uid="{8FF27AF7-25A6-F443-A0E6-DAC1AFC8FB4A}"/>
+    <hyperlink ref="C31" r:id="rId9" xr:uid="{16104B09-A651-7A41-A777-F49F69D02554}"/>
+    <hyperlink ref="C33" r:id="rId10" xr:uid="{BFEB5D28-D16E-9545-989F-F86E412707A9}"/>
+    <hyperlink ref="C10" r:id="rId11" xr:uid="{E414D4D1-755D-2A43-AB81-B4A0517E9107}"/>
+    <hyperlink ref="C21" r:id="rId12" xr:uid="{C786C6E9-2989-FC4B-AA0A-06A1D27833B3}"/>
+    <hyperlink ref="C23" r:id="rId13" xr:uid="{AB6AA105-FF7B-6742-BA96-69BED0C583D4}"/>
+    <hyperlink ref="C35" r:id="rId14" xr:uid="{645528C6-7225-564E-908E-A85650E1CCD6}"/>
+    <hyperlink ref="C34" r:id="rId15" xr:uid="{0B036CAC-824D-E543-8C48-9EDDC7350EA2}"/>
+    <hyperlink ref="C37" r:id="rId16" xr:uid="{EF5F9EA6-9DD5-1C42-A0E5-61DBB0A5A02F}"/>
+    <hyperlink ref="C38" r:id="rId17" xr:uid="{1DE792CC-A9C9-BB47-A69A-D22E477A4A3B}"/>
+    <hyperlink ref="C40" r:id="rId18" xr:uid="{E7131674-9823-C34D-8EBB-49D25F896885}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId9"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId19"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54B06D35-F870-9847-BA9B-1E2F9FFBE611}">
+  <dimension ref="B2:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="24.6640625" customWidth="1"/>
+    <col min="3" max="3" width="45.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="34" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B7" s="41" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B10" s="34" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{BD2948D7-96D9-264F-B0D8-E6D98C96444B}"/>
+    <hyperlink ref="C8" r:id="rId2" xr:uid="{00B87B71-2B64-7648-8C06-ED4B13CF1CAC}"/>
+    <hyperlink ref="C2" r:id="rId3" xr:uid="{2EBA3D15-8A74-E446-A2A5-3050276DAEF0}"/>
+    <hyperlink ref="C11" r:id="rId4" xr:uid="{C49E8DEC-BC7E-F34D-949B-76A17DA7B973}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CEBDF31-D93E-6148-9E83-2491198D4CE1}">
+  <dimension ref="B2:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="38.6640625" customWidth="1"/>
+    <col min="4" max="4" width="34.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C2" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{D5EB599C-0AC8-C945-97CD-4616A9DA5B5A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDB43275-BEC1-4DF6-B56D-B5F180583A40}">
-  <dimension ref="A2:F40"/>
+  <dimension ref="A2:F35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.46484375" customWidth="1"/>
-    <col min="2" max="2" width="62.46484375" customWidth="1"/>
-    <col min="3" max="3" width="10.46484375" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="2.5" customWidth="1"/>
+    <col min="2" max="2" width="62.5" customWidth="1"/>
+    <col min="3" max="3" width="10.5" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="32.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.46484375" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="15">
-      <c r="A2" s="4"/>
-      <c r="B2" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="6" t="s">
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="28"/>
+      <c r="F2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="6" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="4"/>
+      <c r="B3" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="26"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="4"/>
+      <c r="B4" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="19">
+        <f>IF(LEFT(D4,1)="H",1,IF(LEFT(D4,1)="C",-1,0))</f>
+        <v>-1</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="19">
+        <f>IF(LEFT(F4,1)="H",1,IF(LEFT(F4,1)="C",-1,0))</f>
+        <v>-1</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="4"/>
+      <c r="B5" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="19">
+        <f>IF(LEFT(D5,1)="H",1,IF(LEFT(D5,1)="C",-1,0))</f>
+        <v>-1</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="19">
+        <f>IF(LEFT(F5,1)="H",1,IF(LEFT(F5,1)="C",-1,0))</f>
+        <v>1</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="4"/>
+      <c r="B6" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="19">
+        <f>IF(LEFT(D6,1)="H",1,IF(LEFT(D6,1)="C",-1,0))</f>
+        <v>-1</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="19">
+        <f>IF(LEFT(F6,1)="H",1,IF(LEFT(F6,1)="C",-1,0))</f>
+        <v>-1</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="19">
+        <f>IF(LEFT(D7,1)="H",1,IF(LEFT(D7,1)="C",-1,0))</f>
+        <v>-1</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="19">
+        <f>IF(LEFT(F7,1)="H",1,IF(LEFT(F7,1)="C",-1,0))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="B3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" s="39" t="e">
-        <f>Macro!C3-Macro!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F3" s="39" t="e">
-        <f>Macro!D3-Macro!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="B4" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="37" t="e">
-        <f>D37</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E4" s="36"/>
-      <c r="F4" s="35" t="e">
-        <f>F37</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="B5" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="33">
-        <f>IF(C29=4,1.2, IF(C29=-4,1.1,1))</f>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D5" s="8" t="e">
-        <f>SUM(D3:D4)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E5" s="32">
-        <f>IF(E29=4,1.2, IF(E29=-4,1.1,1))</f>
-        <v>1</v>
-      </c>
-      <c r="F5" s="8" t="e">
-        <f>SUM(F3:F4)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15">
-      <c r="A7" s="4"/>
-      <c r="B7" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="29" t="str">
-        <f>D2</f>
-        <v>US</v>
-      </c>
-      <c r="E7" s="29"/>
-      <c r="F7" s="6" t="str">
-        <f>F2</f>
-        <v>China</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="5"/>
-      <c r="B8" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="27"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="5"/>
-      <c r="B9" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="20">
+      <c r="F7" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="4"/>
+      <c r="B8" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="19">
+        <f>IF(LEFT(D8,1)="H",2,IF(LEFT(D8,1)="C",-1,0))</f>
+        <v>-1</v>
+      </c>
+      <c r="D8" s="23" t="str">
+        <f>IF(SUM(C4:C7)&gt;=3, "Hot", IF(SUM(C4:C7)&lt;=-3,"Cold", "Mixed"))</f>
+        <v>Cold</v>
+      </c>
+      <c r="E8" s="19">
+        <f>IF(LEFT(F8,1)="H",2,IF(LEFT(F8,1)="C",-1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="23" t="str">
+        <f>IF(SUM(E4:E7)&gt;=3, "Hot", IF(SUM(E4:E7)&lt;=-3,"Cold", "Mixed"))</f>
+        <v>Mixed</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="4"/>
+      <c r="B9" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="19">
         <f>IF(LEFT(D9,1)="H",1,IF(LEFT(D9,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
-      <c r="D9" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="20">
+      <c r="D9" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="19">
         <f>IF(LEFT(F9,1)="H",1,IF(LEFT(F9,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
-      <c r="F9" s="22" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="5"/>
-      <c r="B10" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="20">
+      <c r="F9" s="21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="4"/>
+      <c r="B10" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="19">
         <f>IF(LEFT(D10,1)="H",1,IF(LEFT(D10,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
-      <c r="D10" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="20">
+      <c r="D10" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="19">
         <f>IF(LEFT(F10,1)="H",1,IF(LEFT(F10,1)="C",-1,0))</f>
-        <v>1</v>
-      </c>
-      <c r="F10" s="26" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="5"/>
-      <c r="B11" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="20">
+        <v>-1</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="4"/>
+      <c r="B11" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="19">
         <f>IF(LEFT(D11,1)="H",1,IF(LEFT(D11,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
-      <c r="D11" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="20">
+      <c r="D11" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="19">
         <f>IF(LEFT(F11,1)="H",1,IF(LEFT(F11,1)="C",-1,0))</f>
-        <v>-1</v>
-      </c>
-      <c r="F11" s="25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="20">
+        <v>0</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="4"/>
+      <c r="B12" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="19">
         <f>IF(LEFT(D12,1)="H",1,IF(LEFT(D12,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
-      <c r="D12" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="20">
+      <c r="D12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="19">
         <f>IF(LEFT(F12,1)="H",1,IF(LEFT(F12,1)="C",-1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="5"/>
-      <c r="B13" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="20">
+        <v>-1</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="4"/>
+      <c r="B13" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="19">
         <f>IF(LEFT(D13,1)="H",2,IF(LEFT(D13,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
-      <c r="D13" s="24" t="str">
+      <c r="D13" s="18" t="str">
         <f>IF(SUM(C9:C12)&gt;=3, "Hot", IF(SUM(C9:C12)&lt;=-3,"Cold", "Mixed"))</f>
         <v>Cold</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E13" s="19">
         <f>IF(LEFT(F13,1)="H",2,IF(LEFT(F13,1)="C",-1,0))</f>
+        <v>-1</v>
+      </c>
+      <c r="F13" s="18" t="str">
+        <f>IF(SUM(E9:E12)&gt;=3, "Hot", IF(SUM(E9:E12)&lt;=-3,"Cold", "Mixed"))</f>
+        <v>Cold</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="4"/>
+      <c r="B14" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="19">
+        <f>IF(LEFT(D14,1)="H",1,IF(LEFT(D14,1)="C",-1,0))</f>
+        <v>-1</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="19">
+        <f>IF(LEFT(F14,1)="H",1,IF(LEFT(F14,1)="C",-1,0))</f>
+        <v>1</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="4"/>
+      <c r="B15" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="19">
+        <f>IF(LEFT(D15,1)="H",1,IF(LEFT(D15,1)="C",-1,0))</f>
+        <v>-1</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="19">
+        <f>IF(LEFT(F15,1)="H",1,IF(LEFT(F15,1)="C",-1,0))</f>
         <v>0</v>
       </c>
-      <c r="F13" s="24" t="str">
-        <f>IF(SUM(E9:E12)&gt;=3, "Hot", IF(SUM(E9:E12)&lt;=-3,"Cold", "Mixed"))</f>
-        <v>Mixed</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="5"/>
-      <c r="B14" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="20">
-        <f>IF(LEFT(D14,1)="H",1,IF(LEFT(D14,1)="C",-1,0))</f>
-        <v>-1</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="20">
-        <f>IF(LEFT(F14,1)="H",1,IF(LEFT(F14,1)="C",-1,0))</f>
-        <v>-1</v>
-      </c>
-      <c r="F14" s="22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="5"/>
-      <c r="B15" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="20">
-        <f>IF(LEFT(D15,1)="H",1,IF(LEFT(D15,1)="C",-1,0))</f>
-        <v>-1</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="20">
-        <f>IF(LEFT(F15,1)="H",1,IF(LEFT(F15,1)="C",-1,0))</f>
-        <v>-1</v>
-      </c>
-      <c r="F15" s="22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="5"/>
-      <c r="B16" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="20">
+      <c r="F15" s="21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="4"/>
+      <c r="B16" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="19">
         <f>IF(LEFT(D16,1)="H",1,IF(LEFT(D16,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
-      <c r="D16" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="20">
+      <c r="D16" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="19">
         <f>IF(LEFT(F16,1)="H",1,IF(LEFT(F16,1)="C",-1,0))</f>
         <v>0</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="F16" s="21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="5"/>
-      <c r="B17" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="20">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="4"/>
+      <c r="B17" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="19">
         <f>IF(LEFT(D17,1)="H",1,IF(LEFT(D17,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
-      <c r="D17" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="20">
+      <c r="D17" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="19">
         <f>IF(LEFT(F17,1)="H",1,IF(LEFT(F17,1)="C",-1,0))</f>
-        <v>-1</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="5"/>
-      <c r="B18" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="20">
+        <v>0</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="4"/>
+      <c r="B18" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="19">
         <f>IF(LEFT(D18,1)="H",2,IF(LEFT(D18,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
-      <c r="D18" s="19" t="str">
+      <c r="D18" s="18" t="str">
         <f>IF(SUM(C14:C17)&gt;=3, "Hot", IF(SUM(C14:C17)&lt;=-3,"Cold", "Mixed"))</f>
         <v>Cold</v>
       </c>
-      <c r="E18" s="20">
+      <c r="E18" s="19">
         <f>IF(LEFT(F18,1)="H",2,IF(LEFT(F18,1)="C",-1,0))</f>
-        <v>-1</v>
-      </c>
-      <c r="F18" s="19" t="str">
+        <v>0</v>
+      </c>
+      <c r="F18" s="18" t="str">
         <f>IF(SUM(E14:E17)&gt;=3, "Hot", IF(SUM(E14:E17)&lt;=-3,"Cold", "Mixed"))</f>
-        <v>Cold</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="5"/>
-      <c r="B19" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="20">
+        <v>Mixed</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="4"/>
+      <c r="B19" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="19">
         <f>IF(LEFT(D19,1)="H",1,IF(LEFT(D19,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
-      <c r="D19" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="20">
+      <c r="D19" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="19">
         <f>IF(LEFT(F19,1)="H",1,IF(LEFT(F19,1)="C",-1,0))</f>
-        <v>1</v>
-      </c>
-      <c r="F19" s="22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="5"/>
-      <c r="B20" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="20">
+        <v>0</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="4"/>
+      <c r="B20" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="19">
         <f>IF(LEFT(D20,1)="H",1,IF(LEFT(D20,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
-      <c r="D20" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" s="20">
+      <c r="D20" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="19">
         <f>IF(LEFT(F20,1)="H",1,IF(LEFT(F20,1)="C",-1,0))</f>
         <v>0</v>
       </c>
-      <c r="F20" s="22" t="s">
+      <c r="F20" s="21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="5"/>
-      <c r="B21" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="20">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="4"/>
+      <c r="B21" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="19">
         <f>IF(LEFT(D21,1)="H",1,IF(LEFT(D21,1)="C",-1,0))</f>
-        <v>-1</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="20">
+        <v>0</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="19">
         <f>IF(LEFT(F21,1)="H",1,IF(LEFT(F21,1)="C",-1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="F21" s="22" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="5"/>
-      <c r="B22" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="20">
+        <v>1</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="4"/>
+      <c r="B22" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="19">
         <f>IF(LEFT(D22,1)="H",1,IF(LEFT(D22,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
-      <c r="D22" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" s="20">
+      <c r="D22" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="19">
         <f>IF(LEFT(F22,1)="H",1,IF(LEFT(F22,1)="C",-1,0))</f>
         <v>0</v>
       </c>
-      <c r="F22" s="22" t="s">
+      <c r="F22" s="21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="5"/>
-      <c r="B23" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="20">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="4"/>
+      <c r="B23" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="19">
         <f>IF(LEFT(D23,1)="H",2,IF(LEFT(D23,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
-      <c r="D23" s="19" t="str">
+      <c r="D23" s="18" t="str">
         <f>IF(SUM(C19:C22)&gt;=3, "Hot", IF(SUM(C19:C22)&lt;=-3,"Cold", "Mixed"))</f>
         <v>Cold</v>
       </c>
-      <c r="E23" s="20">
+      <c r="E23" s="19">
         <f>IF(LEFT(F23,1)="H",2,IF(LEFT(F23,1)="C",-1,0))</f>
         <v>0</v>
       </c>
-      <c r="F23" s="19" t="str">
+      <c r="F23" s="18" t="str">
         <f>IF(SUM(E19:E22)&gt;=3, "Hot", IF(SUM(E19:E22)&lt;=-3,"Cold", "Mixed"))</f>
         <v>Mixed</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="5"/>
-      <c r="B24" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="20">
-        <f>IF(LEFT(D24,1)="H",1,IF(LEFT(D24,1)="C",-1,0))</f>
-        <v>-1</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" s="20">
-        <f>IF(LEFT(F24,1)="H",1,IF(LEFT(F24,1)="C",-1,0))</f>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="4"/>
+      <c r="B24" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="16">
+        <f>SUM(C8,C13,C18,C23)</f>
+        <v>-4</v>
+      </c>
+      <c r="D24" s="15" t="str">
+        <f>IF(OR(C24=4,C24=-4),"In extreme",IF(C24=0,"In equilibrium",IF(OR(C24&gt;0),"Relatively optimistic","Relatively pessimistic")))</f>
+        <v>In extreme</v>
+      </c>
+      <c r="E24" s="16">
+        <f>SUM(E8,E13,E18,E23)</f>
+        <v>-1</v>
+      </c>
+      <c r="F24" s="15" t="str">
+        <f>IF(OR(E24=4,E24=-4),"In extreme",IF(E24=0,"In equilibrium",IF(OR(E24&gt;0),"Relatively optimistic","Relatively pessimistic")))</f>
+        <v>Relatively pessimistic</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="4"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="4"/>
+      <c r="B26" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="F24" s="22" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="5"/>
-      <c r="B25" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="20">
-        <f>IF(LEFT(D25,1)="H",1,IF(LEFT(D25,1)="C",-1,0))</f>
-        <v>-1</v>
-      </c>
-      <c r="D25" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" s="20">
-        <f>IF(LEFT(F25,1)="H",1,IF(LEFT(F25,1)="C",-1,0))</f>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="12">
+        <f>IF(LEFT(D27,1)="H",2,IF(LEFT(D27,1)="C",0,1))</f>
         <v>0</v>
       </c>
-      <c r="F25" s="22" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="5"/>
-      <c r="B26" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="20">
-        <f>IF(LEFT(D26,1)="H",1,IF(LEFT(D26,1)="C",-1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="D26" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E26" s="20">
-        <f>IF(LEFT(F26,1)="H",1,IF(LEFT(F26,1)="C",-1,0))</f>
-        <v>1</v>
-      </c>
-      <c r="F26" s="22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="5"/>
-      <c r="B27" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="20">
-        <f>IF(LEFT(D27,1)="H",1,IF(LEFT(D27,1)="C",-1,0))</f>
-        <v>-1</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" s="20">
-        <f>IF(LEFT(F27,1)="H",1,IF(LEFT(F27,1)="C",-1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="F27" s="22" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="5"/>
-      <c r="B28" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" s="20">
-        <f>IF(LEFT(D28,1)="H",2,IF(LEFT(D28,1)="C",-1,0))</f>
-        <v>-1</v>
-      </c>
-      <c r="D28" s="19" t="str">
-        <f>IF(SUM(C24:C27)&gt;=3, "Hot", IF(SUM(C24:C27)&lt;=-3,"Cold", "Mixed"))</f>
-        <v>Cold</v>
-      </c>
-      <c r="E28" s="20">
-        <f>IF(LEFT(F28,1)="H",2,IF(LEFT(F28,1)="C",-1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="F28" s="19" t="str">
-        <f>IF(SUM(E24:E27)&gt;=3, "Hot", IF(SUM(E24:E27)&lt;=-3,"Cold", "Mixed"))</f>
-        <v>Mixed</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="5"/>
-      <c r="B29" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="17">
-        <f>SUM(C13,C18,C23,C28)</f>
-        <v>-4</v>
-      </c>
-      <c r="D29" s="16" t="str">
-        <f>IF(OR(C29=4,C29=-4),"In extreme",IF(C29=0,"In equilibrium",IF(OR(C29&gt;0),"Relatively optimistic","Relatively pessimistic")))</f>
-        <v>In extreme</v>
-      </c>
-      <c r="E29" s="17">
-        <f>SUM(E13,E18,E23,E28)</f>
-        <v>-1</v>
-      </c>
-      <c r="F29" s="16" t="str">
-        <f>IF(OR(E29=4,E29=-4),"In extreme",IF(E29=0,"In equilibrium",IF(OR(E29&gt;0),"Relatively optimistic","Relatively pessimistic")))</f>
-        <v>Relatively pessimistic</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="5"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="5"/>
-      <c r="B31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="E31" s="5"/>
-      <c r="F31" s="15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="13">
-        <f>IF(LEFT(D32,1)="H",2,IF(LEFT(D32,1)="C",0,1))</f>
-        <v>0</v>
-      </c>
-      <c r="D32" s="14" t="s">
+      <c r="D27" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E32" s="13">
-        <f>IF(LEFT(F32,1)="H",2,IF(LEFT(F32,1)="C",0,1))</f>
+      <c r="E27" s="12">
+        <f>IF(LEFT(F27,1)="H",2,IF(LEFT(F27,1)="C",0,1))</f>
         <v>2</v>
       </c>
-      <c r="F32" s="14" t="s">
+      <c r="F27" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="2:6">
-      <c r="B33" s="5" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B28" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="13" t="e">
-        <f>IF(LEFT(D33,1)="H",2,IF(LEFT(D33,1)="C",0,1))</f>
+      <c r="C28" s="12" t="e">
+        <f>IF(LEFT(D28,1)="H",2,IF(LEFT(D28,1)="C",0,1))</f>
         <v>#REF!</v>
       </c>
-      <c r="D33" s="12" t="e">
+      <c r="D28" s="11" t="e">
         <f>IF(Macro!#REF!&gt;=3%, "Hot - High", IF(Macro!#REF!&lt;=1.5%, "Cold - Low", "Mixed - Dormant"))</f>
         <v>#REF!</v>
       </c>
-      <c r="E33" s="13" t="e">
-        <f>IF(LEFT(F33,1)="H",2,IF(LEFT(F33,1)="C",0,1))</f>
+      <c r="E28" s="12" t="e">
+        <f>IF(LEFT(F28,1)="H",2,IF(LEFT(F28,1)="C",0,1))</f>
         <v>#REF!</v>
       </c>
-      <c r="F33" s="12" t="e">
+      <c r="F28" s="11" t="e">
         <f>IF(Macro!#REF!&gt;=3%, "Hot - High", IF(Macro!#REF!&lt;=1.5%, "Cold - Low", "Mixed - Dormant"))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="2:6">
-      <c r="B34" s="5" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B29" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C34" s="13">
-        <f>IF(LEFT(D34,1)="H",2,IF(LEFT(D34,1)="C",0,1))</f>
+      <c r="C29" s="12">
+        <f>IF(LEFT(D29,1)="H",2,IF(LEFT(D29,1)="C",0,1))</f>
         <v>0</v>
       </c>
-      <c r="D34" s="12" t="str">
-        <f>D10</f>
+      <c r="D29" s="11" t="str">
+        <f>D5</f>
         <v>Cold - Negative</v>
       </c>
-      <c r="E34" s="13">
-        <f>IF(LEFT(F34,1)="H",2,IF(LEFT(F34,1)="C",0,1))</f>
+      <c r="E29" s="12">
+        <f>IF(LEFT(F29,1)="H",2,IF(LEFT(F29,1)="C",0,1))</f>
         <v>2</v>
       </c>
-      <c r="F34" s="12" t="str">
-        <f>F10</f>
+      <c r="F29" s="11" t="str">
+        <f>F5</f>
         <v>Hot - Positive</v>
       </c>
     </row>
-    <row r="35" spans="2:6">
-      <c r="B35" s="5" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B30" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="13">
-        <f>IF(LEFT(D35,1)="H",2,IF(LEFT(D35,1)="C",0,1))</f>
+      <c r="C30" s="12">
+        <f>IF(LEFT(D30,1)="H",2,IF(LEFT(D30,1)="C",0,1))</f>
         <v>0</v>
       </c>
-      <c r="D35" s="12" t="str">
-        <f>D16</f>
+      <c r="D30" s="11" t="str">
+        <f>D11</f>
         <v>Cold - High</v>
       </c>
-      <c r="E35" s="13">
-        <f>IF(LEFT(F35,1)="H",2,IF(LEFT(F35,1)="C",0,1))</f>
+      <c r="E30" s="12">
+        <f>IF(LEFT(F30,1)="H",2,IF(LEFT(F30,1)="C",0,1))</f>
         <v>1</v>
       </c>
-      <c r="F35" s="12" t="str">
-        <f>F16</f>
+      <c r="F30" s="11" t="str">
+        <f>F11</f>
         <v>Mixed</v>
       </c>
     </row>
-    <row r="36" spans="2:6">
-      <c r="B36" s="5" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B31" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="13">
-        <f>IF(LEFT(D36,1)="H",2,IF(LEFT(D36,1)="C",0,1))</f>
+      <c r="C31" s="12">
+        <f>IF(LEFT(D31,1)="H",2,IF(LEFT(D31,1)="C",0,1))</f>
         <v>0</v>
       </c>
-      <c r="D36" s="12" t="str">
-        <f>D17</f>
+      <c r="D31" s="11" t="str">
+        <f>D12</f>
         <v>Cold - Wide</v>
       </c>
-      <c r="E36" s="13">
-        <f>IF(LEFT(F36,1)="H",2,IF(LEFT(F36,1)="C",0,1))</f>
+      <c r="E31" s="12">
+        <f>IF(LEFT(F31,1)="H",2,IF(LEFT(F31,1)="C",0,1))</f>
         <v>0</v>
       </c>
-      <c r="F36" s="12" t="str">
-        <f>F17</f>
+      <c r="F31" s="11" t="str">
+        <f>F12</f>
         <v>Cold - Wide</v>
       </c>
     </row>
-    <row r="37" spans="2:6">
-      <c r="B37" s="11" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B32" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C37" s="10" t="e">
-        <f>SUM(C32:C36)/10</f>
+      <c r="C32" s="9" t="e">
+        <f>SUM(C27:C31)/10</f>
         <v>#REF!</v>
       </c>
-      <c r="D37" s="8" t="e">
-        <f>Macro!#REF!*(1+C37)</f>
+      <c r="D32" s="7" t="e">
+        <f>Macro!#REF!*(1+C32)</f>
         <v>#REF!</v>
       </c>
-      <c r="E37" s="9" t="e">
-        <f>SUM(E32:E36)/10</f>
+      <c r="E32" s="8" t="e">
+        <f>SUM(E27:E31)/10</f>
         <v>#REF!</v>
       </c>
-      <c r="F37" s="8" t="e">
-        <f>Macro!#REF!*(1+E37)</f>
+      <c r="F32" s="7" t="e">
+        <f>Macro!#REF!*(1+E32)</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="39" spans="2:6">
-      <c r="B39" s="7" t="s">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B34" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="2:6">
-      <c r="B40" t="s">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <dataValidations count="19">
-    <dataValidation allowBlank="1" sqref="F29 D29" xr:uid="{EA6F9DE9-1D2B-41CE-B86F-59C772E5B0CA}"/>
-    <dataValidation type="list" allowBlank="1" sqref="D16 F16" xr:uid="{CB91B3B3-F107-40CA-9A38-987E11E74D07}">
+    <dataValidation allowBlank="1" sqref="F24 D24" xr:uid="{EA6F9DE9-1D2B-41CE-B86F-59C772E5B0CA}"/>
+    <dataValidation type="list" allowBlank="1" sqref="D11 F11" xr:uid="{CB91B3B3-F107-40CA-9A38-987E11E74D07}">
       <formula1>"Hot - Low,Cold - High,Mixed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D15 F15" xr:uid="{AF2B28BD-3B2E-4C4F-9341-2D3DF85E4B51}">
+    <dataValidation type="list" allowBlank="1" sqref="D10 F10" xr:uid="{AF2B28BD-3B2E-4C4F-9341-2D3DF85E4B51}">
       <formula1>"Hot - Easy,Cold - Restrictive,Mixed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D10 F10" xr:uid="{80AB7CF9-33FA-49A2-857A-A16511DD9778}">
+    <dataValidation type="list" allowBlank="1" sqref="D5 F5" xr:uid="{80AB7CF9-33FA-49A2-857A-A16511DD9778}">
       <formula1>"Hot - Positive,Cold - Negative,Mixed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D26 F26" xr:uid="{CE58FBAB-05BA-429E-979A-A80495C7634A}">
+    <dataValidation type="list" allowBlank="1" sqref="D21 F21" xr:uid="{CE58FBAB-05BA-429E-979A-A80495C7634A}">
       <formula1>"Hot - Strong,Cold - Weak,Mixed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D24 F24" xr:uid="{2E90ABF5-27B6-45EA-924A-726A450132AD}">
+    <dataValidation type="list" allowBlank="1" sqref="D19 F19" xr:uid="{2E90ABF5-27B6-45EA-924A-726A450132AD}">
       <formula1>"Hot - Average person joins the market,Cold - ""Worse is yet to come"",Mixed - ""Market has bottomed"""</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D19 F19" xr:uid="{50DA1868-046D-4965-A766-6872EAF3DAE7}">
+    <dataValidation type="list" allowBlank="1" sqref="D14 F14" xr:uid="{50DA1868-046D-4965-A766-6872EAF3DAE7}">
       <formula1>"Hot - Happy to hold,Cold - Rushing for the exits,Mixed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D27 F27" xr:uid="{4182A36E-CA23-4874-A9A3-7EBFE34FF04E}">
+    <dataValidation type="list" allowBlank="1" sqref="D22 F22" xr:uid="{4182A36E-CA23-4874-A9A3-7EBFE34FF04E}">
       <formula1>"Hot - Aggressiveness,Cold - Caution and discipline,Hot - Broad reach,Cold - ""It's uninvestable"",Mixed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D22 F22" xr:uid="{EDC56A00-C31B-4484-B8FC-6A57C3B6D758}">
+    <dataValidation type="list" allowBlank="1" sqref="D17 F17" xr:uid="{EDC56A00-C31B-4484-B8FC-6A57C3B6D758}">
       <formula1>"Hot - Few,Cold - Many,Mixed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D20 F20" xr:uid="{01BCA93F-C7F4-4445-82F8-F61AC8C6BEF8}">
+    <dataValidation type="list" allowBlank="1" sqref="D15 F15" xr:uid="{01BCA93F-C7F4-4445-82F8-F61AC8C6BEF8}">
       <formula1>"Hot - High,Cold - Low,Mixed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D21 F21" xr:uid="{3F44EEB6-0601-492A-A711-71005020FA19}">
+    <dataValidation type="list" allowBlank="1" sqref="D16 F16" xr:uid="{3F44EEB6-0601-492A-A711-71005020FA19}">
       <formula1>"Hot - Optimistic,Cold - Pessimistic,Hot - Sanguine,Cold - Distressed,Hot - Eager to buy,Cold - Uninterested in buying,Mixed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D11 F11" xr:uid="{8B23EEE0-8D29-45A7-BABD-272B21016758}">
+    <dataValidation type="list" allowBlank="1" sqref="D6 F6" xr:uid="{8B23EEE0-8D29-45A7-BABD-272B21016758}">
       <formula1>"Hot - Eager,Cold - Reticent,Mixed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D9 F9" xr:uid="{D399A8E6-6D95-4A97-94AE-BF73E0CF82C3}">
+    <dataValidation type="list" allowBlank="1" sqref="D4 F4" xr:uid="{D399A8E6-6D95-4A97-94AE-BF73E0CF82C3}">
       <formula1>"Hot - Vibrant,Cold - Sluggish,Mixed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D25 F25" xr:uid="{A3F1DC8E-57BA-4F25-894E-D6759F030FDF}">
+    <dataValidation type="list" allowBlank="1" sqref="D20 F20" xr:uid="{A3F1DC8E-57BA-4F25-894E-D6759F030FDF}">
       <formula1>"Hot - Hard to gain entry,Cold - Open to anyone,Hot - 
 New ones daily,Cold - Only the best can raise money,Hot - GP hold the cards on terms,Cold - LP have bargaining power,Mixed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D14 F14" xr:uid="{E29A466E-8A51-4B09-81F0-9E467356D8D5}">
+    <dataValidation type="list" allowBlank="1" sqref="D9 F9" xr:uid="{E29A466E-8A51-4B09-81F0-9E467356D8D5}">
       <formula1>"Hot - Plentiful,Cold - Scarce,Mixed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D17 F17" xr:uid="{05972E92-5CCB-4538-80C0-0E3C4DAA650C}">
+    <dataValidation type="list" allowBlank="1" sqref="D12 F12" xr:uid="{05972E92-5CCB-4538-80C0-0E3C4DAA650C}">
       <formula1>"Hot - Narrow,Cold - Wide,Mixed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D32 F32" xr:uid="{1E460FDF-FE88-44E4-A4A8-C40EF242A498}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D27 F27" xr:uid="{1E460FDF-FE88-44E4-A4A8-C40EF242A498}">
       <formula1>"Hot - Stimulative, Cold - Tightening, Mixed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D12 F12" xr:uid="{DCF9736D-3C9B-4279-B56F-4C2003DB4929}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7 F7" xr:uid="{DCF9736D-3C9B-4279-B56F-4C2003DB4929}">
       <formula1>"Hot - Minimal, Cold - Rising, Mixed"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D34:D36 F34:F36" xr:uid="{1162B5FC-A49C-4643-AD1D-C21129BF3948}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D29:D31 F29:F31" xr:uid="{1162B5FC-A49C-4643-AD1D-C21129BF3948}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/financial_models/Macro_Monitor.xlsx
+++ b/financial_models/Macro_Monitor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{044C1219-29F9-6743-B92A-0562C59A8B76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F356169B-5FB8-4B07-9340-3259B231B4C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Macro" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="RE" sheetId="6" r:id="rId3"/>
     <sheet name="Analysis" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029" concurrentManualCount="8"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -457,11 +457,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -469,7 +469,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -544,13 +544,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -866,8 +866,8 @@
     <xf numFmtId="10" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1147,19 +1147,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A061C73F-1F33-4614-90A5-D5D9D7C58056}">
   <dimension ref="A2:F40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="114" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView showGridLines="0" zoomScale="114" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9"/>
   <cols>
-    <col min="1" max="1" width="2.5" style="22" customWidth="1"/>
-    <col min="2" max="2" width="47.83203125" style="22" customWidth="1"/>
-    <col min="3" max="6" width="20.83203125" style="22" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="22"/>
+    <col min="1" max="1" width="2.46484375" style="22" customWidth="1"/>
+    <col min="2" max="2" width="47.796875" style="22" customWidth="1"/>
+    <col min="3" max="6" width="20.796875" style="22" customWidth="1"/>
+    <col min="7" max="16384" width="8.796875" style="22"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="15">
       <c r="A2" s="3"/>
       <c r="B2" s="2" t="s">
         <v>64</v>
@@ -1177,7 +1177,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="B3" s="22" t="s">
         <v>63</v>
       </c>
@@ -1192,7 +1192,7 @@
       </c>
       <c r="F3" s="33"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="B4" s="22" t="s">
         <v>67</v>
       </c>
@@ -1205,7 +1205,7 @@
       <c r="E4" s="38"/>
       <c r="F4" s="33"/>
     </row>
-    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="14.25" thickBot="1">
       <c r="B5" s="44" t="s">
         <v>68</v>
       </c>
@@ -1216,7 +1216,7 @@
       <c r="E5" s="39"/>
       <c r="F5" s="37"/>
     </row>
-    <row r="6" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="14.25" thickTop="1">
       <c r="B6" s="20" t="s">
         <v>69</v>
       </c>
@@ -1234,7 +1234,7 @@
       </c>
       <c r="F6" s="40"/>
     </row>
-    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="15">
       <c r="A8" s="3"/>
       <c r="B8" s="2" t="s">
         <v>80</v>
@@ -1243,7 +1243,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6">
       <c r="B10" s="22" t="s">
         <v>96</v>
       </c>
@@ -1252,10 +1252,10 @@
       </c>
       <c r="E10" s="46"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6">
       <c r="E11" s="46"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6">
       <c r="B12" s="4" t="s">
         <v>78</v>
       </c>
@@ -1263,7 +1263,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6">
       <c r="B13" s="4" t="s">
         <v>66</v>
       </c>
@@ -1271,7 +1271,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6">
       <c r="B15" s="4" t="s">
         <v>73</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6">
       <c r="B16" s="4" t="s">
         <v>74</v>
       </c>
@@ -1287,7 +1287,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4">
       <c r="B17" s="4" t="s">
         <v>75</v>
       </c>
@@ -1295,13 +1295,13 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="15">
       <c r="A19" s="3"/>
       <c r="B19" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4">
       <c r="B21" s="4" t="s">
         <v>98</v>
       </c>
@@ -1309,7 +1309,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4">
       <c r="B23" s="4" t="s">
         <v>101</v>
       </c>
@@ -1318,10 +1318,10 @@
       </c>
       <c r="D23" s="31"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4">
       <c r="D24" s="31"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4">
       <c r="B25" s="17" t="s">
         <v>58</v>
       </c>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="D25" s="31"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4">
       <c r="B26" s="17" t="s">
         <v>59</v>
       </c>
@@ -1338,7 +1338,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4">
       <c r="B27" s="17" t="s">
         <v>60</v>
       </c>
@@ -1346,13 +1346,13 @@
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" ht="15">
       <c r="A29" s="3"/>
       <c r="B29" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4">
       <c r="B31" s="17" t="s">
         <v>92</v>
       </c>
@@ -1360,7 +1360,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:3">
       <c r="B33" s="17" t="s">
         <v>95</v>
       </c>
@@ -1368,7 +1368,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:3">
       <c r="B34" s="17" t="s">
         <v>105</v>
       </c>
@@ -1376,7 +1376,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:3">
       <c r="B35" s="22" t="s">
         <v>104</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:3">
       <c r="B37" s="22" t="s">
         <v>108</v>
       </c>
@@ -1392,7 +1392,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:3">
       <c r="B38" s="22" t="s">
         <v>110</v>
       </c>
@@ -1400,7 +1400,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:3">
       <c r="B40" s="22" t="s">
         <v>111</v>
       </c>
@@ -1439,17 +1439,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54B06D35-F870-9847-BA9B-1E2F9FFBE611}">
   <dimension ref="B2:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="13.9"/>
   <cols>
     <col min="2" max="2" width="24.6640625" customWidth="1"/>
-    <col min="3" max="3" width="45.5" customWidth="1"/>
+    <col min="3" max="3" width="51.06640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:3">
       <c r="B2" s="34" t="s">
         <v>87</v>
       </c>
@@ -1457,12 +1457,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:3">
       <c r="B4" s="34" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:3">
       <c r="B5" t="s">
         <v>81</v>
       </c>
@@ -1470,12 +1470,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:3">
       <c r="B7" s="41" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:3">
       <c r="B8" t="s">
         <v>84</v>
       </c>
@@ -1483,12 +1483,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:3">
       <c r="B10" s="34" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:3">
       <c r="B11" t="s">
         <v>90</v>
       </c>
@@ -1497,6 +1497,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="13" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C5" r:id="rId1" xr:uid="{BD2948D7-96D9-264F-B0D8-E6D98C96444B}"/>
     <hyperlink ref="C8" r:id="rId2" xr:uid="{00B87B71-2B64-7648-8C06-ED4B13CF1CAC}"/>
@@ -1515,14 +1516,14 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="13.9"/>
   <cols>
-    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="2" max="2" width="18.46484375" customWidth="1"/>
     <col min="3" max="3" width="38.6640625" customWidth="1"/>
-    <col min="4" max="4" width="34.5" customWidth="1"/>
+    <col min="4" max="4" width="34.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:4">
       <c r="C2" s="1" t="s">
         <v>118</v>
       </c>
@@ -1530,7 +1531,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:4">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -1538,32 +1539,33 @@
         <v>113</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:4">
       <c r="B5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:4">
       <c r="B7" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:4">
       <c r="B9" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:4">
       <c r="B11" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:4">
       <c r="B13" t="s">
         <v>117</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="13" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{D5EB599C-0AC8-C945-97CD-4616A9DA5B5A}"/>
   </hyperlinks>
@@ -1579,17 +1581,17 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9"/>
   <cols>
-    <col min="1" max="1" width="2.5" customWidth="1"/>
-    <col min="2" max="2" width="62.5" customWidth="1"/>
-    <col min="3" max="3" width="10.5" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="2.46484375" customWidth="1"/>
+    <col min="2" max="2" width="62.46484375" customWidth="1"/>
+    <col min="3" max="3" width="10.46484375" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="32.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.5" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="10.46484375" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="15">
       <c r="A2" s="3"/>
       <c r="B2" s="30" t="s">
         <v>56</v>
@@ -1603,7 +1605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" s="4"/>
       <c r="B3" s="6" t="s">
         <v>55</v>
@@ -1613,7 +1615,7 @@
       <c r="E3" s="22"/>
       <c r="F3" s="26"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" s="4"/>
       <c r="B4" s="22" t="s">
         <v>54</v>
@@ -1633,7 +1635,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" s="4"/>
       <c r="B5" s="22" t="s">
         <v>52</v>
@@ -1653,7 +1655,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" s="4"/>
       <c r="B6" s="22" t="s">
         <v>49</v>
@@ -1673,7 +1675,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
         <v>47</v>
@@ -1693,7 +1695,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" s="4"/>
       <c r="B8" s="20" t="s">
         <v>45</v>
@@ -1715,7 +1717,7 @@
         <v>Mixed</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" s="4"/>
       <c r="B9" s="22" t="s">
         <v>44</v>
@@ -1735,7 +1737,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" s="4"/>
       <c r="B10" s="22" t="s">
         <v>42</v>
@@ -1755,7 +1757,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" s="4"/>
       <c r="B11" s="22" t="s">
         <v>40</v>
@@ -1775,7 +1777,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" s="4"/>
       <c r="B12" s="22" t="s">
         <v>38</v>
@@ -1795,7 +1797,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" s="4"/>
       <c r="B13" s="20" t="s">
         <v>36</v>
@@ -1817,7 +1819,7 @@
         <v>Cold</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" s="4"/>
       <c r="B14" s="22" t="s">
         <v>35</v>
@@ -1837,7 +1839,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" s="4"/>
       <c r="B15" s="22" t="s">
         <v>32</v>
@@ -1857,7 +1859,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" s="4"/>
       <c r="B16" s="22" t="s">
         <v>30</v>
@@ -1877,7 +1879,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" s="4"/>
       <c r="B17" s="22" t="s">
         <v>28</v>
@@ -1897,7 +1899,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" s="4"/>
       <c r="B18" s="20" t="s">
         <v>26</v>
@@ -1919,7 +1921,7 @@
         <v>Mixed</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" s="4"/>
       <c r="B19" s="22" t="s">
         <v>25</v>
@@ -1939,7 +1941,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" s="4"/>
       <c r="B20" s="22" t="s">
         <v>22</v>
@@ -1959,7 +1961,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" s="4"/>
       <c r="B21" s="22" t="s">
         <v>20</v>
@@ -1979,7 +1981,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" s="4"/>
       <c r="B22" s="22" t="s">
         <v>18</v>
@@ -1999,7 +2001,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23" s="4"/>
       <c r="B23" s="20" t="s">
         <v>15</v>
@@ -2021,7 +2023,7 @@
         <v>Mixed</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24" s="4"/>
       <c r="B24" s="17" t="s">
         <v>14</v>
@@ -2043,10 +2045,10 @@
         <v>Relatively pessimistic</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" s="4"/>
       <c r="B26" s="6" t="s">
         <v>13</v>
@@ -2060,7 +2062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
         <v>12</v>
@@ -2080,7 +2082,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="B28" s="4" t="s">
         <v>9</v>
       </c>
@@ -2101,7 +2103,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="B29" s="4" t="s">
         <v>8</v>
       </c>
@@ -2122,7 +2124,7 @@
         <v>Hot - Positive</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="B30" s="4" t="s">
         <v>7</v>
       </c>
@@ -2143,7 +2145,7 @@
         <v>Mixed</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="B31" s="4" t="s">
         <v>6</v>
       </c>
@@ -2164,7 +2166,7 @@
         <v>Cold - Wide</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="B32" s="10" t="s">
         <v>5</v>
       </c>
@@ -2185,12 +2187,12 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:2">
       <c r="B34" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:2">
       <c r="B35" t="s">
         <v>3</v>
       </c>

--- a/financial_models/Macro_Monitor.xlsx
+++ b/financial_models/Macro_Monitor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10311"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F356169B-5FB8-4B07-9340-3259B231B4C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4377F45-2F91-E147-BD26-C843EDC91B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Macro" sheetId="2" r:id="rId1"/>
@@ -457,11 +457,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -469,7 +469,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -544,13 +544,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -866,8 +866,8 @@
     <xf numFmtId="10" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1147,19 +1147,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A061C73F-1F33-4614-90A5-D5D9D7C58056}">
   <dimension ref="A2:F40"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="114" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="114" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.46484375" style="22" customWidth="1"/>
-    <col min="2" max="2" width="47.796875" style="22" customWidth="1"/>
-    <col min="3" max="6" width="20.796875" style="22" customWidth="1"/>
-    <col min="7" max="16384" width="8.796875" style="22"/>
+    <col min="1" max="1" width="2.5" style="22" customWidth="1"/>
+    <col min="2" max="2" width="47.83203125" style="22" customWidth="1"/>
+    <col min="3" max="6" width="20.83203125" style="22" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="22"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="15">
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="2" t="s">
         <v>64</v>
@@ -1177,7 +1177,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B3" s="22" t="s">
         <v>63</v>
       </c>
@@ -1192,7 +1192,7 @@
       </c>
       <c r="F3" s="33"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B4" s="22" t="s">
         <v>67</v>
       </c>
@@ -1205,7 +1205,7 @@
       <c r="E4" s="38"/>
       <c r="F4" s="33"/>
     </row>
-    <row r="5" spans="1:6" ht="14.25" thickBot="1">
+    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="44" t="s">
         <v>68</v>
       </c>
@@ -1216,7 +1216,7 @@
       <c r="E5" s="39"/>
       <c r="F5" s="37"/>
     </row>
-    <row r="6" spans="1:6" ht="14.25" thickTop="1">
+    <row r="6" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B6" s="20" t="s">
         <v>69</v>
       </c>
@@ -1234,16 +1234,16 @@
       </c>
       <c r="F6" s="40"/>
     </row>
-    <row r="8" spans="1:6" ht="15">
+    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C8" s="32">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B10" s="22" t="s">
         <v>96</v>
       </c>
@@ -1252,10 +1252,10 @@
       </c>
       <c r="E10" s="46"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E11" s="46"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B12" s="4" t="s">
         <v>78</v>
       </c>
@@ -1263,7 +1263,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B13" s="4" t="s">
         <v>66</v>
       </c>
@@ -1271,7 +1271,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B15" s="4" t="s">
         <v>73</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B16" s="4" t="s">
         <v>74</v>
       </c>
@@ -1287,7 +1287,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B17" s="4" t="s">
         <v>75</v>
       </c>
@@ -1295,13 +1295,13 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15">
+    <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B21" s="4" t="s">
         <v>98</v>
       </c>
@@ -1309,7 +1309,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B23" s="4" t="s">
         <v>101</v>
       </c>
@@ -1318,10 +1318,10 @@
       </c>
       <c r="D23" s="31"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D24" s="31"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B25" s="17" t="s">
         <v>58</v>
       </c>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="D25" s="31"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B26" s="17" t="s">
         <v>59</v>
       </c>
@@ -1338,7 +1338,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B27" s="17" t="s">
         <v>60</v>
       </c>
@@ -1346,13 +1346,13 @@
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15">
+    <row r="29" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B31" s="17" t="s">
         <v>92</v>
       </c>
@@ -1360,7 +1360,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="33" spans="2:3">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B33" s="17" t="s">
         <v>95</v>
       </c>
@@ -1368,7 +1368,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="34" spans="2:3">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B34" s="17" t="s">
         <v>105</v>
       </c>
@@ -1376,7 +1376,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="35" spans="2:3">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B35" s="22" t="s">
         <v>104</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="2:3">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B37" s="22" t="s">
         <v>108</v>
       </c>
@@ -1392,7 +1392,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="38" spans="2:3">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B38" s="22" t="s">
         <v>110</v>
       </c>
@@ -1400,7 +1400,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="40" spans="2:3">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B40" s="22" t="s">
         <v>111</v>
       </c>
@@ -1439,17 +1439,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54B06D35-F870-9847-BA9B-1E2F9FFBE611}">
   <dimension ref="B2:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="13.9"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="24.6640625" customWidth="1"/>
-    <col min="3" max="3" width="51.06640625" customWidth="1"/>
+    <col min="3" max="3" width="51" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2" s="34" t="s">
         <v>87</v>
       </c>
@@ -1457,12 +1457,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" s="34" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>81</v>
       </c>
@@ -1470,12 +1470,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="2:3">
+    <row r="7" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B7" s="41" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="2:3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>84</v>
       </c>
@@ -1483,12 +1483,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="2:3">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B10" s="34" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="2:3">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>90</v>
       </c>
@@ -1516,14 +1516,14 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="13.9"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="18.46484375" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
     <col min="3" max="3" width="38.6640625" customWidth="1"/>
-    <col min="4" max="4" width="34.46484375" customWidth="1"/>
+    <col min="4" max="4" width="34.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C2" s="1" t="s">
         <v>118</v>
       </c>
@@ -1531,7 +1531,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="2:4">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -1539,27 +1539,27 @@
         <v>113</v>
       </c>
     </row>
-    <row r="5" spans="2:4">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:4">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="2:4">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="11" spans="2:4">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="2:4">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>117</v>
       </c>
@@ -1581,17 +1581,17 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.46484375" customWidth="1"/>
-    <col min="2" max="2" width="62.46484375" customWidth="1"/>
-    <col min="3" max="3" width="10.46484375" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="2.5" customWidth="1"/>
+    <col min="2" max="2" width="62.5" customWidth="1"/>
+    <col min="3" max="3" width="10.5" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="32.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.46484375" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="15">
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="30" t="s">
         <v>56</v>
@@ -1605,7 +1605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="6" t="s">
         <v>55</v>
@@ -1615,7 +1615,7 @@
       <c r="E3" s="22"/>
       <c r="F3" s="26"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="22" t="s">
         <v>54</v>
@@ -1635,7 +1635,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="22" t="s">
         <v>52</v>
@@ -1655,7 +1655,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="22" t="s">
         <v>49</v>
@@ -1675,7 +1675,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
         <v>47</v>
@@ -1695,7 +1695,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="20" t="s">
         <v>45</v>
@@ -1717,7 +1717,7 @@
         <v>Mixed</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="22" t="s">
         <v>44</v>
@@ -1737,7 +1737,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="22" t="s">
         <v>42</v>
@@ -1757,7 +1757,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="22" t="s">
         <v>40</v>
@@ -1777,7 +1777,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="22" t="s">
         <v>38</v>
@@ -1797,7 +1797,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="20" t="s">
         <v>36</v>
@@ -1819,7 +1819,7 @@
         <v>Cold</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="22" t="s">
         <v>35</v>
@@ -1839,7 +1839,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="22" t="s">
         <v>32</v>
@@ -1859,7 +1859,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="22" t="s">
         <v>30</v>
@@ -1879,7 +1879,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="22" t="s">
         <v>28</v>
@@ -1899,7 +1899,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="20" t="s">
         <v>26</v>
@@ -1921,7 +1921,7 @@
         <v>Mixed</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="22" t="s">
         <v>25</v>
@@ -1941,7 +1941,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="22" t="s">
         <v>22</v>
@@ -1961,7 +1961,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="22" t="s">
         <v>20</v>
@@ -1981,7 +1981,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="22" t="s">
         <v>18</v>
@@ -2001,7 +2001,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="20" t="s">
         <v>15</v>
@@ -2023,7 +2023,7 @@
         <v>Mixed</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="17" t="s">
         <v>14</v>
@@ -2045,10 +2045,10 @@
         <v>Relatively pessimistic</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" s="6" t="s">
         <v>13</v>
@@ -2062,7 +2062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
         <v>12</v>
@@ -2082,7 +2082,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B28" s="4" t="s">
         <v>9</v>
       </c>
@@ -2103,7 +2103,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B29" s="4" t="s">
         <v>8</v>
       </c>
@@ -2124,7 +2124,7 @@
         <v>Hot - Positive</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B30" s="4" t="s">
         <v>7</v>
       </c>
@@ -2145,7 +2145,7 @@
         <v>Mixed</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B31" s="4" t="s">
         <v>6</v>
       </c>
@@ -2166,7 +2166,7 @@
         <v>Cold - Wide</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B32" s="10" t="s">
         <v>5</v>
       </c>
@@ -2187,12 +2187,12 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="2:2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B34" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="2:2">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>3</v>
       </c>

--- a/financial_models/Macro_Monitor.xlsx
+++ b/financial_models/Macro_Monitor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4377F45-2F91-E147-BD26-C843EDC91B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1CDCDD3-95D5-43ED-BA26-7C001356D6C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Macro" sheetId="2" r:id="rId1"/>
@@ -18,21 +18,10 @@
     <sheet name="RE" sheetId="6" r:id="rId3"/>
     <sheet name="Analysis" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentManualCount="8"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -299,9 +288,6 @@
     <t>Offshore BBB- Bond yield</t>
   </si>
   <si>
-    <t>Required Return</t>
-  </si>
-  <si>
     <t>https://tradingeconomics.com/china/government-bond-yield</t>
   </si>
   <si>
@@ -451,17 +437,21 @@
   </si>
   <si>
     <t>Commercial</t>
+  </si>
+  <si>
+    <t>Discount Rate</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -469,7 +459,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -544,13 +534,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -866,8 +856,8 @@
     <xf numFmtId="10" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1148,18 +1138,18 @@
   <dimension ref="A2:F40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="114" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9"/>
   <cols>
-    <col min="1" max="1" width="2.5" style="22" customWidth="1"/>
-    <col min="2" max="2" width="47.83203125" style="22" customWidth="1"/>
-    <col min="3" max="6" width="20.83203125" style="22" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="22"/>
+    <col min="1" max="1" width="2.46484375" style="22" customWidth="1"/>
+    <col min="2" max="2" width="47.796875" style="22" customWidth="1"/>
+    <col min="3" max="6" width="20.796875" style="22" customWidth="1"/>
+    <col min="7" max="16384" width="8.796875" style="22"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="15">
       <c r="A2" s="3"/>
       <c r="B2" s="2" t="s">
         <v>64</v>
@@ -1168,7 +1158,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E2" s="42" t="s">
         <v>2</v>
@@ -1177,7 +1167,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="B3" s="22" t="s">
         <v>63</v>
       </c>
@@ -1192,7 +1182,7 @@
       </c>
       <c r="F3" s="33"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="B4" s="22" t="s">
         <v>67</v>
       </c>
@@ -1205,7 +1195,7 @@
       <c r="E4" s="38"/>
       <c r="F4" s="33"/>
     </row>
-    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="14.25" thickBot="1">
       <c r="B5" s="44" t="s">
         <v>68</v>
       </c>
@@ -1216,9 +1206,9 @@
       <c r="E5" s="39"/>
       <c r="F5" s="37"/>
     </row>
-    <row r="6" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="14.25" thickTop="1">
       <c r="B6" s="20" t="s">
-        <v>69</v>
+        <v>119</v>
       </c>
       <c r="C6" s="40">
         <f>MAX(6%,C4)</f>
@@ -1234,94 +1224,94 @@
       </c>
       <c r="F6" s="40"/>
     </row>
-    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="15">
       <c r="A8" s="3"/>
       <c r="B8" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C8" s="32">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="B10" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="C10" s="45" t="s">
-        <v>97</v>
-      </c>
       <c r="E10" s="46"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6">
       <c r="E11" s="46"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6">
       <c r="B12" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C12" s="45" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="B13" s="4" t="s">
         <v>66</v>
       </c>
       <c r="C13" s="45" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="B15" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="45" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="B16" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="45" t="s">
+      <c r="C16" s="45" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B16" s="4" t="s">
+    <row r="17" spans="1:4">
+      <c r="B17" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="45" t="s">
+      <c r="C17" s="45" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B17" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="45" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="15">
       <c r="A19" s="3"/>
       <c r="B19" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="B21" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="C21" s="45" t="s">
+    </row>
+    <row r="23" spans="1:4">
+      <c r="B23" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" s="45" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B23" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C23" s="45" t="s">
-        <v>100</v>
-      </c>
       <c r="D23" s="31"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4">
       <c r="D24" s="31"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4">
       <c r="B25" s="17" t="s">
         <v>58</v>
       </c>
@@ -1330,7 +1320,7 @@
       </c>
       <c r="D25" s="31"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4">
       <c r="B26" s="17" t="s">
         <v>59</v>
       </c>
@@ -1338,7 +1328,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4">
       <c r="B27" s="17" t="s">
         <v>60</v>
       </c>
@@ -1346,66 +1336,66 @@
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" ht="15">
       <c r="A29" s="3"/>
       <c r="B29" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="B31" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="45" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" s="45" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C34" s="45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" s="45" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B31" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="C31" s="45" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B33" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="C33" s="45" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B34" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="C34" s="45" t="s">
+    <row r="37" spans="2:3">
+      <c r="B37" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C37" s="45" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B35" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="C35" s="45" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B37" s="22" t="s">
+    <row r="38" spans="2:3">
+      <c r="B38" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="C37" s="45" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B38" s="22" t="s">
+    </row>
+    <row r="40" spans="2:3">
+      <c r="B40" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="C38" s="45" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B40" s="22" t="s">
+      <c r="C40" s="45" t="s">
         <v>111</v>
-      </c>
-      <c r="C40" s="45" t="s">
-        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1443,57 +1433,57 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="13.9"/>
   <cols>
     <col min="2" max="2" width="24.6640625" customWidth="1"/>
     <col min="3" max="3" width="51" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:3">
       <c r="B2" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="35" t="s">
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="34" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" s="41" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" s="34" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="35" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B4" s="34" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="B7" s="41" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B10" s="34" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>90</v>
-      </c>
-      <c r="C11" s="35" t="s">
-        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1516,52 +1506,52 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="13.9"/>
   <cols>
-    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="2" max="2" width="18.46484375" customWidth="1"/>
     <col min="3" max="3" width="38.6640625" customWidth="1"/>
-    <col min="4" max="4" width="34.5" customWidth="1"/>
+    <col min="4" max="4" width="34.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:4">
       <c r="C2" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="2:4">
       <c r="B3" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
       <c r="B5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:4">
       <c r="B7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
+    <row r="13" spans="2:4">
+      <c r="B13" t="s">
         <v>116</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1581,31 +1571,31 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9"/>
   <cols>
-    <col min="1" max="1" width="2.5" customWidth="1"/>
-    <col min="2" max="2" width="62.5" customWidth="1"/>
-    <col min="3" max="3" width="10.5" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="2.46484375" customWidth="1"/>
+    <col min="2" max="2" width="62.46484375" customWidth="1"/>
+    <col min="3" max="3" width="10.46484375" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="32.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.5" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="10.46484375" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="15">
       <c r="A2" s="3"/>
       <c r="B2" s="30" t="s">
         <v>56</v>
       </c>
       <c r="C2" s="29"/>
       <c r="D2" s="28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E2" s="28"/>
       <c r="F2" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" s="4"/>
       <c r="B3" s="6" t="s">
         <v>55</v>
@@ -1615,7 +1605,7 @@
       <c r="E3" s="22"/>
       <c r="F3" s="26"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" s="4"/>
       <c r="B4" s="22" t="s">
         <v>54</v>
@@ -1635,7 +1625,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" s="4"/>
       <c r="B5" s="22" t="s">
         <v>52</v>
@@ -1655,7 +1645,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" s="4"/>
       <c r="B6" s="22" t="s">
         <v>49</v>
@@ -1675,7 +1665,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
         <v>47</v>
@@ -1695,7 +1685,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" s="4"/>
       <c r="B8" s="20" t="s">
         <v>45</v>
@@ -1717,7 +1707,7 @@
         <v>Mixed</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" s="4"/>
       <c r="B9" s="22" t="s">
         <v>44</v>
@@ -1737,7 +1727,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" s="4"/>
       <c r="B10" s="22" t="s">
         <v>42</v>
@@ -1757,7 +1747,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" s="4"/>
       <c r="B11" s="22" t="s">
         <v>40</v>
@@ -1777,7 +1767,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" s="4"/>
       <c r="B12" s="22" t="s">
         <v>38</v>
@@ -1797,7 +1787,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" s="4"/>
       <c r="B13" s="20" t="s">
         <v>36</v>
@@ -1819,7 +1809,7 @@
         <v>Cold</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" s="4"/>
       <c r="B14" s="22" t="s">
         <v>35</v>
@@ -1839,7 +1829,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" s="4"/>
       <c r="B15" s="22" t="s">
         <v>32</v>
@@ -1859,7 +1849,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" s="4"/>
       <c r="B16" s="22" t="s">
         <v>30</v>
@@ -1879,7 +1869,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" s="4"/>
       <c r="B17" s="22" t="s">
         <v>28</v>
@@ -1899,7 +1889,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" s="4"/>
       <c r="B18" s="20" t="s">
         <v>26</v>
@@ -1921,7 +1911,7 @@
         <v>Mixed</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" s="4"/>
       <c r="B19" s="22" t="s">
         <v>25</v>
@@ -1941,7 +1931,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" s="4"/>
       <c r="B20" s="22" t="s">
         <v>22</v>
@@ -1961,7 +1951,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" s="4"/>
       <c r="B21" s="22" t="s">
         <v>20</v>
@@ -1981,7 +1971,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" s="4"/>
       <c r="B22" s="22" t="s">
         <v>18</v>
@@ -2001,7 +1991,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23" s="4"/>
       <c r="B23" s="20" t="s">
         <v>15</v>
@@ -2023,7 +2013,7 @@
         <v>Mixed</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24" s="4"/>
       <c r="B24" s="17" t="s">
         <v>14</v>
@@ -2045,10 +2035,10 @@
         <v>Relatively pessimistic</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" s="4"/>
       <c r="B26" s="6" t="s">
         <v>13</v>
@@ -2062,7 +2052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
         <v>12</v>
@@ -2082,7 +2072,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="B28" s="4" t="s">
         <v>9</v>
       </c>
@@ -2103,7 +2093,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="B29" s="4" t="s">
         <v>8</v>
       </c>
@@ -2124,7 +2114,7 @@
         <v>Hot - Positive</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="B30" s="4" t="s">
         <v>7</v>
       </c>
@@ -2145,7 +2135,7 @@
         <v>Mixed</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="B31" s="4" t="s">
         <v>6</v>
       </c>
@@ -2166,7 +2156,7 @@
         <v>Cold - Wide</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="B32" s="10" t="s">
         <v>5</v>
       </c>
@@ -2187,12 +2177,12 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:2">
       <c r="B34" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:2">
       <c r="B35" t="s">
         <v>3</v>
       </c>

--- a/financial_models/Macro_Monitor.xlsx
+++ b/financial_models/Macro_Monitor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE686AD-92CE-474C-8554-54B21A0802E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D035F52-8828-3643-8EAE-F66ABE70094E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="158">
   <si>
     <t>China</t>
   </si>
@@ -557,6 +557,15 @@
   </si>
   <si>
     <t>Sentiment/Volatility</t>
+  </si>
+  <si>
+    <t>https://fred.stlouisfed.org/series/CHNB6FATT01CXCUQ</t>
+  </si>
+  <si>
+    <t>https://fred.stlouisfed.org/series/CHNB6FARA01CXCUQ</t>
+  </si>
+  <si>
+    <t>https://fred.stlouisfed.org/series/CHNB6CATT00CXCUQ</t>
   </si>
 </sst>
 </file>
@@ -869,7 +878,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1012,10 +1021,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1586,8 +1592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDB43275-BEC1-4DF6-B56D-B5F180583A40}">
   <dimension ref="A2:F70"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1656,10 +1662,10 @@
       <c r="B11" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C11" s="58"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="59"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="58"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
@@ -1770,15 +1776,24 @@
       <c r="B28" t="s">
         <v>135</v>
       </c>
+      <c r="C28" s="16" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>136</v>
       </c>
+      <c r="C29" s="16" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>137</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -2499,9 +2514,12 @@
     <hyperlink ref="C4" r:id="rId15" xr:uid="{516F9566-81AE-0D47-9CB5-97518D92B353}"/>
     <hyperlink ref="C5" r:id="rId16" xr:uid="{25D8E4C0-591B-E04D-A95D-E78E7305BA26}"/>
     <hyperlink ref="C38" r:id="rId17" xr:uid="{EEC48FBB-FE2F-1246-8361-7A3F0A7596B5}"/>
+    <hyperlink ref="C29" r:id="rId18" xr:uid="{18D6BB6E-73C3-7A4E-8879-DC8B21FF6798}"/>
+    <hyperlink ref="C30" r:id="rId19" xr:uid="{ED69CAAD-88D3-BC4D-95F0-435FA482BF7B}"/>
+    <hyperlink ref="C28" r:id="rId20" xr:uid="{2978C95A-E473-7240-B16F-39273A94877A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId18"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId21"/>
 </worksheet>
 </file>
 

--- a/financial_models/Macro_Monitor.xlsx
+++ b/financial_models/Macro_Monitor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D035F52-8828-3643-8EAE-F66ABE70094E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B64121-53C7-477F-B7DF-462D3B9DF65D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Macro" sheetId="2" r:id="rId1"/>
@@ -23,23 +23,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="154">
   <si>
     <t>China</t>
   </si>
@@ -324,7 +313,7 @@
   </si>
   <si>
     <t>Target Return</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Crude oil</t>
@@ -442,22 +431,10 @@
   </si>
   <si>
     <t>Discount Rate</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Forex</t>
-  </si>
-  <si>
-    <t>USD</t>
-  </si>
-  <si>
-    <t>CNY</t>
-  </si>
-  <si>
-    <t>HKD</t>
-  </si>
-  <si>
-    <t>CAD</t>
   </si>
   <si>
     <t>Logics - do not delete</t>
@@ -572,11 +549,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -584,7 +561,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -613,11 +590,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -653,13 +625,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -693,7 +665,7 @@
     <font>
       <sz val="11"/>
       <color theme="2" tint="-9.9978637043366805E-2"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -876,9 +848,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -892,15 +864,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -911,7 +883,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="10" fontId="2" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -930,38 +902,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="10" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="16" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="15" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -976,10 +936,10 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -988,7 +948,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1000,34 +960,34 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1305,21 +1265,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A061C73F-1F33-4614-90A5-D5D9D7C58056}">
-  <dimension ref="A2:F33"/>
+  <dimension ref="A2:F29"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="114" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="114" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9"/>
   <cols>
-    <col min="1" max="1" width="2.5" style="8" customWidth="1"/>
-    <col min="2" max="2" width="47.83203125" style="8" customWidth="1"/>
-    <col min="3" max="6" width="20.83203125" style="8" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="8"/>
+    <col min="1" max="1" width="2.46484375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="47.796875" style="8" customWidth="1"/>
+    <col min="3" max="6" width="20.796875" style="8" customWidth="1"/>
+    <col min="7" max="16384" width="8.796875" style="8"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="15">
       <c r="A2" s="3"/>
       <c r="B2" s="2" t="s">
         <v>62</v>
@@ -1337,7 +1297,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="B3" s="8" t="s">
         <v>61</v>
       </c>
@@ -1352,7 +1312,7 @@
       </c>
       <c r="F3" s="14"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="B4" s="8" t="s">
         <v>65</v>
       </c>
@@ -1365,7 +1325,7 @@
       <c r="E4" s="19"/>
       <c r="F4" s="14"/>
     </row>
-    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="14.25" thickBot="1">
       <c r="B5" s="25" t="s">
         <v>66</v>
       </c>
@@ -1376,7 +1336,7 @@
       <c r="E5" s="20"/>
       <c r="F5" s="18"/>
     </row>
-    <row r="6" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="14.25" thickTop="1">
       <c r="B6" s="7" t="s">
         <v>116</v>
       </c>
@@ -1385,16 +1345,16 @@
         <v>0.06</v>
       </c>
       <c r="D6" s="21">
-        <f>MAX(D4,C6*1.2)</f>
-        <v>7.1999999999999995E-2</v>
+        <f>MAX(D4,C6*1.15)</f>
+        <v>6.8999999999999992E-2</v>
       </c>
       <c r="E6" s="21">
         <f>(C6+D6)/2</f>
-        <v>6.6000000000000003E-2</v>
+        <v>6.4500000000000002E-2</v>
       </c>
       <c r="F6" s="21"/>
     </row>
-    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="15">
       <c r="A8" s="3"/>
       <c r="B8" s="2" t="s">
         <v>77</v>
@@ -1403,7 +1363,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6">
       <c r="B10" s="8" t="s">
         <v>93</v>
       </c>
@@ -1412,10 +1372,10 @@
       </c>
       <c r="E10" s="27"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6">
       <c r="E11" s="27"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6">
       <c r="B12" s="4" t="s">
         <v>75</v>
       </c>
@@ -1423,7 +1383,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6">
       <c r="B13" s="4" t="s">
         <v>64</v>
       </c>
@@ -1431,7 +1391,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6">
       <c r="B15" s="4" t="s">
         <v>70</v>
       </c>
@@ -1439,7 +1399,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6">
       <c r="B16" s="4" t="s">
         <v>71</v>
       </c>
@@ -1447,7 +1407,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6">
       <c r="B17" s="4" t="s">
         <v>72</v>
       </c>
@@ -1455,133 +1415,88 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="15">
       <c r="A19" s="3"/>
       <c r="B19" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C19" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="E19" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="F19" s="23" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B20" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="C20" s="32">
-        <v>1</v>
-      </c>
-      <c r="D20" s="31">
-        <v>2.1309999999999999E-2</v>
-      </c>
-      <c r="E20" s="30">
-        <v>2.7650000000000001E-2</v>
-      </c>
-      <c r="F20" s="31"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B21" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="C21" s="30"/>
-      <c r="D21" s="33">
-        <v>1</v>
-      </c>
-      <c r="E21" s="30"/>
-      <c r="F21" s="31"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B22" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="C22" s="30"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="32">
-        <v>1</v>
-      </c>
-      <c r="F22" s="31"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B24" s="6" t="s">
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="B20" s="6" t="s">
         <v>89</v>
       </c>
+      <c r="C20" s="26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="B22" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="B23" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="B24" s="8" t="s">
+        <v>100</v>
+      </c>
       <c r="C24" s="26" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B26" s="6" t="s">
-        <v>92</v>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="B26" s="8" t="s">
+        <v>104</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B27" s="6" t="s">
-        <v>101</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="B27" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B28" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C28" s="26" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B30" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C30" s="26" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B31" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="C31" s="26" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B33" s="8" t="s">
+    <row r="29" spans="1:6">
+      <c r="B29" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="C33" s="26" t="s">
+      <c r="C29" s="26" t="s">
         <v>108</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C17" r:id="rId1" xr:uid="{DB671679-E839-B64A-AD4E-6D8A323DAFC3}"/>
     <hyperlink ref="C16" r:id="rId2" xr:uid="{9CB8AD70-9E02-9A41-8E3A-990A0C1E81AE}"/>
     <hyperlink ref="C15" r:id="rId3" xr:uid="{45D5643F-FA1A-3C48-B2D9-4B6082295A37}"/>
     <hyperlink ref="C13" r:id="rId4" xr:uid="{35ACA25B-AF93-B04F-A9DD-9D3D634DC7A6}"/>
     <hyperlink ref="C12" r:id="rId5" xr:uid="{8FF27AF7-25A6-F443-A0E6-DAC1AFC8FB4A}"/>
-    <hyperlink ref="C24" r:id="rId6" xr:uid="{16104B09-A651-7A41-A777-F49F69D02554}"/>
-    <hyperlink ref="C26" r:id="rId7" xr:uid="{BFEB5D28-D16E-9545-989F-F86E412707A9}"/>
+    <hyperlink ref="C20" r:id="rId6" xr:uid="{16104B09-A651-7A41-A777-F49F69D02554}"/>
+    <hyperlink ref="C22" r:id="rId7" xr:uid="{BFEB5D28-D16E-9545-989F-F86E412707A9}"/>
     <hyperlink ref="C10" r:id="rId8" xr:uid="{E414D4D1-755D-2A43-AB81-B4A0517E9107}"/>
-    <hyperlink ref="C28" r:id="rId9" xr:uid="{645528C6-7225-564E-908E-A85650E1CCD6}"/>
-    <hyperlink ref="C27" r:id="rId10" xr:uid="{0B036CAC-824D-E543-8C48-9EDDC7350EA2}"/>
-    <hyperlink ref="C30" r:id="rId11" xr:uid="{EF5F9EA6-9DD5-1C42-A0E5-61DBB0A5A02F}"/>
-    <hyperlink ref="C31" r:id="rId12" xr:uid="{1DE792CC-A9C9-BB47-A69A-D22E477A4A3B}"/>
-    <hyperlink ref="C33" r:id="rId13" xr:uid="{E7131674-9823-C34D-8EBB-49D25F896885}"/>
+    <hyperlink ref="C24" r:id="rId9" xr:uid="{645528C6-7225-564E-908E-A85650E1CCD6}"/>
+    <hyperlink ref="C23" r:id="rId10" xr:uid="{0B036CAC-824D-E543-8C48-9EDDC7350EA2}"/>
+    <hyperlink ref="C26" r:id="rId11" xr:uid="{EF5F9EA6-9DD5-1C42-A0E5-61DBB0A5A02F}"/>
+    <hyperlink ref="C27" r:id="rId12" xr:uid="{1DE792CC-A9C9-BB47-A69A-D22E477A4A3B}"/>
+    <hyperlink ref="C29" r:id="rId13" xr:uid="{E7131674-9823-C34D-8EBB-49D25F896885}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId14"/>
@@ -1592,82 +1507,82 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDB43275-BEC1-4DF6-B56D-B5F180583A40}">
   <dimension ref="A2:F70"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9"/>
   <cols>
-    <col min="1" max="1" width="2.5" customWidth="1"/>
-    <col min="2" max="2" width="41.83203125" customWidth="1"/>
-    <col min="3" max="6" width="20.83203125" customWidth="1"/>
+    <col min="1" max="1" width="2.46484375" customWidth="1"/>
+    <col min="2" max="2" width="41.796875" customWidth="1"/>
+    <col min="3" max="6" width="20.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="15">
       <c r="A2" s="3"/>
       <c r="B2" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="B3" s="53" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="B4" s="6" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B3" s="57" t="s">
-        <v>128</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B4" s="6" t="s">
-        <v>127</v>
-      </c>
       <c r="C4" s="16" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="B5" s="6" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B7" s="57" t="s">
-        <v>125</v>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7" s="53" t="s">
+        <v>121</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="B8" s="6" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="B9" s="6" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15">
       <c r="A11" s="3"/>
       <c r="B11" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C11" s="23"/>
       <c r="D11" s="23"/>
       <c r="E11" s="23"/>
-      <c r="F11" s="58"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F11" s="54"/>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="8"/>
       <c r="B12" s="4" t="s">
         <v>95</v>
@@ -1679,12 +1594,12 @@
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" s="8"/>
       <c r="B14" s="4" t="s">
         <v>98</v>
@@ -1695,7 +1610,7 @@
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" s="8"/>
       <c r="B15" s="6" t="s">
         <v>56</v>
@@ -1706,7 +1621,7 @@
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" s="8"/>
       <c r="B16" s="6" t="s">
         <v>57</v>
@@ -1717,7 +1632,7 @@
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="B17" s="6" t="s">
         <v>58</v>
       </c>
@@ -1725,120 +1640,120 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="15">
       <c r="A19" s="3"/>
       <c r="B19" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="B20" s="53" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="B21" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B20" s="57" t="s">
+    <row r="22" spans="1:3">
+      <c r="B22" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="B23" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="B24" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="B26" s="53" t="s">
+        <v>127</v>
+      </c>
+      <c r="C26" s="16" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B26" s="57" t="s">
+    <row r="27" spans="1:3">
+      <c r="B27" t="s">
+        <v>130</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="B28" t="s">
         <v>131</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C28" s="16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="B29" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
-        <v>134</v>
-      </c>
-      <c r="C27" s="16" t="s">
+      <c r="C29" s="16" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="B30" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
-        <v>135</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
-        <v>136</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
-        <v>137</v>
-      </c>
       <c r="C30" s="16" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15">
       <c r="A32" s="3"/>
       <c r="B32" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="B33" s="15" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="B34" s="6"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B35" s="57" t="s">
+    <row r="35" spans="1:6">
+      <c r="B35" s="53" t="s">
+        <v>137</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="B36" s="53" t="s">
         <v>141</v>
       </c>
-      <c r="C35" s="16" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B36" s="57" t="s">
-        <v>145</v>
-      </c>
       <c r="C36" s="16" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15">
       <c r="A38" s="3"/>
       <c r="B38" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15">
       <c r="A40" s="3"/>
       <c r="B40" s="12" t="s">
         <v>54</v>
@@ -1850,596 +1765,596 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6">
       <c r="A41" s="4"/>
-      <c r="B41" s="50" t="s">
+      <c r="B41" s="46" t="s">
         <v>53</v>
       </c>
       <c r="C41" s="10"/>
       <c r="D41" s="9"/>
       <c r="E41" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="4"/>
-      <c r="B42" s="51" t="s">
+      <c r="B42" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="C42" s="39" t="s">
+      <c r="C42" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="D42" s="39" t="s">
+      <c r="D42" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="E42" s="34">
+      <c r="E42" s="30">
         <f t="shared" ref="E42:F45" si="0">IF(LEFT(C42,1)="H",1,IF(LEFT(C42,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
-      <c r="F42" s="34">
+      <c r="F42" s="30">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6">
       <c r="A43" s="4"/>
-      <c r="B43" s="51" t="s">
+      <c r="B43" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="40" t="s">
+      <c r="C43" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="D43" s="40" t="s">
+      <c r="D43" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="E43" s="34">
+      <c r="E43" s="30">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F43" s="34">
+      <c r="F43" s="30">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6">
       <c r="A44" s="4"/>
-      <c r="B44" s="51" t="s">
+      <c r="B44" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="C44" s="41" t="s">
+      <c r="C44" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="D44" s="41" t="s">
+      <c r="D44" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="E44" s="34">
+      <c r="E44" s="30">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="F44" s="34">
+      <c r="F44" s="30">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6">
       <c r="A45" s="4"/>
-      <c r="B45" s="52" t="s">
+      <c r="B45" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="C45" s="42" t="s">
+      <c r="C45" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="D45" s="42" t="s">
+      <c r="D45" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="E45" s="34">
+      <c r="E45" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F45" s="34">
+      <c r="F45" s="30">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6">
       <c r="A46" s="4"/>
-      <c r="B46" s="53" t="s">
+      <c r="B46" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="C46" s="43" t="str">
+      <c r="C46" s="39" t="str">
         <f>IF(SUM(E42:E45)&gt;=3, "Hot", IF(SUM(E42:E45)&lt;=-3,"Cold", "Mixed"))</f>
         <v>Mixed</v>
       </c>
-      <c r="D46" s="43" t="str">
+      <c r="D46" s="39" t="str">
         <f>IF(SUM(F42:F45)&gt;=3, "Hot", IF(SUM(F42:F45)&lt;=-3,"Cold", "Mixed"))</f>
         <v>Cold</v>
       </c>
-      <c r="E46" s="34">
+      <c r="E46" s="30">
         <f>IF(LEFT(C46,1)="H",2,IF(LEFT(C46,1)="C",-1,0))</f>
         <v>0</v>
       </c>
-      <c r="F46" s="34">
+      <c r="F46" s="30">
         <f>IF(LEFT(D46,1)="H",2,IF(LEFT(D46,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6">
       <c r="A47" s="4"/>
-      <c r="B47" s="51" t="s">
+      <c r="B47" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="C47" s="39" t="s">
+      <c r="C47" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="D47" s="39" t="s">
+      <c r="D47" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="E47" s="34">
+      <c r="E47" s="30">
         <f t="shared" ref="E47:F50" si="1">IF(LEFT(C47,1)="H",1,IF(LEFT(C47,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
-      <c r="F47" s="34">
+      <c r="F47" s="30">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6">
       <c r="A48" s="4"/>
-      <c r="B48" s="51" t="s">
+      <c r="B48" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="C48" s="39" t="s">
+      <c r="C48" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="39" t="s">
+      <c r="D48" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="E48" s="34">
+      <c r="E48" s="30">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="F48" s="34">
+      <c r="F48" s="30">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6">
       <c r="A49" s="4"/>
-      <c r="B49" s="51" t="s">
+      <c r="B49" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="C49" s="42" t="s">
+      <c r="C49" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="D49" s="42" t="s">
+      <c r="D49" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="E49" s="34">
+      <c r="E49" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F49" s="34">
+      <c r="F49" s="30">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6">
       <c r="A50" s="4"/>
-      <c r="B50" s="51" t="s">
+      <c r="B50" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="C50" s="42" t="s">
+      <c r="C50" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="D50" s="42" t="s">
+      <c r="D50" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="E50" s="34">
+      <c r="E50" s="30">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="F50" s="34">
+      <c r="F50" s="30">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6">
       <c r="A51" s="4"/>
-      <c r="B51" s="53" t="s">
+      <c r="B51" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="C51" s="44" t="str">
+      <c r="C51" s="40" t="str">
         <f>IF(SUM(E47:E50)&gt;=3, "Hot", IF(SUM(E47:E50)&lt;=-3,"Cold", "Mixed"))</f>
         <v>Cold</v>
       </c>
-      <c r="D51" s="44" t="str">
+      <c r="D51" s="40" t="str">
         <f>IF(SUM(F47:F50)&gt;=3, "Hot", IF(SUM(F47:F50)&lt;=-3,"Cold", "Mixed"))</f>
         <v>Cold</v>
       </c>
-      <c r="E51" s="34">
+      <c r="E51" s="30">
         <f>IF(LEFT(C51,1)="H",2,IF(LEFT(C51,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
-      <c r="F51" s="34">
+      <c r="F51" s="30">
         <f>IF(LEFT(D51,1)="H",2,IF(LEFT(D51,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" ht="27.75">
       <c r="A52" s="4"/>
-      <c r="B52" s="51" t="s">
+      <c r="B52" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="C52" s="39" t="s">
+      <c r="C52" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="39" t="s">
+      <c r="D52" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="E52" s="34">
+      <c r="E52" s="30">
         <f t="shared" ref="E52:F55" si="2">IF(LEFT(C52,1)="H",1,IF(LEFT(C52,1)="C",-1,0))</f>
         <v>1</v>
       </c>
-      <c r="F52" s="34">
+      <c r="F52" s="30">
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6">
       <c r="A53" s="4"/>
-      <c r="B53" s="51" t="s">
+      <c r="B53" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="C53" s="39" t="s">
+      <c r="C53" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="D53" s="39" t="s">
+      <c r="D53" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="E53" s="34">
+      <c r="E53" s="30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F53" s="34">
+      <c r="F53" s="30">
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6">
       <c r="A54" s="4"/>
-      <c r="B54" s="51" t="s">
+      <c r="B54" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="C54" s="39" t="s">
+      <c r="C54" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="D54" s="39" t="s">
+      <c r="D54" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="E54" s="34">
+      <c r="E54" s="30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F54" s="34">
+      <c r="F54" s="30">
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6">
       <c r="A55" s="4"/>
-      <c r="B55" s="51" t="s">
+      <c r="B55" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="C55" s="39" t="s">
+      <c r="C55" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="D55" s="39" t="s">
+      <c r="D55" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="E55" s="34">
+      <c r="E55" s="30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F55" s="34">
+      <c r="F55" s="30">
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6">
       <c r="A56" s="4"/>
-      <c r="B56" s="53" t="s">
+      <c r="B56" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="C56" s="44" t="str">
+      <c r="C56" s="40" t="str">
         <f>IF(SUM(E52:E55)&gt;=3, "Hot", IF(SUM(E52:E55)&lt;=-3,"Cold", "Mixed"))</f>
         <v>Mixed</v>
       </c>
-      <c r="D56" s="44" t="str">
+      <c r="D56" s="40" t="str">
         <f>IF(SUM(F52:F55)&gt;=3, "Hot", IF(SUM(F52:F55)&lt;=-3,"Cold", "Mixed"))</f>
         <v>Cold</v>
       </c>
-      <c r="E56" s="34">
+      <c r="E56" s="30">
         <f>IF(LEFT(C56,1)="H",2,IF(LEFT(C56,1)="C",-1,0))</f>
         <v>0</v>
       </c>
-      <c r="F56" s="34">
+      <c r="F56" s="30">
         <f>IF(LEFT(D56,1)="H",2,IF(LEFT(D56,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" ht="27.75">
       <c r="A57" s="4"/>
-      <c r="B57" s="51" t="s">
+      <c r="B57" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="C57" s="39" t="s">
+      <c r="C57" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="D57" s="39" t="s">
+      <c r="D57" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="E57" s="34">
+      <c r="E57" s="30">
         <f t="shared" ref="E57:F60" si="3">IF(LEFT(C57,1)="H",1,IF(LEFT(C57,1)="C",-1,0))</f>
         <v>0</v>
       </c>
-      <c r="F57" s="34">
+      <c r="F57" s="30">
         <f t="shared" si="3"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" ht="27.75">
       <c r="A58" s="4"/>
-      <c r="B58" s="51" t="s">
+      <c r="B58" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="C58" s="39" t="s">
+      <c r="C58" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="D58" s="39" t="s">
+      <c r="D58" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="E58" s="34">
+      <c r="E58" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F58" s="34">
+      <c r="F58" s="30">
         <f t="shared" si="3"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6">
       <c r="A59" s="4"/>
-      <c r="B59" s="51" t="s">
+      <c r="B59" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="C59" s="39" t="s">
+      <c r="C59" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="D59" s="39" t="s">
+      <c r="D59" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="E59" s="34">
+      <c r="E59" s="30">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="F59" s="34">
+      <c r="F59" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" ht="27.75">
       <c r="A60" s="4"/>
-      <c r="B60" s="51" t="s">
+      <c r="B60" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="C60" s="39" t="s">
+      <c r="C60" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="D60" s="39" t="s">
+      <c r="D60" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="E60" s="34">
+      <c r="E60" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F60" s="34">
+      <c r="F60" s="30">
         <f t="shared" si="3"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6">
       <c r="A61" s="4"/>
-      <c r="B61" s="53" t="s">
+      <c r="B61" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C61" s="44" t="str">
+      <c r="C61" s="40" t="str">
         <f>IF(SUM(E57:E60)&gt;=3, "Hot", IF(SUM(E57:E60)&lt;=-3,"Cold", "Mixed"))</f>
         <v>Mixed</v>
       </c>
-      <c r="D61" s="44" t="str">
+      <c r="D61" s="40" t="str">
         <f>IF(SUM(F57:F60)&gt;=3, "Hot", IF(SUM(F57:F60)&lt;=-3,"Cold", "Mixed"))</f>
         <v>Cold</v>
       </c>
-      <c r="E61" s="34">
+      <c r="E61" s="30">
         <f>IF(LEFT(C61,1)="H",2,IF(LEFT(C61,1)="C",-1,0))</f>
         <v>0</v>
       </c>
-      <c r="F61" s="34">
+      <c r="F61" s="30">
         <f>IF(LEFT(D61,1)="H",2,IF(LEFT(D61,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" ht="27.75">
       <c r="A62" s="4"/>
-      <c r="B62" s="54" t="s">
+      <c r="B62" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="C62" s="45" t="str">
+      <c r="C62" s="41" t="str">
         <f>IF(OR(E62=4,E62=-4),"In extreme",IF(E62=0,"In equilibrium",IF(OR(E62&gt;0),"Relatively optimistic","Relatively pessimistic")))</f>
         <v>Relatively pessimistic</v>
       </c>
-      <c r="D62" s="45" t="str">
+      <c r="D62" s="41" t="str">
         <f>IF(OR(F62=4,F62=-4),"In extreme",IF(F62=0,"In equilibrium",IF(OR(F62&gt;0),"Relatively optimistic","Relatively pessimistic")))</f>
         <v>In extreme</v>
       </c>
-      <c r="E62" s="35">
+      <c r="E62" s="31">
         <f>SUM(E46,E51,E56,E61)</f>
         <v>-1</v>
       </c>
-      <c r="F62" s="35">
+      <c r="F62" s="31">
         <f>SUM(F46,F51,F56,F61)</f>
         <v>-4</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6">
       <c r="A63" s="4"/>
-      <c r="B63" s="46"/>
-      <c r="C63" s="46"/>
-      <c r="D63" s="46"/>
-      <c r="E63" s="36"/>
-      <c r="F63" s="36"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B63" s="42"/>
+      <c r="C63" s="42"/>
+      <c r="D63" s="42"/>
+      <c r="E63" s="32"/>
+      <c r="F63" s="32"/>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="4"/>
-      <c r="B64" s="55" t="s">
+      <c r="B64" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="C64" s="47" t="s">
+      <c r="C64" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="D64" s="47" t="s">
+      <c r="D64" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="E64" s="37"/>
-      <c r="F64" s="37"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E64" s="33"/>
+      <c r="F64" s="33"/>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="4"/>
-      <c r="B65" s="52" t="s">
+      <c r="B65" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C65" s="42" t="s">
+      <c r="C65" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="D65" s="42" t="s">
+      <c r="D65" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="E65" s="37">
+      <c r="E65" s="33">
         <f t="shared" ref="E65:F69" si="4">IF(LEFT(C65,1)="H",2,IF(LEFT(C65,1)="C",0,1))</f>
         <v>2</v>
       </c>
-      <c r="F65" s="37">
+      <c r="F65" s="33">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B66" s="52" t="s">
+    <row r="66" spans="1:6">
+      <c r="B66" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="C66" s="48" t="e">
+      <c r="C66" s="44" t="e">
         <f>IF(Macro!#REF!&gt;=3%, "Hot - High", IF(Macro!#REF!&lt;=1.5%, "Cold - Low", "Mixed - Dormant"))</f>
         <v>#REF!</v>
       </c>
-      <c r="D66" s="48" t="e">
+      <c r="D66" s="44" t="e">
         <f>IF(Macro!#REF!&gt;=3%, "Hot - High", IF(Macro!#REF!&lt;=1.5%, "Cold - Low", "Mixed - Dormant"))</f>
         <v>#REF!</v>
       </c>
-      <c r="E66" s="37" t="e">
+      <c r="E66" s="33" t="e">
         <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
-      <c r="F66" s="37" t="e">
+      <c r="F66" s="33" t="e">
         <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B67" s="52" t="s">
+    <row r="67" spans="1:6">
+      <c r="B67" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="C67" s="48" t="str">
+      <c r="C67" s="44" t="str">
         <f>C43</f>
         <v>Hot - Positive</v>
       </c>
-      <c r="D67" s="48" t="str">
+      <c r="D67" s="44" t="str">
         <f>D43</f>
         <v>Cold - Negative</v>
       </c>
-      <c r="E67" s="37">
+      <c r="E67" s="33">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="F67" s="37">
+      <c r="F67" s="33">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B68" s="52" t="s">
+    <row r="68" spans="1:6">
+      <c r="B68" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="C68" s="48" t="str">
+      <c r="C68" s="44" t="str">
         <f>C49</f>
         <v>Mixed</v>
       </c>
-      <c r="D68" s="48" t="str">
+      <c r="D68" s="44" t="str">
         <f>D49</f>
         <v>Cold - High</v>
       </c>
-      <c r="E68" s="37">
+      <c r="E68" s="33">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="F68" s="37">
+      <c r="F68" s="33">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B69" s="52" t="s">
+    <row r="69" spans="1:6">
+      <c r="B69" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C69" s="48" t="str">
+      <c r="C69" s="44" t="str">
         <f>C50</f>
         <v>Cold - Wide</v>
       </c>
-      <c r="D69" s="48" t="str">
+      <c r="D69" s="44" t="str">
         <f>D50</f>
         <v>Cold - Wide</v>
       </c>
-      <c r="E69" s="37">
+      <c r="E69" s="33">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F69" s="37">
+      <c r="F69" s="33">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B70" s="56" t="s">
+    <row r="70" spans="1:6">
+      <c r="B70" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="C70" s="49" t="e">
+      <c r="C70" s="45" t="e">
         <f>Macro!#REF!*(1+E70)</f>
         <v>#REF!</v>
       </c>
-      <c r="D70" s="49" t="e">
+      <c r="D70" s="45" t="e">
         <f>Macro!#REF!*(1+F70)</f>
         <v>#REF!</v>
       </c>
-      <c r="E70" s="38" t="e">
+      <c r="E70" s="34" t="e">
         <f>SUM(E65:E69)/10</f>
         <v>#REF!</v>
       </c>
-      <c r="F70" s="38" t="e">
+      <c r="F70" s="34" t="e">
         <f>SUM(F65:F69)/10</f>
         <v>#REF!</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <dataValidations count="19">
     <dataValidation allowBlank="1" sqref="C62:D62" xr:uid="{EA6F9DE9-1D2B-41CE-B86F-59C772E5B0CA}"/>
     <dataValidation type="list" allowBlank="1" sqref="C49:D49" xr:uid="{CB91B3B3-F107-40CA-9A38-987E11E74D07}">
@@ -2531,21 +2446,21 @@
       <selection activeCell="B2" sqref="B2:C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="13.9"/>
   <cols>
     <col min="2" max="2" width="24.6640625" customWidth="1"/>
     <col min="3" max="3" width="51" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:3">
       <c r="B2" s="15" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
       <c r="B4" s="15" t="s">
         <v>84</v>
       </c>
@@ -2553,12 +2468,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:3">
       <c r="B6" s="15" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:3">
       <c r="B7" t="s">
         <v>78</v>
       </c>
@@ -2566,12 +2481,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:3">
       <c r="B9" s="22" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:3">
       <c r="B10" t="s">
         <v>81</v>
       </c>
@@ -2579,12 +2494,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:3">
       <c r="B12" s="15" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:3">
       <c r="B13" t="s">
         <v>87</v>
       </c>
@@ -2593,7 +2508,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C7" r:id="rId1" xr:uid="{BD2948D7-96D9-264F-B0D8-E6D98C96444B}"/>
     <hyperlink ref="C10" r:id="rId2" xr:uid="{00B87B71-2B64-7648-8C06-ED4B13CF1CAC}"/>
@@ -2613,14 +2528,14 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="13.9"/>
   <cols>
-    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="2" max="2" width="18.46484375" customWidth="1"/>
     <col min="3" max="3" width="38.6640625" customWidth="1"/>
-    <col min="4" max="4" width="34.5" customWidth="1"/>
+    <col min="4" max="4" width="34.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:4">
       <c r="C2" s="1" t="s">
         <v>114</v>
       </c>
@@ -2628,7 +2543,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:4">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -2636,33 +2551,33 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:4">
       <c r="B5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:4">
       <c r="B7" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:4">
       <c r="B9" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:4">
       <c r="B11" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:4">
       <c r="B13" t="s">
         <v>113</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{D5EB599C-0AC8-C945-97CD-4616A9DA5B5A}"/>
   </hyperlinks>

--- a/financial_models/Macro_Monitor.xlsx
+++ b/financial_models/Macro_Monitor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B64121-53C7-477F-B7DF-462D3B9DF65D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B37A91-30A9-426C-B4F4-9805E0A14810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Macro" sheetId="2" r:id="rId1"/>
@@ -1268,7 +1268,7 @@
   <dimension ref="A2:F29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="114" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9"/>
@@ -1341,16 +1341,16 @@
         <v>116</v>
       </c>
       <c r="C6" s="21">
-        <f>MAX(6%,C4)</f>
-        <v>0.06</v>
+        <f>MAX(8%,C4)</f>
+        <v>0.08</v>
       </c>
       <c r="D6" s="21">
         <f>MAX(D4,C6*1.15)</f>
-        <v>6.8999999999999992E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="E6" s="21">
         <f>(C6+D6)/2</f>
-        <v>6.4500000000000002E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="F6" s="21"/>
     </row>

--- a/financial_models/Macro_Monitor.xlsx
+++ b/financial_models/Macro_Monitor.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B37A91-30A9-426C-B4F4-9805E0A14810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C476CF3-33DC-4C09-A25A-B4C575CDE9A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1268,7 +1268,7 @@
   <dimension ref="A2:F29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="114" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9"/>
@@ -1341,16 +1341,16 @@
         <v>116</v>
       </c>
       <c r="C6" s="21">
-        <f>MAX(8%,C4)</f>
-        <v>0.08</v>
+        <f>MAX(7%,C4)</f>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D6" s="21">
         <f>MAX(D4,C6*1.15)</f>
-        <v>9.1999999999999998E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="E6" s="21">
         <f>(C6+D6)/2</f>
-        <v>8.5999999999999993E-2</v>
+        <v>7.5250000000000011E-2</v>
       </c>
       <c r="F6" s="21"/>
     </row>

--- a/financial_models/Macro_Monitor.xlsx
+++ b/financial_models/Macro_Monitor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C476CF3-33DC-4C09-A25A-B4C575CDE9A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29498267-86DE-47B4-A286-DC712100058A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Macro" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="161">
   <si>
     <t>China</t>
   </si>
@@ -264,18 +264,12 @@
     <t>https://fred.stlouisfed.org/series/CPALTT01CNM659N</t>
   </si>
   <si>
-    <t>Nominal Risk-free rate  (use 10Y Treasury yield if available) =</t>
-  </si>
-  <si>
     <t>Market Yields:</t>
   </si>
   <si>
     <t>Others</t>
   </si>
   <si>
-    <t>US BBB Bond yield</t>
-  </si>
-  <si>
     <t>BBB Bond yield</t>
   </si>
   <si>
@@ -291,9 +285,6 @@
     <t>https://yield.chinabond.com.cn/cbweb-mn/yield_main?locale=en_US</t>
   </si>
   <si>
-    <t>CN Riskfree</t>
-  </si>
-  <si>
     <t>CN Onshore BBB- Bond yield</t>
   </si>
   <si>
@@ -301,12 +292,6 @@
   </si>
   <si>
     <t>https://fred.stlouisfed.org/series/DGS10</t>
-  </si>
-  <si>
-    <t>https://fred.stlouisfed.org/series/BAMLC0A4CBBBEY</t>
-  </si>
-  <si>
-    <t>US Riskfree</t>
   </si>
   <si>
     <t>CN</t>
@@ -543,6 +528,54 @@
   </si>
   <si>
     <t>https://fred.stlouisfed.org/series/CHNB6CATT00CXCUQ</t>
+  </si>
+  <si>
+    <t>https://fred.stlouisfed.org/series/FEDFUNDS</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>US 10Y Treasury yield</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nominal Risk-free rate =</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>US Fed Fund Rate</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>US BBB Bond index yield</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN 10Y Government Bond Yield</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tradingeconomics.com/china/interest-rate</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN Loan Prime Rate</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://fred.stlouisfed.org/series/BAMLC0A2CAAEY</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>US AA Bond index yield</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.spglobal.com/spdji/en/indices/fixed-income/sp-china-corporate-bond-index/#overview</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN AA Bond index yield</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -850,7 +883,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -984,6 +1017,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1265,10 +1299,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A061C73F-1F33-4614-90A5-D5D9D7C58056}">
-  <dimension ref="A2:F29"/>
+  <dimension ref="A2:F33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="114" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9"/>
@@ -1282,30 +1316,30 @@
     <row r="2" spans="1:6" ht="15">
       <c r="A2" s="3"/>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2" s="23" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E2" s="23" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="B3" s="8" t="s">
-        <v>61</v>
+        <v>151</v>
       </c>
       <c r="C3" s="13">
-        <v>4.2099999999999999E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="D3" s="14">
-        <v>2.1309999999999999E-2</v>
+        <v>1.8100000000000002E-2</v>
       </c>
       <c r="E3" s="13">
         <v>2.7650000000000001E-2</v>
@@ -1314,10 +1348,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="B4" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C4" s="13">
-        <v>5.3099999999999994E-2</v>
+        <v>5.2299999999999999E-2</v>
       </c>
       <c r="D4" s="14">
         <v>6.5000000000000002E-2</v>
@@ -1327,7 +1361,7 @@
     </row>
     <row r="5" spans="1:6" ht="14.25" thickBot="1">
       <c r="B5" s="25" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="18">
@@ -1338,7 +1372,7 @@
     </row>
     <row r="6" spans="1:6" ht="14.25" thickTop="1">
       <c r="B6" s="7" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C6" s="21">
         <f>MAX(7%,C4)</f>
@@ -1357,7 +1391,7 @@
     <row r="8" spans="1:6" ht="15">
       <c r="A8" s="3"/>
       <c r="B8" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C8" s="13">
         <v>0.15</v>
@@ -1365,10 +1399,10 @@
     </row>
     <row r="10" spans="1:6">
       <c r="B10" s="8" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E10" s="27"/>
     </row>
@@ -1376,130 +1410,170 @@
       <c r="E11" s="27"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="B12" s="4" t="s">
-        <v>75</v>
+      <c r="B12" s="8" t="s">
+        <v>152</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>73</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="E12" s="27"/>
     </row>
     <row r="13" spans="1:6">
       <c r="B13" s="4" t="s">
-        <v>64</v>
+        <v>150</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>74</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="B14" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="B15" s="4" t="s">
-        <v>70</v>
+        <v>153</v>
       </c>
       <c r="C15" s="26" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="C16" s="55"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="B17" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="B18" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="B19" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="B20" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="B21" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="26" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="B16" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="B17" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15">
-      <c r="A19" s="3"/>
-      <c r="B19" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="B20" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="B22" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="B23" s="6" t="s">
+    <row r="23" spans="1:6" ht="15">
+      <c r="A23" s="3"/>
+      <c r="B23" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="B24" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="B26" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="B27" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="B28" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="B30" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="B31" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C31" s="26" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33" s="8" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="B24" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C24" s="26" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="B26" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C26" s="26" t="s">
+      <c r="C33" s="26" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="B27" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="C27" s="26" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="B29" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C29" s="26" t="s">
-        <v>108</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C17" r:id="rId1" xr:uid="{DB671679-E839-B64A-AD4E-6D8A323DAFC3}"/>
-    <hyperlink ref="C16" r:id="rId2" xr:uid="{9CB8AD70-9E02-9A41-8E3A-990A0C1E81AE}"/>
-    <hyperlink ref="C15" r:id="rId3" xr:uid="{45D5643F-FA1A-3C48-B2D9-4B6082295A37}"/>
-    <hyperlink ref="C13" r:id="rId4" xr:uid="{35ACA25B-AF93-B04F-A9DD-9D3D634DC7A6}"/>
-    <hyperlink ref="C12" r:id="rId5" xr:uid="{8FF27AF7-25A6-F443-A0E6-DAC1AFC8FB4A}"/>
-    <hyperlink ref="C20" r:id="rId6" xr:uid="{16104B09-A651-7A41-A777-F49F69D02554}"/>
-    <hyperlink ref="C22" r:id="rId7" xr:uid="{BFEB5D28-D16E-9545-989F-F86E412707A9}"/>
-    <hyperlink ref="C10" r:id="rId8" xr:uid="{E414D4D1-755D-2A43-AB81-B4A0517E9107}"/>
-    <hyperlink ref="C24" r:id="rId9" xr:uid="{645528C6-7225-564E-908E-A85650E1CCD6}"/>
-    <hyperlink ref="C23" r:id="rId10" xr:uid="{0B036CAC-824D-E543-8C48-9EDDC7350EA2}"/>
-    <hyperlink ref="C26" r:id="rId11" xr:uid="{EF5F9EA6-9DD5-1C42-A0E5-61DBB0A5A02F}"/>
-    <hyperlink ref="C27" r:id="rId12" xr:uid="{1DE792CC-A9C9-BB47-A69A-D22E477A4A3B}"/>
-    <hyperlink ref="C29" r:id="rId13" xr:uid="{E7131674-9823-C34D-8EBB-49D25F896885}"/>
+    <hyperlink ref="C21" r:id="rId1" xr:uid="{DB671679-E839-B64A-AD4E-6D8A323DAFC3}"/>
+    <hyperlink ref="C20" r:id="rId2" xr:uid="{9CB8AD70-9E02-9A41-8E3A-990A0C1E81AE}"/>
+    <hyperlink ref="C18" r:id="rId3" xr:uid="{45D5643F-FA1A-3C48-B2D9-4B6082295A37}"/>
+    <hyperlink ref="C13" r:id="rId4" xr:uid="{8FF27AF7-25A6-F443-A0E6-DAC1AFC8FB4A}"/>
+    <hyperlink ref="C24" r:id="rId5" xr:uid="{16104B09-A651-7A41-A777-F49F69D02554}"/>
+    <hyperlink ref="C26" r:id="rId6" xr:uid="{BFEB5D28-D16E-9545-989F-F86E412707A9}"/>
+    <hyperlink ref="C10" r:id="rId7" xr:uid="{E414D4D1-755D-2A43-AB81-B4A0517E9107}"/>
+    <hyperlink ref="C28" r:id="rId8" xr:uid="{645528C6-7225-564E-908E-A85650E1CCD6}"/>
+    <hyperlink ref="C27" r:id="rId9" xr:uid="{0B036CAC-824D-E543-8C48-9EDDC7350EA2}"/>
+    <hyperlink ref="C30" r:id="rId10" xr:uid="{EF5F9EA6-9DD5-1C42-A0E5-61DBB0A5A02F}"/>
+    <hyperlink ref="C31" r:id="rId11" xr:uid="{1DE792CC-A9C9-BB47-A69A-D22E477A4A3B}"/>
+    <hyperlink ref="C33" r:id="rId12" xr:uid="{E7131674-9823-C34D-8EBB-49D25F896885}"/>
+    <hyperlink ref="C12" r:id="rId13" xr:uid="{BD25C893-4B01-48BE-AB6E-FA9F70DB6325}"/>
+    <hyperlink ref="C17" r:id="rId14" xr:uid="{01B23463-056A-45A3-AFE5-8FCBFF68216B}"/>
+    <hyperlink ref="C15" r:id="rId15" display="https://fred.stlouisfed.org/series/BAMLC0A4CBBBEY" xr:uid="{35ACA25B-AF93-B04F-A9DD-9D3D634DC7A6}"/>
+    <hyperlink ref="C14" r:id="rId16" xr:uid="{410CC38F-2D01-4044-AE85-C4E978B37B55}"/>
+    <hyperlink ref="C19" r:id="rId17" location="overview" xr:uid="{85EC9358-C071-4DB7-96C6-D513DABB95B7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId14"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId18"/>
 </worksheet>
 </file>
 
@@ -1521,61 +1595,61 @@
     <row r="2" spans="1:6" ht="15">
       <c r="A2" s="3"/>
       <c r="B2" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="B3" s="53" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="B4" s="6" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="B5" s="6" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="B7" s="53" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="B8" s="6" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="B9" s="6" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15">
       <c r="A11" s="3"/>
       <c r="B11" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C11" s="23"/>
       <c r="D11" s="23"/>
@@ -1585,10 +1659,10 @@
     <row r="12" spans="1:6">
       <c r="A12" s="8"/>
       <c r="B12" s="4" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -1602,10 +1676,10 @@
     <row r="14" spans="1:6">
       <c r="A14" s="8"/>
       <c r="B14" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
@@ -1643,86 +1717,86 @@
     <row r="19" spans="1:3" ht="15">
       <c r="A19" s="3"/>
       <c r="B19" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="B20" s="53" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="B21" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="B22" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="B23" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="B24" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="B26" s="53" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="B27" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="B28" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="B29" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="B30" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15">
       <c r="A32" s="3"/>
       <c r="B32" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="B33" s="15" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1730,27 +1804,27 @@
     </row>
     <row r="35" spans="1:6">
       <c r="B35" s="53" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="B36" s="53" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15">
       <c r="A38" s="3"/>
       <c r="B38" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15">
@@ -1759,7 +1833,7 @@
         <v>54</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>1</v>
@@ -1773,7 +1847,7 @@
       <c r="C41" s="10"/>
       <c r="D41" s="9"/>
       <c r="E41" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2454,57 +2528,57 @@
   <sheetData>
     <row r="2" spans="2:3">
       <c r="B2" s="15" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="15" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" s="15" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" s="22" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" s="15" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2537,10 +2611,10 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="C2" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="2:4">
@@ -2548,7 +2622,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="2:4">
@@ -2558,22 +2632,22 @@
     </row>
     <row r="7" spans="2:4">
       <c r="B7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="2:4">
       <c r="B11" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="2:4">
       <c r="B13" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/financial_models/Macro_Monitor.xlsx
+++ b/financial_models/Macro_Monitor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29498267-86DE-47B4-A286-DC712100058A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23597F84-0FA7-451C-A187-5FF13DB3747F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Macro" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Commodities" sheetId="5" r:id="rId3"/>
     <sheet name="RE" sheetId="6" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029" concurrentManualCount="8"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="165">
   <si>
     <t>China</t>
   </si>
@@ -577,12 +577,28 @@
     <t>CN AA Bond index yield</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
+  <si>
+    <t>https://tradingeconomics.com/commodity/coal</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coal</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Natural </t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tradingeconomics.com/commodity/natural-gas</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -700,6 +716,12 @@
       <color theme="2" tint="-9.9978637043366805E-2"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -883,7 +905,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1018,6 +1040,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1301,8 +1324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A061C73F-1F33-4614-90A5-D5D9D7C58056}">
   <dimension ref="A2:F33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="114" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView showGridLines="0" zoomScale="114" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9"/>
@@ -2514,10 +2537,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54B06D35-F870-9847-BA9B-1E2F9FFBE611}">
-  <dimension ref="B2:C13"/>
+  <dimension ref="B2:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="13.9"/>
@@ -2555,29 +2578,45 @@
         <v>74</v>
       </c>
     </row>
+    <row r="8" spans="2:3">
+      <c r="B8" s="56" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>164</v>
+      </c>
+    </row>
     <row r="9" spans="2:3">
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="56" t="s">
+        <v>162</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" s="22" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="2:3">
-      <c r="B10" t="s">
+    <row r="12" spans="2:3">
+      <c r="B12" t="s">
         <v>76</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C12" s="16" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="2:3">
-      <c r="B12" s="15" t="s">
+    <row r="14" spans="2:3">
+      <c r="B14" s="15" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="2:3">
-      <c r="B13" t="s">
+    <row r="15" spans="2:3">
+      <c r="B15" t="s">
         <v>82</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C15" s="16" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2585,10 +2624,12 @@
   <phoneticPr fontId="11" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C7" r:id="rId1" xr:uid="{BD2948D7-96D9-264F-B0D8-E6D98C96444B}"/>
-    <hyperlink ref="C10" r:id="rId2" xr:uid="{00B87B71-2B64-7648-8C06-ED4B13CF1CAC}"/>
+    <hyperlink ref="C12" r:id="rId2" xr:uid="{00B87B71-2B64-7648-8C06-ED4B13CF1CAC}"/>
     <hyperlink ref="C4" r:id="rId3" xr:uid="{2EBA3D15-8A74-E446-A2A5-3050276DAEF0}"/>
-    <hyperlink ref="C13" r:id="rId4" xr:uid="{C49E8DEC-BC7E-F34D-949B-76A17DA7B973}"/>
+    <hyperlink ref="C15" r:id="rId4" xr:uid="{C49E8DEC-BC7E-F34D-949B-76A17DA7B973}"/>
     <hyperlink ref="C2" r:id="rId5" xr:uid="{18F23401-4E80-A24F-B5F3-B57C2EA041C5}"/>
+    <hyperlink ref="C9" r:id="rId6" xr:uid="{5B060AD5-B453-475A-AE85-6F08E6150FB3}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{55E080AE-5E7C-47FD-A5AD-AADFA910A2B5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/financial_models/Macro_Monitor.xlsx
+++ b/financial_models/Macro_Monitor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23597F84-0FA7-451C-A187-5FF13DB3747F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1426314-9662-4554-A230-263F550D4F51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Macro" sheetId="2" r:id="rId1"/>
@@ -1324,8 +1324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A061C73F-1F33-4614-90A5-D5D9D7C58056}">
   <dimension ref="A2:F33"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="114" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="114" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9"/>
@@ -1398,16 +1398,16 @@
         <v>111</v>
       </c>
       <c r="C6" s="21">
-        <f>MAX(7%,C4)</f>
-        <v>7.0000000000000007E-2</v>
+        <f>MAX(7.5%,C4)</f>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D6" s="21">
         <f>MAX(D4,C6*1.15)</f>
-        <v>8.0500000000000002E-2</v>
+        <v>8.6249999999999993E-2</v>
       </c>
       <c r="E6" s="21">
         <f>(C6+D6)/2</f>
-        <v>7.5250000000000011E-2</v>
+        <v>8.0625000000000002E-2</v>
       </c>
       <c r="F6" s="21"/>
     </row>
@@ -2539,8 +2539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54B06D35-F870-9847-BA9B-1E2F9FFBE611}">
   <dimension ref="B2:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="13.9"/>

--- a/financial_models/Macro_Monitor.xlsx
+++ b/financial_models/Macro_Monitor.xlsx
@@ -8,27 +8,39 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1426314-9662-4554-A230-263F550D4F51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD2CDAD2-9E5E-4C74-8F92-F8C748072B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Macro" sheetId="2" r:id="rId1"/>
     <sheet name="Economics" sheetId="4" r:id="rId2"/>
     <sheet name="Commodities" sheetId="5" r:id="rId3"/>
     <sheet name="RE" sheetId="6" r:id="rId4"/>
+    <sheet name="Equity" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="194">
   <si>
     <t>China</t>
   </si>
@@ -591,6 +603,122 @@
   </si>
   <si>
     <t>https://tradingeconomics.com/commodity/natural-gas</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stock Indices</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>S&amp;P 500</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. Canada</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>DJI</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://finance.yahoo.com/quote/%5EDJI/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://finance.yahoo.com/quote/%5EGSPC/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nikkei 225</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. Japan</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tradingeconomics.com/canada/stock-market</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>TSX</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.etnet.com.hk/www/tc/stocks/indexes_chart_interactive.php?subtype=HIS</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.sgx.com/indices/products/sti</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>STI</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. Singapore</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tradingeconomics.com/japan/stock-market</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tradingeconomics.com/stocks</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tradingeconomics.com/china/stock-market</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. Australia</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tradingeconomics.com/australia/stock-market</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASX</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>7. India</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tradingeconomics.com/india/stock-market</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sensex</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tradingeconomics.com/united-kingdom/stock-market</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>8. Britain</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTSE 100</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shanghai Composite Index</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hang Seng Index</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tradingeconomics.com/united-states/stock-market</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1324,7 +1452,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A061C73F-1F33-4614-90A5-D5D9D7C58056}">
   <dimension ref="A2:F33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="114" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="114" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -1605,7 +1733,7 @@
   <dimension ref="A2:F70"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9"/>
@@ -2698,4 +2826,174 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B29DA212-C2AF-4D3E-9C01-BCAB145BF990}">
+  <dimension ref="A2:C27"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9"/>
+  <cols>
+    <col min="1" max="1" width="2.46484375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="41.796875" style="8" customWidth="1"/>
+    <col min="3" max="6" width="20.796875" style="8" customWidth="1"/>
+    <col min="7" max="16384" width="8.796875" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" ht="15">
+      <c r="A2" s="3"/>
+      <c r="B2" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" s="53" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" s="53" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" s="26"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="B11" s="53" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" s="53" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" s="53" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="53" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="53" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="53" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="B27" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>188</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{7EA46E5E-057B-48C9-8A0D-B56B623EF344}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{8FF96C9D-4D1A-4741-A8FC-C93FF0BAEB17}"/>
+    <hyperlink ref="C12" r:id="rId3" xr:uid="{7720DD14-3F75-4F25-8D70-F6180ED9FB8E}"/>
+    <hyperlink ref="C9" r:id="rId4" xr:uid="{24CE27D2-F11F-4C96-99C0-31B5BD7EA483}"/>
+    <hyperlink ref="C18" r:id="rId5" xr:uid="{09648102-1869-492C-87E8-7FC427C0F56E}"/>
+    <hyperlink ref="C15" r:id="rId6" xr:uid="{2EDD765B-40DE-4D2D-9531-556EBBD3F442}"/>
+    <hyperlink ref="C2" r:id="rId7" xr:uid="{7787D8AC-7779-42B9-928B-03FC735FB8BD}"/>
+    <hyperlink ref="C8" r:id="rId8" xr:uid="{BA156D29-558F-489F-A67F-2DF63DB9298F}"/>
+    <hyperlink ref="C21" r:id="rId9" xr:uid="{7654C459-BEF7-4D12-A6F9-A473435AB19D}"/>
+    <hyperlink ref="C24" r:id="rId10" xr:uid="{CCF57805-2741-4C93-98B7-D361D0EE1D76}"/>
+    <hyperlink ref="C27" r:id="rId11" xr:uid="{1AD065D4-1978-475F-AE7F-D0045B9251B4}"/>
+    <hyperlink ref="C3" r:id="rId12" xr:uid="{E821A63E-EBB2-4817-A8B2-87D71FC5D7D5}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId13"/>
+</worksheet>
 </file>
--- a/financial_models/Macro_Monitor.xlsx
+++ b/financial_models/Macro_Monitor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD2CDAD2-9E5E-4C74-8F92-F8C748072B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1711ED66-F986-476D-9776-1EAC066825AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Macro" sheetId="2" r:id="rId1"/>
@@ -23,17 +23,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -726,7 +715,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="&quot;for &quot;0&quot; Yrs&quot;"/>
+  </numFmts>
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -852,6 +844,12 @@
       <name val="等线"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -898,13 +896,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor rgb="FFFFE599"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1033,7 +1031,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1079,9 +1077,6 @@
     <xf numFmtId="10" fontId="2" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1096,15 +1091,15 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="15" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="15" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1169,6 +1164,12 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="18" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="18" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1452,8 +1453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A061C73F-1F33-4614-90A5-D5D9D7C58056}">
   <dimension ref="A2:F33"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="114" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9"/>
@@ -1469,16 +1470,16 @@
       <c r="B2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="23" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1511,7 +1512,7 @@
       <c r="F4" s="14"/>
     </row>
     <row r="5" spans="1:6" ht="14.25" thickBot="1">
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="24" t="s">
         <v>64</v>
       </c>
       <c r="C5" s="17"/>
@@ -1525,55 +1526,58 @@
       <c r="B6" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="56">
         <f>MAX(7.5%,C4)</f>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="56">
         <f>MAX(D4,C6*1.15)</f>
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="56">
         <f>(C6+D6)/2</f>
         <v>8.0625000000000002E-2</v>
       </c>
-      <c r="F6" s="21"/>
+      <c r="F6" s="56"/>
     </row>
     <row r="8" spans="1:6" ht="15">
       <c r="A8" s="3"/>
       <c r="B8" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="56">
         <v>0.15</v>
+      </c>
+      <c r="D8" s="57">
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="B10" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="E10" s="27"/>
+      <c r="E10" s="26"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="E11" s="27"/>
+      <c r="E11" s="26"/>
     </row>
     <row r="12" spans="1:6">
       <c r="B12" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="E12" s="27"/>
+      <c r="E12" s="26"/>
     </row>
     <row r="13" spans="1:6">
       <c r="B13" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="25" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1581,7 +1585,7 @@
       <c r="B14" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="25" t="s">
         <v>157</v>
       </c>
     </row>
@@ -1589,18 +1593,18 @@
       <c r="B15" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="25" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="C16" s="55"/>
+      <c r="C16" s="54"/>
     </row>
     <row r="17" spans="1:6">
       <c r="B17" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="25" t="s">
         <v>155</v>
       </c>
     </row>
@@ -1608,7 +1612,7 @@
       <c r="B18" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="25" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1616,7 +1620,7 @@
       <c r="B19" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="25" t="s">
         <v>159</v>
       </c>
     </row>
@@ -1624,7 +1628,7 @@
       <c r="B20" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="25" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1632,7 +1636,7 @@
       <c r="B21" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="25" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1641,16 +1645,16 @@
       <c r="B23" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
     </row>
     <row r="24" spans="1:6">
       <c r="B24" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="25" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1658,7 +1662,7 @@
       <c r="B26" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="25" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1666,7 +1670,7 @@
       <c r="B27" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C27" s="26" t="s">
+      <c r="C27" s="25" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1674,7 +1678,7 @@
       <c r="B28" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="C28" s="25" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1682,7 +1686,7 @@
       <c r="B30" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C30" s="26" t="s">
+      <c r="C30" s="25" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1690,7 +1694,7 @@
       <c r="B31" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C31" s="26" t="s">
+      <c r="C31" s="25" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1698,7 +1702,7 @@
       <c r="B33" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C33" s="26" t="s">
+      <c r="C33" s="25" t="s">
         <v>103</v>
       </c>
     </row>
@@ -1750,7 +1754,7 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="52" t="s">
         <v>119</v>
       </c>
       <c r="C3" s="16" t="s">
@@ -1774,7 +1778,7 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="52" t="s">
         <v>116</v>
       </c>
       <c r="C7" s="16" t="s">
@@ -1802,17 +1806,17 @@
       <c r="B11" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="54"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="53"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="8"/>
       <c r="B12" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="25" t="s">
         <v>91</v>
       </c>
       <c r="D12" s="8"/>
@@ -1829,7 +1833,7 @@
       <c r="B14" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="25" t="s">
         <v>92</v>
       </c>
       <c r="E14" s="8"/>
@@ -1840,7 +1844,7 @@
       <c r="B15" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="27" t="s">
         <v>55</v>
       </c>
       <c r="E15" s="8"/>
@@ -1851,7 +1855,7 @@
       <c r="B16" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="28" t="s">
         <v>60</v>
       </c>
       <c r="E16" s="8"/>
@@ -1861,7 +1865,7 @@
       <c r="B17" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="28" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1872,7 +1876,7 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="B20" s="53" t="s">
+      <c r="B20" s="52" t="s">
         <v>119</v>
       </c>
     </row>
@@ -1897,7 +1901,7 @@
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="B26" s="53" t="s">
+      <c r="B26" s="52" t="s">
         <v>122</v>
       </c>
       <c r="C26" s="16" t="s">
@@ -1954,7 +1958,7 @@
       <c r="B34" s="6"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="B35" s="53" t="s">
+      <c r="B35" s="52" t="s">
         <v>132</v>
       </c>
       <c r="C35" s="16" t="s">
@@ -1962,7 +1966,7 @@
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="B36" s="53" t="s">
+      <c r="B36" s="52" t="s">
         <v>136</v>
       </c>
       <c r="C36" s="16" t="s">
@@ -1992,7 +1996,7 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="4"/>
-      <c r="B41" s="46" t="s">
+      <c r="B41" s="45" t="s">
         <v>53</v>
       </c>
       <c r="C41" s="10"/>
@@ -2003,577 +2007,577 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="4"/>
-      <c r="B42" s="47" t="s">
+      <c r="B42" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="C42" s="35" t="s">
+      <c r="C42" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="D42" s="35" t="s">
+      <c r="D42" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="E42" s="30">
+      <c r="E42" s="29">
         <f t="shared" ref="E42:F45" si="0">IF(LEFT(C42,1)="H",1,IF(LEFT(C42,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
-      <c r="F42" s="30">
+      <c r="F42" s="29">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="4"/>
-      <c r="B43" s="47" t="s">
+      <c r="B43" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="36" t="s">
+      <c r="C43" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="D43" s="36" t="s">
+      <c r="D43" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="E43" s="30">
+      <c r="E43" s="29">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F43" s="30">
+      <c r="F43" s="29">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="4"/>
-      <c r="B44" s="47" t="s">
+      <c r="B44" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="C44" s="37" t="s">
+      <c r="C44" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="D44" s="37" t="s">
+      <c r="D44" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="E44" s="30">
+      <c r="E44" s="29">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="F44" s="30">
+      <c r="F44" s="29">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="4"/>
-      <c r="B45" s="48" t="s">
+      <c r="B45" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="C45" s="38" t="s">
+      <c r="C45" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="D45" s="38" t="s">
+      <c r="D45" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="E45" s="30">
+      <c r="E45" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F45" s="30">
+      <c r="F45" s="29">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="4"/>
-      <c r="B46" s="49" t="s">
+      <c r="B46" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="C46" s="39" t="str">
+      <c r="C46" s="38" t="str">
         <f>IF(SUM(E42:E45)&gt;=3, "Hot", IF(SUM(E42:E45)&lt;=-3,"Cold", "Mixed"))</f>
         <v>Mixed</v>
       </c>
-      <c r="D46" s="39" t="str">
+      <c r="D46" s="38" t="str">
         <f>IF(SUM(F42:F45)&gt;=3, "Hot", IF(SUM(F42:F45)&lt;=-3,"Cold", "Mixed"))</f>
         <v>Cold</v>
       </c>
-      <c r="E46" s="30">
+      <c r="E46" s="29">
         <f>IF(LEFT(C46,1)="H",2,IF(LEFT(C46,1)="C",-1,0))</f>
         <v>0</v>
       </c>
-      <c r="F46" s="30">
+      <c r="F46" s="29">
         <f>IF(LEFT(D46,1)="H",2,IF(LEFT(D46,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="4"/>
-      <c r="B47" s="47" t="s">
+      <c r="B47" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="C47" s="35" t="s">
+      <c r="C47" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="D47" s="35" t="s">
+      <c r="D47" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="E47" s="30">
+      <c r="E47" s="29">
         <f t="shared" ref="E47:F50" si="1">IF(LEFT(C47,1)="H",1,IF(LEFT(C47,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
-      <c r="F47" s="30">
+      <c r="F47" s="29">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="4"/>
-      <c r="B48" s="47" t="s">
+      <c r="B48" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="C48" s="35" t="s">
+      <c r="C48" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="35" t="s">
+      <c r="D48" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="E48" s="30">
+      <c r="E48" s="29">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="F48" s="30">
+      <c r="F48" s="29">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="4"/>
-      <c r="B49" s="47" t="s">
+      <c r="B49" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C49" s="38" t="s">
+      <c r="C49" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="D49" s="38" t="s">
+      <c r="D49" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="E49" s="30">
+      <c r="E49" s="29">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F49" s="30">
+      <c r="F49" s="29">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="4"/>
-      <c r="B50" s="47" t="s">
+      <c r="B50" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="C50" s="38" t="s">
+      <c r="C50" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="D50" s="38" t="s">
+      <c r="D50" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="E50" s="30">
+      <c r="E50" s="29">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="F50" s="30">
+      <c r="F50" s="29">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="4"/>
-      <c r="B51" s="49" t="s">
+      <c r="B51" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="C51" s="40" t="str">
+      <c r="C51" s="39" t="str">
         <f>IF(SUM(E47:E50)&gt;=3, "Hot", IF(SUM(E47:E50)&lt;=-3,"Cold", "Mixed"))</f>
         <v>Cold</v>
       </c>
-      <c r="D51" s="40" t="str">
+      <c r="D51" s="39" t="str">
         <f>IF(SUM(F47:F50)&gt;=3, "Hot", IF(SUM(F47:F50)&lt;=-3,"Cold", "Mixed"))</f>
         <v>Cold</v>
       </c>
-      <c r="E51" s="30">
+      <c r="E51" s="29">
         <f>IF(LEFT(C51,1)="H",2,IF(LEFT(C51,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
-      <c r="F51" s="30">
+      <c r="F51" s="29">
         <f>IF(LEFT(D51,1)="H",2,IF(LEFT(D51,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="27.75">
       <c r="A52" s="4"/>
-      <c r="B52" s="47" t="s">
+      <c r="B52" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="C52" s="35" t="s">
+      <c r="C52" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="35" t="s">
+      <c r="D52" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="E52" s="30">
+      <c r="E52" s="29">
         <f t="shared" ref="E52:F55" si="2">IF(LEFT(C52,1)="H",1,IF(LEFT(C52,1)="C",-1,0))</f>
         <v>1</v>
       </c>
-      <c r="F52" s="30">
+      <c r="F52" s="29">
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="4"/>
-      <c r="B53" s="47" t="s">
+      <c r="B53" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="C53" s="35" t="s">
+      <c r="C53" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="D53" s="35" t="s">
+      <c r="D53" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="E53" s="30">
+      <c r="E53" s="29">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F53" s="30">
+      <c r="F53" s="29">
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="4"/>
-      <c r="B54" s="47" t="s">
+      <c r="B54" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="C54" s="35" t="s">
+      <c r="C54" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="D54" s="35" t="s">
+      <c r="D54" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="E54" s="30">
+      <c r="E54" s="29">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F54" s="30">
+      <c r="F54" s="29">
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="4"/>
-      <c r="B55" s="47" t="s">
+      <c r="B55" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="C55" s="35" t="s">
+      <c r="C55" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="D55" s="35" t="s">
+      <c r="D55" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="E55" s="30">
+      <c r="E55" s="29">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F55" s="30">
+      <c r="F55" s="29">
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="4"/>
-      <c r="B56" s="49" t="s">
+      <c r="B56" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="C56" s="40" t="str">
+      <c r="C56" s="39" t="str">
         <f>IF(SUM(E52:E55)&gt;=3, "Hot", IF(SUM(E52:E55)&lt;=-3,"Cold", "Mixed"))</f>
         <v>Mixed</v>
       </c>
-      <c r="D56" s="40" t="str">
+      <c r="D56" s="39" t="str">
         <f>IF(SUM(F52:F55)&gt;=3, "Hot", IF(SUM(F52:F55)&lt;=-3,"Cold", "Mixed"))</f>
         <v>Cold</v>
       </c>
-      <c r="E56" s="30">
+      <c r="E56" s="29">
         <f>IF(LEFT(C56,1)="H",2,IF(LEFT(C56,1)="C",-1,0))</f>
         <v>0</v>
       </c>
-      <c r="F56" s="30">
+      <c r="F56" s="29">
         <f>IF(LEFT(D56,1)="H",2,IF(LEFT(D56,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="27.75">
       <c r="A57" s="4"/>
-      <c r="B57" s="47" t="s">
+      <c r="B57" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="C57" s="35" t="s">
+      <c r="C57" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="D57" s="35" t="s">
+      <c r="D57" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="E57" s="30">
+      <c r="E57" s="29">
         <f t="shared" ref="E57:F60" si="3">IF(LEFT(C57,1)="H",1,IF(LEFT(C57,1)="C",-1,0))</f>
         <v>0</v>
       </c>
-      <c r="F57" s="30">
+      <c r="F57" s="29">
         <f t="shared" si="3"/>
         <v>-1</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="27.75">
       <c r="A58" s="4"/>
-      <c r="B58" s="47" t="s">
+      <c r="B58" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="C58" s="35" t="s">
+      <c r="C58" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="D58" s="35" t="s">
+      <c r="D58" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="E58" s="30">
+      <c r="E58" s="29">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F58" s="30">
+      <c r="F58" s="29">
         <f t="shared" si="3"/>
         <v>-1</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="4"/>
-      <c r="B59" s="47" t="s">
+      <c r="B59" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="C59" s="35" t="s">
+      <c r="C59" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="D59" s="35" t="s">
+      <c r="D59" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="E59" s="30">
+      <c r="E59" s="29">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="F59" s="30">
+      <c r="F59" s="29">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="27.75">
       <c r="A60" s="4"/>
-      <c r="B60" s="47" t="s">
+      <c r="B60" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="C60" s="35" t="s">
+      <c r="C60" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="D60" s="35" t="s">
+      <c r="D60" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="E60" s="30">
+      <c r="E60" s="29">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F60" s="30">
+      <c r="F60" s="29">
         <f t="shared" si="3"/>
         <v>-1</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="4"/>
-      <c r="B61" s="49" t="s">
+      <c r="B61" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="C61" s="40" t="str">
+      <c r="C61" s="39" t="str">
         <f>IF(SUM(E57:E60)&gt;=3, "Hot", IF(SUM(E57:E60)&lt;=-3,"Cold", "Mixed"))</f>
         <v>Mixed</v>
       </c>
-      <c r="D61" s="40" t="str">
+      <c r="D61" s="39" t="str">
         <f>IF(SUM(F57:F60)&gt;=3, "Hot", IF(SUM(F57:F60)&lt;=-3,"Cold", "Mixed"))</f>
         <v>Cold</v>
       </c>
-      <c r="E61" s="30">
+      <c r="E61" s="29">
         <f>IF(LEFT(C61,1)="H",2,IF(LEFT(C61,1)="C",-1,0))</f>
         <v>0</v>
       </c>
-      <c r="F61" s="30">
+      <c r="F61" s="29">
         <f>IF(LEFT(D61,1)="H",2,IF(LEFT(D61,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="27.75">
       <c r="A62" s="4"/>
-      <c r="B62" s="50" t="s">
+      <c r="B62" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="C62" s="41" t="str">
+      <c r="C62" s="40" t="str">
         <f>IF(OR(E62=4,E62=-4),"In extreme",IF(E62=0,"In equilibrium",IF(OR(E62&gt;0),"Relatively optimistic","Relatively pessimistic")))</f>
         <v>Relatively pessimistic</v>
       </c>
-      <c r="D62" s="41" t="str">
+      <c r="D62" s="40" t="str">
         <f>IF(OR(F62=4,F62=-4),"In extreme",IF(F62=0,"In equilibrium",IF(OR(F62&gt;0),"Relatively optimistic","Relatively pessimistic")))</f>
         <v>In extreme</v>
       </c>
-      <c r="E62" s="31">
+      <c r="E62" s="30">
         <f>SUM(E46,E51,E56,E61)</f>
         <v>-1</v>
       </c>
-      <c r="F62" s="31">
+      <c r="F62" s="30">
         <f>SUM(F46,F51,F56,F61)</f>
         <v>-4</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="4"/>
-      <c r="B63" s="42"/>
-      <c r="C63" s="42"/>
-      <c r="D63" s="42"/>
-      <c r="E63" s="32"/>
-      <c r="F63" s="32"/>
+      <c r="B63" s="41"/>
+      <c r="C63" s="41"/>
+      <c r="D63" s="41"/>
+      <c r="E63" s="31"/>
+      <c r="F63" s="31"/>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="4"/>
-      <c r="B64" s="51" t="s">
+      <c r="B64" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C64" s="43" t="s">
+      <c r="C64" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="D64" s="43" t="s">
+      <c r="D64" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="E64" s="33"/>
-      <c r="F64" s="33"/>
+      <c r="E64" s="32"/>
+      <c r="F64" s="32"/>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="4"/>
-      <c r="B65" s="48" t="s">
+      <c r="B65" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="C65" s="38" t="s">
+      <c r="C65" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="D65" s="38" t="s">
+      <c r="D65" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="E65" s="33">
+      <c r="E65" s="32">
         <f t="shared" ref="E65:F69" si="4">IF(LEFT(C65,1)="H",2,IF(LEFT(C65,1)="C",0,1))</f>
         <v>2</v>
       </c>
-      <c r="F65" s="33">
+      <c r="F65" s="32">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="B66" s="48" t="s">
+      <c r="B66" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="C66" s="44" t="e">
+      <c r="C66" s="43" t="e">
         <f>IF(Macro!#REF!&gt;=3%, "Hot - High", IF(Macro!#REF!&lt;=1.5%, "Cold - Low", "Mixed - Dormant"))</f>
         <v>#REF!</v>
       </c>
-      <c r="D66" s="44" t="e">
+      <c r="D66" s="43" t="e">
         <f>IF(Macro!#REF!&gt;=3%, "Hot - High", IF(Macro!#REF!&lt;=1.5%, "Cold - Low", "Mixed - Dormant"))</f>
         <v>#REF!</v>
       </c>
-      <c r="E66" s="33" t="e">
+      <c r="E66" s="32" t="e">
         <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
-      <c r="F66" s="33" t="e">
+      <c r="F66" s="32" t="e">
         <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="67" spans="1:6">
-      <c r="B67" s="48" t="s">
+      <c r="B67" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="C67" s="44" t="str">
+      <c r="C67" s="43" t="str">
         <f>C43</f>
         <v>Hot - Positive</v>
       </c>
-      <c r="D67" s="44" t="str">
+      <c r="D67" s="43" t="str">
         <f>D43</f>
         <v>Cold - Negative</v>
       </c>
-      <c r="E67" s="33">
+      <c r="E67" s="32">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="F67" s="33">
+      <c r="F67" s="32">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:6">
-      <c r="B68" s="48" t="s">
+      <c r="B68" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="C68" s="44" t="str">
+      <c r="C68" s="43" t="str">
         <f>C49</f>
         <v>Mixed</v>
       </c>
-      <c r="D68" s="44" t="str">
+      <c r="D68" s="43" t="str">
         <f>D49</f>
         <v>Cold - High</v>
       </c>
-      <c r="E68" s="33">
+      <c r="E68" s="32">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="F68" s="33">
+      <c r="F68" s="32">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:6">
-      <c r="B69" s="48" t="s">
+      <c r="B69" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="C69" s="44" t="str">
+      <c r="C69" s="43" t="str">
         <f>C50</f>
         <v>Cold - Wide</v>
       </c>
-      <c r="D69" s="44" t="str">
+      <c r="D69" s="43" t="str">
         <f>D50</f>
         <v>Cold - Wide</v>
       </c>
-      <c r="E69" s="33">
+      <c r="E69" s="32">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F69" s="33">
+      <c r="F69" s="32">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:6">
-      <c r="B70" s="52" t="s">
+      <c r="B70" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="C70" s="45" t="e">
+      <c r="C70" s="44" t="e">
         <f>Macro!#REF!*(1+E70)</f>
         <v>#REF!</v>
       </c>
-      <c r="D70" s="45" t="e">
+      <c r="D70" s="44" t="e">
         <f>Macro!#REF!*(1+F70)</f>
         <v>#REF!</v>
       </c>
-      <c r="E70" s="34" t="e">
+      <c r="E70" s="33" t="e">
         <f>SUM(E65:E69)/10</f>
         <v>#REF!</v>
       </c>
-      <c r="F70" s="34" t="e">
+      <c r="F70" s="33" t="e">
         <f>SUM(F65:F69)/10</f>
         <v>#REF!</v>
       </c>
@@ -2707,7 +2711,7 @@
       </c>
     </row>
     <row r="8" spans="2:3">
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="55" t="s">
         <v>163</v>
       </c>
       <c r="C8" s="16" t="s">
@@ -2715,7 +2719,7 @@
       </c>
     </row>
     <row r="9" spans="2:3">
-      <c r="B9" s="56" t="s">
+      <c r="B9" s="55" t="s">
         <v>162</v>
       </c>
       <c r="C9" s="16" t="s">
@@ -2723,7 +2727,7 @@
       </c>
     </row>
     <row r="11" spans="2:3">
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="21" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2832,7 +2836,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B29DA212-C2AF-4D3E-9C01-BCAB145BF990}">
   <dimension ref="A2:C27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -2849,15 +2853,15 @@
       <c r="B2" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="25" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="25" t="s">
         <v>193</v>
       </c>
     </row>
@@ -2865,7 +2869,7 @@
       <c r="B4" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="25" t="s">
         <v>170</v>
       </c>
     </row>
@@ -2873,21 +2877,21 @@
       <c r="B5" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="25" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="52" t="s">
         <v>116</v>
       </c>
-      <c r="C7" s="26"/>
+      <c r="C7" s="25"/>
     </row>
     <row r="8" spans="1:3">
       <c r="B8" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="25" t="s">
         <v>181</v>
       </c>
     </row>
@@ -2895,12 +2899,12 @@
       <c r="B9" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="25" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="52" t="s">
         <v>167</v>
       </c>
     </row>
@@ -2908,12 +2912,12 @@
       <c r="B12" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="25" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="52" t="s">
         <v>172</v>
       </c>
     </row>
@@ -2921,12 +2925,12 @@
       <c r="B15" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="25" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="17" spans="2:3">
-      <c r="B17" s="53" t="s">
+      <c r="B17" s="52" t="s">
         <v>178</v>
       </c>
     </row>
@@ -2934,12 +2938,12 @@
       <c r="B18" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="25" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="20" spans="2:3">
-      <c r="B20" s="53" t="s">
+      <c r="B20" s="52" t="s">
         <v>182</v>
       </c>
     </row>
@@ -2947,12 +2951,12 @@
       <c r="B21" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="25" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="23" spans="2:3">
-      <c r="B23" s="53" t="s">
+      <c r="B23" s="52" t="s">
         <v>185</v>
       </c>
     </row>
@@ -2960,12 +2964,12 @@
       <c r="B24" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="25" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="26" spans="2:3">
-      <c r="B26" s="53" t="s">
+      <c r="B26" s="52" t="s">
         <v>189</v>
       </c>
     </row>
@@ -2973,7 +2977,7 @@
       <c r="B27" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="C27" s="26" t="s">
+      <c r="C27" s="25" t="s">
         <v>188</v>
       </c>
     </row>

--- a/financial_models/Macro_Monitor.xlsx
+++ b/financial_models/Macro_Monitor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1711ED66-F986-476D-9776-1EAC066825AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382D8F88-1BB2-413D-BE16-2AC046866C1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1454,7 +1454,7 @@
   <dimension ref="A2:F33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9"/>
@@ -1527,16 +1527,16 @@
         <v>111</v>
       </c>
       <c r="C6" s="56">
-        <f>MAX(7.5%,C4)</f>
-        <v>7.4999999999999997E-2</v>
+        <f>MAX(7%,C4)</f>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D6" s="56">
         <f>MAX(D4,C6*1.15)</f>
-        <v>8.6249999999999993E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="E6" s="56">
         <f>(C6+D6)/2</f>
-        <v>8.0625000000000002E-2</v>
+        <v>7.5250000000000011E-2</v>
       </c>
       <c r="F6" s="56"/>
     </row>
@@ -1549,7 +1549,7 @@
         <v>0.15</v>
       </c>
       <c r="D8" s="57">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:6">

--- a/financial_models/Macro_Monitor.xlsx
+++ b/financial_models/Macro_Monitor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382D8F88-1BB2-413D-BE16-2AC046866C1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D3E044-339A-4C64-9D80-CA777AD216F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Macro" sheetId="2" r:id="rId1"/>
@@ -1454,7 +1454,7 @@
   <dimension ref="A2:F33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9"/>
@@ -1549,7 +1549,7 @@
         <v>0.15</v>
       </c>
       <c r="D8" s="57">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:6">

--- a/financial_models/Macro_Monitor.xlsx
+++ b/financial_models/Macro_Monitor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D3E044-339A-4C64-9D80-CA777AD216F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05346381-C95F-4789-85A7-C132F0D97176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Macro" sheetId="2" r:id="rId1"/>
@@ -1454,7 +1454,7 @@
   <dimension ref="A2:F33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9"/>
@@ -1527,16 +1527,16 @@
         <v>111</v>
       </c>
       <c r="C6" s="56">
-        <f>MAX(7%,C4)</f>
+        <f>MAX(7%,C3,C4)</f>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D6" s="56">
-        <f>MAX(D4,C6*1.15)</f>
-        <v>8.0500000000000002E-2</v>
+        <f>MAX(D4,C6+2%/2)</f>
+        <v>0.08</v>
       </c>
       <c r="E6" s="56">
         <f>(C6+D6)/2</f>
-        <v>7.5250000000000011E-2</v>
+        <v>7.5000000000000011E-2</v>
       </c>
       <c r="F6" s="56"/>
     </row>

--- a/financial_models/Macro_Monitor.xlsx
+++ b/financial_models/Macro_Monitor.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc\financial_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05346381-C95F-4789-85A7-C132F0D97176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF97A56-5D81-4FA1-B103-258ED87A99B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Macro" sheetId="2" r:id="rId1"/>
-    <sheet name="Economics" sheetId="4" r:id="rId2"/>
-    <sheet name="Commodities" sheetId="5" r:id="rId3"/>
-    <sheet name="RE" sheetId="6" r:id="rId4"/>
-    <sheet name="Equity" sheetId="8" r:id="rId5"/>
+    <sheet name="Framework" sheetId="10" r:id="rId1"/>
+    <sheet name="Forex" sheetId="9" r:id="rId2"/>
+    <sheet name="Equity_Indices" sheetId="8" r:id="rId3"/>
+    <sheet name="Economies" sheetId="4" r:id="rId4"/>
+    <sheet name="Commodities" sheetId="5" r:id="rId5"/>
+    <sheet name="Real_Estate" sheetId="6" r:id="rId6"/>
+    <sheet name="Market_Yield" sheetId="2" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="213">
   <si>
     <t>China</t>
   </si>
@@ -265,464 +267,675 @@
     <t>https://fred.stlouisfed.org/series/CPALTT01CNM659N</t>
   </si>
   <si>
-    <t>Market Yields:</t>
-  </si>
-  <si>
-    <t>Others</t>
-  </si>
-  <si>
-    <t>BBB Bond yield</t>
-  </si>
-  <si>
-    <t>Offshore BBB- Bond yield</t>
+    <t>https://fred.stlouisfed.org/series/DGS10</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>Crude oil</t>
+  </si>
+  <si>
+    <t>https://tradingeconomics.com/commodity/crude-oil</t>
+  </si>
+  <si>
+    <t>Energy:</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>Metals:</t>
+  </si>
+  <si>
+    <t>https://tradingeconomics.com/commodity/gold</t>
+  </si>
+  <si>
+    <t>All-in-one Dash Board</t>
+  </si>
+  <si>
+    <t>https://tradingeconomics.com/commodities</t>
+  </si>
+  <si>
+    <t>https://tradingeconomics.com/commodity/wheat</t>
+  </si>
+  <si>
+    <t>Wheat</t>
+  </si>
+  <si>
+    <t>Agricultural:</t>
+  </si>
+  <si>
+    <t>All-in-one Currency Dashboard</t>
+  </si>
+  <si>
+    <t>https://tradingeconomics.com/currencies</t>
+  </si>
+  <si>
+    <t>https://tradingeconomics.com/china/currency</t>
+  </si>
+  <si>
+    <t>USDCNY</t>
+  </si>
+  <si>
+    <t>All-in-One Growth Rate</t>
+  </si>
+  <si>
+    <t>https://tradingeconomics.com/country-list/gdp-growth-rate</t>
+  </si>
+  <si>
+    <t>https://tradingeconomics.com/country-list/inflation-rate</t>
+  </si>
+  <si>
+    <t>All-in-One Inflation Rate</t>
+  </si>
+  <si>
+    <t>https://tradingeconomics.com/cadcny:cur</t>
+  </si>
+  <si>
+    <t>CADCNY</t>
+  </si>
+  <si>
+    <t>HKDCNY</t>
+  </si>
+  <si>
+    <t>https://tradingeconomics.com/hkdcny:cur</t>
+  </si>
+  <si>
+    <t>https://tradingeconomics.com/canada/currency</t>
+  </si>
+  <si>
+    <t>USDCAD</t>
+  </si>
+  <si>
+    <t>https://tradingeconomics.com/japan/currency</t>
+  </si>
+  <si>
+    <t>USDJAY</t>
+  </si>
+  <si>
+    <t>EURUSD</t>
+  </si>
+  <si>
+    <t>https://tradingeconomics.com/euro-area/currency</t>
+  </si>
+  <si>
+    <t>https://hk.centanet.com/CCI/CCI</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Residential</t>
+  </si>
+  <si>
+    <t>Commercial</t>
+  </si>
+  <si>
+    <t>Logics - do not delete</t>
+  </si>
+  <si>
+    <t>Economic Indicators</t>
+  </si>
+  <si>
+    <t>https://tradingeconomics.com/china/forecast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. China </t>
+  </si>
+  <si>
+    <t>Non-Manufacturing PMI</t>
+  </si>
+  <si>
+    <t>Manufacturing PMI</t>
+  </si>
+  <si>
+    <t>1. US</t>
+  </si>
+  <si>
+    <t>GDP &amp; CPI</t>
+  </si>
+  <si>
+    <t>Balance of Payment</t>
+  </si>
+  <si>
+    <t>2. China</t>
+  </si>
+  <si>
+    <t>https://tradingeconomics.com/china/balance-of-trade</t>
+  </si>
+  <si>
+    <t>https://tradingeconomics.com/china/current-account</t>
+  </si>
+  <si>
+    <t>Current Account (CA)</t>
+  </si>
+  <si>
+    <t>Capital Account (KA)</t>
+  </si>
+  <si>
+    <t>Financial Account (RA)</t>
+  </si>
+  <si>
+    <t>Net Errors and Ommisions (EA)</t>
+  </si>
+  <si>
+    <t>Leading Indicators</t>
+  </si>
+  <si>
+    <t>https://www.conference-board.org/topics/global-economic-outlook</t>
+  </si>
+  <si>
+    <t>Global Outlook</t>
+  </si>
+  <si>
+    <t>1. US LEI</t>
+  </si>
+  <si>
+    <t>https://en.macromicro.me/collections/25/cn-industry-relative/232/cn-pmi-caixin</t>
+  </si>
+  <si>
+    <t>Non-Manufacturing NMI</t>
+  </si>
+  <si>
+    <t>https://en.macromicro.me/collections/25/cn-industry-relative/233/cn-nmi-caixin</t>
+  </si>
+  <si>
+    <t>2. Global LEI</t>
+  </si>
+  <si>
+    <t>https://www.conference-board.org/topics/business-cycle-indicators</t>
+  </si>
+  <si>
+    <t>https://www.conference-board.org/topics/us-leading-indicators</t>
+  </si>
+  <si>
+    <t>https://tradingeconomics.com/united-states/forecast</t>
+  </si>
+  <si>
+    <t>https://en.macromicro.me/collections/8/us-industry-relative/54/ism</t>
+  </si>
+  <si>
+    <t>https://en.macromicro.me/collections/8/us-industry-relative/55/ism-nonmanus</t>
+  </si>
+  <si>
+    <t>https://tradingeconomics.com/commodity/crb</t>
+  </si>
+  <si>
+    <t>https://fred.stlouisfed.org/series/VIXCLS</t>
+  </si>
+  <si>
+    <t>Sentiment/Volatility</t>
+  </si>
+  <si>
+    <t>https://fred.stlouisfed.org/series/CHNB6FATT01CXCUQ</t>
+  </si>
+  <si>
+    <t>https://fred.stlouisfed.org/series/CHNB6FARA01CXCUQ</t>
+  </si>
+  <si>
+    <t>https://fred.stlouisfed.org/series/CHNB6CATT00CXCUQ</t>
+  </si>
+  <si>
+    <t>https://fred.stlouisfed.org/series/FEDFUNDS</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>US 10Y Treasury yield</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>US Fed Fund Rate</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN 10Y Government Bond Yield</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tradingeconomics.com/china/interest-rate</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN Loan Prime Rate</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tradingeconomics.com/commodity/coal</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coal</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Natural </t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tradingeconomics.com/commodity/natural-gas</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stock Indices</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>S&amp;P 500</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. Canada</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>DJI</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://finance.yahoo.com/quote/%5EDJI/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://finance.yahoo.com/quote/%5EGSPC/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nikkei 225</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. Japan</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tradingeconomics.com/canada/stock-market</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>TSX</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.etnet.com.hk/www/tc/stocks/indexes_chart_interactive.php?subtype=HIS</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.sgx.com/indices/products/sti</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>STI</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. Singapore</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tradingeconomics.com/japan/stock-market</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tradingeconomics.com/stocks</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tradingeconomics.com/china/stock-market</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. Australia</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tradingeconomics.com/australia/stock-market</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASX</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>7. India</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tradingeconomics.com/india/stock-market</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sensex</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tradingeconomics.com/united-kingdom/stock-market</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>8. Britain</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTSE 100</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shanghai Composite Index</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hang Seng Index</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tradingeconomics.com/united-states/stock-market</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Notes</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Forex</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRB Commodity Index</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Commodities</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Real Estate</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tradingeconomics.com/hong-kong/government-bond-yield</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>HK 10Y Government Bond Yield</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tradingeconomics.com/hong-kong/bank-lending-rate</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>HK Prime Lending Rate</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://fred.stlouisfed.org/series/DPRIME</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bank Prime Loan Rate</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>https://tradingeconomics.com/china/government-bond-yield</t>
-  </si>
-  <si>
-    <t>https://iftp.chinamoney.com.cn/chinese/scsjzqxx/</t>
-  </si>
-  <si>
-    <t>https://yield.chinabond.com.cn/cbweb-mn/yield_main?locale=en_US</t>
-  </si>
-  <si>
-    <t>CN Onshore BBB- Bond yield</t>
-  </si>
-  <si>
-    <t>CN Offshore BBB- Bond yield</t>
-  </si>
-  <si>
-    <t>https://fred.stlouisfed.org/series/DGS10</t>
-  </si>
-  <si>
-    <t>CN</t>
-  </si>
-  <si>
-    <t>Target Return</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>Crude oil</t>
-  </si>
-  <si>
-    <t>https://tradingeconomics.com/commodity/crude-oil</t>
-  </si>
-  <si>
-    <t>Energy:</t>
-  </si>
-  <si>
-    <t>Gold</t>
-  </si>
-  <si>
-    <t>Metals:</t>
-  </si>
-  <si>
-    <t>https://tradingeconomics.com/commodity/gold</t>
-  </si>
-  <si>
-    <t>All-in-one Dash Board</t>
-  </si>
-  <si>
-    <t>https://tradingeconomics.com/commodities</t>
-  </si>
-  <si>
-    <t>https://tradingeconomics.com/commodity/wheat</t>
-  </si>
-  <si>
-    <t>Wheat</t>
-  </si>
-  <si>
-    <t>Agricultural:</t>
-  </si>
-  <si>
-    <t>All-in-one Currency Dashboard</t>
-  </si>
-  <si>
-    <t>https://tradingeconomics.com/currencies</t>
-  </si>
-  <si>
-    <t>https://tradingeconomics.com/china/currency</t>
-  </si>
-  <si>
-    <t>USDCNY</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>All-in-One Bond Prices</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>https://tradingeconomics.com/bonds</t>
-  </si>
-  <si>
-    <t>All-in-One Growth Rate</t>
-  </si>
-  <si>
-    <t>https://tradingeconomics.com/country-list/gdp-growth-rate</t>
-  </si>
-  <si>
-    <t>https://tradingeconomics.com/country-list/inflation-rate</t>
-  </si>
-  <si>
-    <t>All-in-One Inflation Rate</t>
-  </si>
-  <si>
-    <t>https://tradingeconomics.com/cadcny:cur</t>
-  </si>
-  <si>
-    <t>CADCNY</t>
-  </si>
-  <si>
-    <t>HKDCNY</t>
-  </si>
-  <si>
-    <t>https://tradingeconomics.com/hkdcny:cur</t>
-  </si>
-  <si>
-    <t>https://tradingeconomics.com/canada/currency</t>
-  </si>
-  <si>
-    <t>USDCAD</t>
-  </si>
-  <si>
-    <t>https://tradingeconomics.com/japan/currency</t>
-  </si>
-  <si>
-    <t>USDJAY</t>
-  </si>
-  <si>
-    <t>EURUSD</t>
-  </si>
-  <si>
-    <t>https://tradingeconomics.com/euro-area/currency</t>
-  </si>
-  <si>
-    <t>https://hk.centanet.com/CCI/CCI</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>UK</t>
-  </si>
-  <si>
-    <t>Australia</t>
-  </si>
-  <si>
-    <t>Residential</t>
-  </si>
-  <si>
-    <t>Commercial</t>
-  </si>
-  <si>
-    <t>Discount Rate</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>Forex</t>
-  </si>
-  <si>
-    <t>Logics - do not delete</t>
-  </si>
-  <si>
-    <t>Economic Indicators</t>
-  </si>
-  <si>
-    <t>https://tradingeconomics.com/china/forecast</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2. China </t>
-  </si>
-  <si>
-    <t>Non-Manufacturing PMI</t>
-  </si>
-  <si>
-    <t>Manufacturing PMI</t>
-  </si>
-  <si>
-    <t>1. US</t>
-  </si>
-  <si>
-    <t>GDP &amp; CPI</t>
-  </si>
-  <si>
-    <t>Balance of Payment</t>
-  </si>
-  <si>
-    <t>2. China</t>
-  </si>
-  <si>
-    <t>https://tradingeconomics.com/china/balance-of-trade</t>
-  </si>
-  <si>
-    <t>https://tradingeconomics.com/china/current-account</t>
-  </si>
-  <si>
-    <t>Current Account (CA)</t>
-  </si>
-  <si>
-    <t>Capital Account (KA)</t>
-  </si>
-  <si>
-    <t>Financial Account (RA)</t>
-  </si>
-  <si>
-    <t>Net Errors and Ommisions (EA)</t>
-  </si>
-  <si>
-    <t>Leading Indicators</t>
-  </si>
-  <si>
-    <t>https://www.conference-board.org/topics/global-economic-outlook</t>
-  </si>
-  <si>
-    <t>Global Outlook</t>
-  </si>
-  <si>
-    <t>1. US LEI</t>
-  </si>
-  <si>
-    <t>https://en.macromicro.me/collections/25/cn-industry-relative/232/cn-pmi-caixin</t>
-  </si>
-  <si>
-    <t>Non-Manufacturing NMI</t>
-  </si>
-  <si>
-    <t>https://en.macromicro.me/collections/25/cn-industry-relative/233/cn-nmi-caixin</t>
-  </si>
-  <si>
-    <t>2. Global LEI</t>
-  </si>
-  <si>
-    <t>https://www.conference-board.org/topics/business-cycle-indicators</t>
-  </si>
-  <si>
-    <t>https://www.conference-board.org/topics/us-leading-indicators</t>
-  </si>
-  <si>
-    <t>https://tradingeconomics.com/united-states/forecast</t>
-  </si>
-  <si>
-    <t>https://en.macromicro.me/collections/8/us-industry-relative/54/ism</t>
-  </si>
-  <si>
-    <t>https://en.macromicro.me/collections/8/us-industry-relative/55/ism-nonmanus</t>
-  </si>
-  <si>
-    <t>https://tradingeconomics.com/commodity/crb</t>
-  </si>
-  <si>
-    <t>CRB Commodity Index</t>
-  </si>
-  <si>
-    <t>https://fred.stlouisfed.org/series/VIXCLS</t>
-  </si>
-  <si>
-    <t>Sentiment/Volatility</t>
-  </si>
-  <si>
-    <t>https://fred.stlouisfed.org/series/CHNB6FATT01CXCUQ</t>
-  </si>
-  <si>
-    <t>https://fred.stlouisfed.org/series/CHNB6FARA01CXCUQ</t>
-  </si>
-  <si>
-    <t>https://fred.stlouisfed.org/series/CHNB6CATT00CXCUQ</t>
-  </si>
-  <si>
-    <t>https://fred.stlouisfed.org/series/FEDFUNDS</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>US 10Y Treasury yield</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nominal Risk-free rate =</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>US Fed Fund Rate</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>US BBB Bond index yield</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>CN 10Y Government Bond Yield</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://tradingeconomics.com/china/interest-rate</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>CN Loan Prime Rate</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://fred.stlouisfed.org/series/BAMLC0A2CAAEY</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>US AA Bond index yield</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.spglobal.com/spdji/en/indices/fixed-income/sp-china-corporate-bond-index/#overview</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>CN AA Bond index yield</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://tradingeconomics.com/commodity/coal</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>Coal</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Natural </t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://tradingeconomics.com/commodity/natural-gas</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stock Indices</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>S&amp;P 500</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>3. Canada</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>DJI</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://finance.yahoo.com/quote/%5EDJI/</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://finance.yahoo.com/quote/%5EGSPC/</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nikkei 225</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>4. Japan</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://tradingeconomics.com/canada/stock-market</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>TSX</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.etnet.com.hk/www/tc/stocks/indexes_chart_interactive.php?subtype=HIS</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.sgx.com/indices/products/sti</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>STI</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>5. Singapore</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://tradingeconomics.com/japan/stock-market</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://tradingeconomics.com/stocks</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://tradingeconomics.com/china/stock-market</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>6. Australia</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://tradingeconomics.com/australia/stock-market</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>ASX</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>7. India</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://tradingeconomics.com/india/stock-market</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sensex</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://tradingeconomics.com/united-kingdom/stock-market</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>8. Britain</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>FTSE 100</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shanghai Composite Index</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hang Seng Index</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://tradingeconomics.com/united-states/stock-market</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://awealthofcommonsense.com/2025/01/historical-returns-for-stocks-bonds-cash-real-estate-and-gold/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Historical Returns</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sector Analysis</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Country/Region Analysis</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use PEST analysis</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Porter's Five Forces</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Company Analysis</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5W2H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>方法</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>SWOT</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第一：了解行业现状</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>产业链图</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>产业分赃链图</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>市场规模预估法实现</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第二：分析行业动能</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>外部动能</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内部动能</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>竞争壁垒</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>行业周期</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第三：推测行业变化</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>竞品分析</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第四：找出行业带给自身的机会</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>商业模式画布</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Corporate Profit/GDP</t>
+  </si>
+  <si>
+    <t>https://fred.stlouisfed.org/graph/?g=fPLQ</t>
+  </si>
+  <si>
+    <t>https://legulegu.com/stockdata/marketcap-gdp</t>
+  </si>
+  <si>
+    <t>Stock Market Cap/GDP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="&quot;for &quot;0&quot; Yrs&quot;"/>
-  </numFmts>
   <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -730,7 +943,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -794,13 +1007,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -821,12 +1034,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="5" tint="-0.249977111117893"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="2" tint="-9.9978637043366805E-2"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -834,24 +1041,32 @@
     <font>
       <sz val="11"/>
       <color theme="2" tint="-9.9978637043366805E-2"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
       <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="1"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -884,30 +1099,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
-        <bgColor rgb="FFFFE599"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -989,49 +1186,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1045,7 +1205,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1057,49 +1216,26 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="10" fontId="2" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="10" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="15" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="14" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1162,14 +1298,8 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="18" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="18" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1450,545 +1580,694 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A061C73F-1F33-4614-90A5-D5D9D7C58056}">
-  <dimension ref="A2:F33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEDB0449-8591-42B7-B720-6314A45F3007}">
+  <dimension ref="A2:F15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9"/>
+  <sheetFormatPr defaultRowHeight="13.9"/>
   <cols>
-    <col min="1" max="1" width="2.46484375" style="8" customWidth="1"/>
-    <col min="2" max="2" width="47.796875" style="8" customWidth="1"/>
-    <col min="3" max="6" width="20.796875" style="8" customWidth="1"/>
-    <col min="7" max="16384" width="8.796875" style="8"/>
+    <col min="1" max="1" width="2.59765625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="37.265625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="7" customWidth="1"/>
+    <col min="4" max="5" width="18.3984375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="19.73046875" style="7" customWidth="1"/>
+    <col min="7" max="16384" width="9.06640625" style="7"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="15">
       <c r="A2" s="3"/>
       <c r="B2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="23" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="B3" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="C3" s="13">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="D3" s="14">
-        <v>1.8100000000000002E-2</v>
-      </c>
-      <c r="E3" s="13">
-        <v>2.7650000000000001E-2</v>
-      </c>
-      <c r="F3" s="14"/>
+        <v>190</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="B4" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="13">
-        <v>5.2299999999999999E-2</v>
-      </c>
-      <c r="D4" s="14">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="E4" s="19"/>
-      <c r="F4" s="14"/>
-    </row>
-    <row r="5" spans="1:6" ht="14.25" thickBot="1">
-      <c r="B5" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="18">
-        <v>0.16</v>
-      </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="18"/>
-    </row>
-    <row r="6" spans="1:6" ht="14.25" thickTop="1">
-      <c r="B6" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="C6" s="56">
-        <f>MAX(7%,C3,C4)</f>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D6" s="56">
-        <f>MAX(D4,C6+2%/2)</f>
-        <v>0.08</v>
-      </c>
-      <c r="E6" s="56">
-        <f>(C6+D6)/2</f>
-        <v>7.5000000000000011E-2</v>
-      </c>
-      <c r="F6" s="56"/>
+      <c r="B4" s="7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15">
+      <c r="A6" s="3"/>
+      <c r="B6" s="2" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="15">
-      <c r="A8" s="3"/>
-      <c r="B8" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" s="56">
-        <v>0.15</v>
-      </c>
-      <c r="D8" s="57">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="B10" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="E10" s="26"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="E11" s="26"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="B12" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="E12" s="26"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="B13" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>70</v>
+      <c r="B8" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15">
+      <c r="B9" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15">
+      <c r="B10" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15">
+      <c r="B11" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15">
+      <c r="A13" s="3"/>
+      <c r="B13" s="2" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="B14" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="B15" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="C16" s="54"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="B17" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="B18" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="B19" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="B20" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="B21" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="15">
-      <c r="A23" s="3"/>
-      <c r="B23" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="B24" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C24" s="25" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="B26" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C26" s="25" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="B27" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C27" s="25" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="B28" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C28" s="25" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="B30" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C30" s="25" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="B31" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C31" s="25" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3">
-      <c r="B33" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C33" s="25" t="s">
-        <v>103</v>
+      <c r="B14" s="7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15">
+      <c r="B15" s="7" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="C21" r:id="rId1" xr:uid="{DB671679-E839-B64A-AD4E-6D8A323DAFC3}"/>
-    <hyperlink ref="C20" r:id="rId2" xr:uid="{9CB8AD70-9E02-9A41-8E3A-990A0C1E81AE}"/>
-    <hyperlink ref="C18" r:id="rId3" xr:uid="{45D5643F-FA1A-3C48-B2D9-4B6082295A37}"/>
-    <hyperlink ref="C13" r:id="rId4" xr:uid="{8FF27AF7-25A6-F443-A0E6-DAC1AFC8FB4A}"/>
-    <hyperlink ref="C24" r:id="rId5" xr:uid="{16104B09-A651-7A41-A777-F49F69D02554}"/>
-    <hyperlink ref="C26" r:id="rId6" xr:uid="{BFEB5D28-D16E-9545-989F-F86E412707A9}"/>
-    <hyperlink ref="C10" r:id="rId7" xr:uid="{E414D4D1-755D-2A43-AB81-B4A0517E9107}"/>
-    <hyperlink ref="C28" r:id="rId8" xr:uid="{645528C6-7225-564E-908E-A85650E1CCD6}"/>
-    <hyperlink ref="C27" r:id="rId9" xr:uid="{0B036CAC-824D-E543-8C48-9EDDC7350EA2}"/>
-    <hyperlink ref="C30" r:id="rId10" xr:uid="{EF5F9EA6-9DD5-1C42-A0E5-61DBB0A5A02F}"/>
-    <hyperlink ref="C31" r:id="rId11" xr:uid="{1DE792CC-A9C9-BB47-A69A-D22E477A4A3B}"/>
-    <hyperlink ref="C33" r:id="rId12" xr:uid="{E7131674-9823-C34D-8EBB-49D25F896885}"/>
-    <hyperlink ref="C12" r:id="rId13" xr:uid="{BD25C893-4B01-48BE-AB6E-FA9F70DB6325}"/>
-    <hyperlink ref="C17" r:id="rId14" xr:uid="{01B23463-056A-45A3-AFE5-8FCBFF68216B}"/>
-    <hyperlink ref="C15" r:id="rId15" display="https://fred.stlouisfed.org/series/BAMLC0A4CBBBEY" xr:uid="{35ACA25B-AF93-B04F-A9DD-9D3D634DC7A6}"/>
-    <hyperlink ref="C14" r:id="rId16" xr:uid="{410CC38F-2D01-4044-AE85-C4E978B37B55}"/>
-    <hyperlink ref="C19" r:id="rId17" location="overview" xr:uid="{85EC9358-C071-4DB7-96C6-D513DABB95B7}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId18"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{313BBC5B-4592-4EC9-BE37-C083F15EE9CA}">
+  <dimension ref="A2:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="2.46484375" customWidth="1"/>
+    <col min="2" max="2" width="27.9296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" ht="15.4">
+      <c r="A2" s="3"/>
+      <c r="B2" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="7"/>
+      <c r="B3" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="7"/>
+      <c r="B5" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="7"/>
+      <c r="B6" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{16104B09-A651-7A41-A777-F49F69D02554}"/>
+    <hyperlink ref="C5" r:id="rId2" xr:uid="{BFEB5D28-D16E-9545-989F-F86E412707A9}"/>
+    <hyperlink ref="C7" r:id="rId3" xr:uid="{645528C6-7225-564E-908E-A85650E1CCD6}"/>
+    <hyperlink ref="C6" r:id="rId4" xr:uid="{0B036CAC-824D-E543-8C48-9EDDC7350EA2}"/>
+    <hyperlink ref="C9" r:id="rId5" xr:uid="{EF5F9EA6-9DD5-1C42-A0E5-61DBB0A5A02F}"/>
+    <hyperlink ref="C10" r:id="rId6" xr:uid="{1DE792CC-A9C9-BB47-A69A-D22E477A4A3B}"/>
+    <hyperlink ref="C12" r:id="rId7" xr:uid="{E7131674-9823-C34D-8EBB-49D25F896885}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B29DA212-C2AF-4D3E-9C01-BCAB145BF990}">
+  <dimension ref="A2:C29"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9"/>
+  <cols>
+    <col min="1" max="1" width="2.46484375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="41.796875" style="7" customWidth="1"/>
+    <col min="3" max="6" width="20.796875" style="7" customWidth="1"/>
+    <col min="7" max="16384" width="8.796875" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" ht="15">
+      <c r="A2" s="3"/>
+      <c r="B2" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="16"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="B11" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13" s="42" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16" s="42" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" s="42" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" s="42" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="42" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="B28" s="42" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3">
+      <c r="B29" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>167</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{7EA46E5E-057B-48C9-8A0D-B56B623EF344}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{8FF96C9D-4D1A-4741-A8FC-C93FF0BAEB17}"/>
+    <hyperlink ref="C14" r:id="rId3" xr:uid="{7720DD14-3F75-4F25-8D70-F6180ED9FB8E}"/>
+    <hyperlink ref="C10" r:id="rId4" xr:uid="{24CE27D2-F11F-4C96-99C0-31B5BD7EA483}"/>
+    <hyperlink ref="C20" r:id="rId5" xr:uid="{09648102-1869-492C-87E8-7FC427C0F56E}"/>
+    <hyperlink ref="C17" r:id="rId6" xr:uid="{2EDD765B-40DE-4D2D-9531-556EBBD3F442}"/>
+    <hyperlink ref="C2" r:id="rId7" xr:uid="{7787D8AC-7779-42B9-928B-03FC735FB8BD}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{BA156D29-558F-489F-A67F-2DF63DB9298F}"/>
+    <hyperlink ref="C23" r:id="rId9" xr:uid="{7654C459-BEF7-4D12-A6F9-A473435AB19D}"/>
+    <hyperlink ref="C26" r:id="rId10" xr:uid="{CCF57805-2741-4C93-98B7-D361D0EE1D76}"/>
+    <hyperlink ref="C29" r:id="rId11" xr:uid="{1AD065D4-1978-475F-AE7F-D0045B9251B4}"/>
+    <hyperlink ref="C3" r:id="rId12" xr:uid="{E821A63E-EBB2-4817-A8B2-87D71FC5D7D5}"/>
+    <hyperlink ref="C6" r:id="rId13" xr:uid="{E5CF6717-1AD5-4E55-A7AC-36F6D056B775}"/>
+    <hyperlink ref="C11" r:id="rId14" xr:uid="{37019985-A607-474E-83E2-936C033D47C7}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId15"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDB43275-BEC1-4DF6-B56D-B5F180583A40}">
   <dimension ref="A2:F70"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="2.46484375" customWidth="1"/>
     <col min="2" max="2" width="41.796875" customWidth="1"/>
     <col min="3" max="6" width="20.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="15">
+    <row r="2" spans="1:6" ht="15.4">
       <c r="A2" s="3"/>
       <c r="B2" s="2" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="B3" s="52" t="s">
-        <v>119</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>139</v>
+      <c r="B3" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="B4" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>140</v>
+        <v>104</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="B5" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>141</v>
+        <v>103</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="B7" s="52" t="s">
-        <v>116</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>115</v>
+      <c r="B7" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="B8" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>133</v>
+        <v>104</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="B9" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15">
+        <v>120</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.4">
       <c r="A11" s="3"/>
       <c r="B11" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="53"/>
+        <v>106</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="43"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="8"/>
+      <c r="A12" s="7"/>
       <c r="B12" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
+        <v>78</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
+      <c r="A13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="8"/>
+      <c r="A14" s="7"/>
       <c r="B14" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
+        <v>81</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="8"/>
+      <c r="A15" s="7"/>
       <c r="B15" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="8"/>
+      <c r="A16" s="7"/>
       <c r="B16" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
     </row>
     <row r="17" spans="1:3">
       <c r="B17" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="18" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15">
+    <row r="19" spans="1:3" ht="15.4">
       <c r="A19" s="3"/>
       <c r="B19" s="2" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="B20" s="52" t="s">
-        <v>119</v>
+      <c r="B20" s="42" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="B21" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="B22" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="B23" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="B24" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="B26" s="52" t="s">
-        <v>122</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>123</v>
+      <c r="B26" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="B27" t="s">
-        <v>125</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>124</v>
+        <v>111</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="B28" t="s">
-        <v>126</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>148</v>
+        <v>112</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="B29" t="s">
-        <v>127</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>146</v>
+        <v>113</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="B30" t="s">
-        <v>128</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="15">
+        <v>114</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.4">
       <c r="A32" s="3"/>
       <c r="B32" s="2" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="B33" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>130</v>
+      <c r="B33" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="B34" s="6"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="B35" s="52" t="s">
-        <v>132</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>138</v>
+      <c r="B35" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="B36" s="52" t="s">
-        <v>136</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="15">
+      <c r="B36" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15.4">
       <c r="A38" s="3"/>
       <c r="B38" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="15">
+        <v>130</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15.4">
       <c r="A40" s="3"/>
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C40" s="11" t="s">
-        <v>71</v>
+      <c r="C40" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>1</v>
@@ -1996,588 +2275,588 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="4"/>
-      <c r="B41" s="45" t="s">
+      <c r="B41" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="C41" s="10"/>
-      <c r="D41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="8"/>
       <c r="E41" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="4"/>
-      <c r="B42" s="46" t="s">
+      <c r="B42" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="C42" s="34" t="s">
+      <c r="C42" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="D42" s="34" t="s">
+      <c r="D42" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="E42" s="29">
+      <c r="E42" s="19">
         <f t="shared" ref="E42:F45" si="0">IF(LEFT(C42,1)="H",1,IF(LEFT(C42,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
-      <c r="F42" s="29">
+      <c r="F42" s="19">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="4"/>
-      <c r="B43" s="46" t="s">
+      <c r="B43" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="35" t="s">
+      <c r="C43" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="D43" s="35" t="s">
+      <c r="D43" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="E43" s="29">
+      <c r="E43" s="19">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F43" s="29">
+      <c r="F43" s="19">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="4"/>
-      <c r="B44" s="46" t="s">
+      <c r="B44" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="C44" s="36" t="s">
+      <c r="C44" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="D44" s="36" t="s">
+      <c r="D44" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="E44" s="29">
+      <c r="E44" s="19">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="F44" s="29">
+      <c r="F44" s="19">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="4"/>
-      <c r="B45" s="47" t="s">
+      <c r="B45" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="C45" s="37" t="s">
+      <c r="C45" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D45" s="37" t="s">
+      <c r="D45" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="E45" s="29">
+      <c r="E45" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F45" s="29">
+      <c r="F45" s="19">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="4"/>
-      <c r="B46" s="48" t="s">
+      <c r="B46" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="C46" s="38" t="str">
+      <c r="C46" s="28" t="str">
         <f>IF(SUM(E42:E45)&gt;=3, "Hot", IF(SUM(E42:E45)&lt;=-3,"Cold", "Mixed"))</f>
         <v>Mixed</v>
       </c>
-      <c r="D46" s="38" t="str">
+      <c r="D46" s="28" t="str">
         <f>IF(SUM(F42:F45)&gt;=3, "Hot", IF(SUM(F42:F45)&lt;=-3,"Cold", "Mixed"))</f>
         <v>Cold</v>
       </c>
-      <c r="E46" s="29">
+      <c r="E46" s="19">
         <f>IF(LEFT(C46,1)="H",2,IF(LEFT(C46,1)="C",-1,0))</f>
         <v>0</v>
       </c>
-      <c r="F46" s="29">
+      <c r="F46" s="19">
         <f>IF(LEFT(D46,1)="H",2,IF(LEFT(D46,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="4"/>
-      <c r="B47" s="46" t="s">
+      <c r="B47" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="C47" s="34" t="s">
+      <c r="C47" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="D47" s="34" t="s">
+      <c r="D47" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="E47" s="29">
+      <c r="E47" s="19">
         <f t="shared" ref="E47:F50" si="1">IF(LEFT(C47,1)="H",1,IF(LEFT(C47,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
-      <c r="F47" s="29">
+      <c r="F47" s="19">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="4"/>
-      <c r="B48" s="46" t="s">
+      <c r="B48" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="C48" s="34" t="s">
+      <c r="C48" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="34" t="s">
+      <c r="D48" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="E48" s="29">
+      <c r="E48" s="19">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="F48" s="29">
+      <c r="F48" s="19">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="4"/>
-      <c r="B49" s="46" t="s">
+      <c r="B49" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="C49" s="37" t="s">
+      <c r="C49" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D49" s="37" t="s">
+      <c r="D49" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="E49" s="29">
+      <c r="E49" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F49" s="29">
+      <c r="F49" s="19">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="4"/>
-      <c r="B50" s="46" t="s">
+      <c r="B50" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="C50" s="37" t="s">
+      <c r="C50" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="D50" s="37" t="s">
+      <c r="D50" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="E50" s="29">
+      <c r="E50" s="19">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="F50" s="29">
+      <c r="F50" s="19">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="4"/>
-      <c r="B51" s="48" t="s">
+      <c r="B51" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="C51" s="39" t="str">
+      <c r="C51" s="29" t="str">
         <f>IF(SUM(E47:E50)&gt;=3, "Hot", IF(SUM(E47:E50)&lt;=-3,"Cold", "Mixed"))</f>
         <v>Cold</v>
       </c>
-      <c r="D51" s="39" t="str">
+      <c r="D51" s="29" t="str">
         <f>IF(SUM(F47:F50)&gt;=3, "Hot", IF(SUM(F47:F50)&lt;=-3,"Cold", "Mixed"))</f>
         <v>Cold</v>
       </c>
-      <c r="E51" s="29">
+      <c r="E51" s="19">
         <f>IF(LEFT(C51,1)="H",2,IF(LEFT(C51,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
-      <c r="F51" s="29">
+      <c r="F51" s="19">
         <f>IF(LEFT(D51,1)="H",2,IF(LEFT(D51,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="27.75">
       <c r="A52" s="4"/>
-      <c r="B52" s="46" t="s">
+      <c r="B52" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C52" s="34" t="s">
+      <c r="C52" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="34" t="s">
+      <c r="D52" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E52" s="29">
+      <c r="E52" s="19">
         <f t="shared" ref="E52:F55" si="2">IF(LEFT(C52,1)="H",1,IF(LEFT(C52,1)="C",-1,0))</f>
         <v>1</v>
       </c>
-      <c r="F52" s="29">
+      <c r="F52" s="19">
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="4"/>
-      <c r="B53" s="46" t="s">
+      <c r="B53" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C53" s="34" t="s">
+      <c r="C53" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D53" s="34" t="s">
+      <c r="D53" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="E53" s="29">
+      <c r="E53" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F53" s="29">
+      <c r="F53" s="19">
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="4"/>
-      <c r="B54" s="46" t="s">
+      <c r="B54" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="C54" s="34" t="s">
+      <c r="C54" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D54" s="34" t="s">
+      <c r="D54" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E54" s="29">
+      <c r="E54" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F54" s="29">
+      <c r="F54" s="19">
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="4"/>
-      <c r="B55" s="46" t="s">
+      <c r="B55" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="C55" s="34" t="s">
+      <c r="C55" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D55" s="34" t="s">
+      <c r="D55" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="E55" s="29">
+      <c r="E55" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F55" s="29">
+      <c r="F55" s="19">
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="4"/>
-      <c r="B56" s="48" t="s">
+      <c r="B56" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="C56" s="39" t="str">
+      <c r="C56" s="29" t="str">
         <f>IF(SUM(E52:E55)&gt;=3, "Hot", IF(SUM(E52:E55)&lt;=-3,"Cold", "Mixed"))</f>
         <v>Mixed</v>
       </c>
-      <c r="D56" s="39" t="str">
+      <c r="D56" s="29" t="str">
         <f>IF(SUM(F52:F55)&gt;=3, "Hot", IF(SUM(F52:F55)&lt;=-3,"Cold", "Mixed"))</f>
         <v>Cold</v>
       </c>
-      <c r="E56" s="29">
+      <c r="E56" s="19">
         <f>IF(LEFT(C56,1)="H",2,IF(LEFT(C56,1)="C",-1,0))</f>
         <v>0</v>
       </c>
-      <c r="F56" s="29">
+      <c r="F56" s="19">
         <f>IF(LEFT(D56,1)="H",2,IF(LEFT(D56,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="27.75">
       <c r="A57" s="4"/>
-      <c r="B57" s="46" t="s">
+      <c r="B57" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C57" s="34" t="s">
+      <c r="C57" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D57" s="34" t="s">
+      <c r="D57" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E57" s="29">
+      <c r="E57" s="19">
         <f t="shared" ref="E57:F60" si="3">IF(LEFT(C57,1)="H",1,IF(LEFT(C57,1)="C",-1,0))</f>
         <v>0</v>
       </c>
-      <c r="F57" s="29">
+      <c r="F57" s="19">
         <f t="shared" si="3"/>
         <v>-1</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="27.75">
       <c r="A58" s="4"/>
-      <c r="B58" s="46" t="s">
+      <c r="B58" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C58" s="34" t="s">
+      <c r="C58" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D58" s="34" t="s">
+      <c r="D58" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E58" s="29">
+      <c r="E58" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F58" s="29">
+      <c r="F58" s="19">
         <f t="shared" si="3"/>
         <v>-1</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="4"/>
-      <c r="B59" s="46" t="s">
+      <c r="B59" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C59" s="34" t="s">
+      <c r="C59" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D59" s="34" t="s">
+      <c r="D59" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="E59" s="29">
+      <c r="E59" s="19">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="F59" s="29">
+      <c r="F59" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="27.75">
       <c r="A60" s="4"/>
-      <c r="B60" s="46" t="s">
+      <c r="B60" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C60" s="34" t="s">
+      <c r="C60" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D60" s="34" t="s">
+      <c r="D60" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="E60" s="29">
+      <c r="E60" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F60" s="29">
+      <c r="F60" s="19">
         <f t="shared" si="3"/>
         <v>-1</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="4"/>
-      <c r="B61" s="48" t="s">
+      <c r="B61" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="C61" s="39" t="str">
+      <c r="C61" s="29" t="str">
         <f>IF(SUM(E57:E60)&gt;=3, "Hot", IF(SUM(E57:E60)&lt;=-3,"Cold", "Mixed"))</f>
         <v>Mixed</v>
       </c>
-      <c r="D61" s="39" t="str">
+      <c r="D61" s="29" t="str">
         <f>IF(SUM(F57:F60)&gt;=3, "Hot", IF(SUM(F57:F60)&lt;=-3,"Cold", "Mixed"))</f>
         <v>Cold</v>
       </c>
-      <c r="E61" s="29">
+      <c r="E61" s="19">
         <f>IF(LEFT(C61,1)="H",2,IF(LEFT(C61,1)="C",-1,0))</f>
         <v>0</v>
       </c>
-      <c r="F61" s="29">
+      <c r="F61" s="19">
         <f>IF(LEFT(D61,1)="H",2,IF(LEFT(D61,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="27.75">
       <c r="A62" s="4"/>
-      <c r="B62" s="49" t="s">
+      <c r="B62" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="C62" s="40" t="str">
+      <c r="C62" s="30" t="str">
         <f>IF(OR(E62=4,E62=-4),"In extreme",IF(E62=0,"In equilibrium",IF(OR(E62&gt;0),"Relatively optimistic","Relatively pessimistic")))</f>
         <v>Relatively pessimistic</v>
       </c>
-      <c r="D62" s="40" t="str">
+      <c r="D62" s="30" t="str">
         <f>IF(OR(F62=4,F62=-4),"In extreme",IF(F62=0,"In equilibrium",IF(OR(F62&gt;0),"Relatively optimistic","Relatively pessimistic")))</f>
         <v>In extreme</v>
       </c>
-      <c r="E62" s="30">
+      <c r="E62" s="20">
         <f>SUM(E46,E51,E56,E61)</f>
         <v>-1</v>
       </c>
-      <c r="F62" s="30">
+      <c r="F62" s="20">
         <f>SUM(F46,F51,F56,F61)</f>
         <v>-4</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="4"/>
-      <c r="B63" s="41"/>
-      <c r="C63" s="41"/>
-      <c r="D63" s="41"/>
-      <c r="E63" s="31"/>
-      <c r="F63" s="31"/>
+      <c r="B63" s="31"/>
+      <c r="C63" s="31"/>
+      <c r="D63" s="31"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="4"/>
-      <c r="B64" s="50" t="s">
+      <c r="B64" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="C64" s="42" t="s">
+      <c r="C64" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="D64" s="42" t="s">
+      <c r="D64" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="E64" s="32"/>
-      <c r="F64" s="32"/>
+      <c r="E64" s="22"/>
+      <c r="F64" s="22"/>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="4"/>
-      <c r="B65" s="47" t="s">
+      <c r="B65" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="C65" s="37" t="s">
+      <c r="C65" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D65" s="37" t="s">
+      <c r="D65" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="E65" s="32">
+      <c r="E65" s="22">
         <f t="shared" ref="E65:F69" si="4">IF(LEFT(C65,1)="H",2,IF(LEFT(C65,1)="C",0,1))</f>
         <v>2</v>
       </c>
-      <c r="F65" s="32">
+      <c r="F65" s="22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="B66" s="47" t="s">
+      <c r="B66" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C66" s="43" t="e">
-        <f>IF(Macro!#REF!&gt;=3%, "Hot - High", IF(Macro!#REF!&lt;=1.5%, "Cold - Low", "Mixed - Dormant"))</f>
+      <c r="C66" s="33" t="e">
+        <f>IF(Market_Yield!#REF!&gt;=3%, "Hot - High", IF(Market_Yield!#REF!&lt;=1.5%, "Cold - Low", "Mixed - Dormant"))</f>
         <v>#REF!</v>
       </c>
-      <c r="D66" s="43" t="e">
-        <f>IF(Macro!#REF!&gt;=3%, "Hot - High", IF(Macro!#REF!&lt;=1.5%, "Cold - Low", "Mixed - Dormant"))</f>
+      <c r="D66" s="33" t="e">
+        <f>IF(Market_Yield!#REF!&gt;=3%, "Hot - High", IF(Market_Yield!#REF!&lt;=1.5%, "Cold - Low", "Mixed - Dormant"))</f>
         <v>#REF!</v>
       </c>
-      <c r="E66" s="32" t="e">
+      <c r="E66" s="22" t="e">
         <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
-      <c r="F66" s="32" t="e">
+      <c r="F66" s="22" t="e">
         <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="67" spans="1:6">
-      <c r="B67" s="47" t="s">
+      <c r="B67" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="C67" s="43" t="str">
+      <c r="C67" s="33" t="str">
         <f>C43</f>
         <v>Hot - Positive</v>
       </c>
-      <c r="D67" s="43" t="str">
+      <c r="D67" s="33" t="str">
         <f>D43</f>
         <v>Cold - Negative</v>
       </c>
-      <c r="E67" s="32">
+      <c r="E67" s="22">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="F67" s="32">
+      <c r="F67" s="22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:6">
-      <c r="B68" s="47" t="s">
+      <c r="B68" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C68" s="43" t="str">
+      <c r="C68" s="33" t="str">
         <f>C49</f>
         <v>Mixed</v>
       </c>
-      <c r="D68" s="43" t="str">
+      <c r="D68" s="33" t="str">
         <f>D49</f>
         <v>Cold - High</v>
       </c>
-      <c r="E68" s="32">
+      <c r="E68" s="22">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="F68" s="32">
+      <c r="F68" s="22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:6">
-      <c r="B69" s="47" t="s">
+      <c r="B69" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C69" s="43" t="str">
+      <c r="C69" s="33" t="str">
         <f>C50</f>
         <v>Cold - Wide</v>
       </c>
-      <c r="D69" s="43" t="str">
+      <c r="D69" s="33" t="str">
         <f>D50</f>
         <v>Cold - Wide</v>
       </c>
-      <c r="E69" s="32">
+      <c r="E69" s="22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F69" s="32">
+      <c r="F69" s="22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:6">
-      <c r="B70" s="51" t="s">
+      <c r="B70" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C70" s="44" t="e">
-        <f>Macro!#REF!*(1+E70)</f>
+      <c r="C70" s="34" t="e">
+        <f>Market_Yield!#REF!*(1+E70)</f>
         <v>#REF!</v>
       </c>
-      <c r="D70" s="44" t="e">
-        <f>Macro!#REF!*(1+F70)</f>
+      <c r="D70" s="34" t="e">
+        <f>Market_Yield!#REF!*(1+F70)</f>
         <v>#REF!</v>
       </c>
-      <c r="E70" s="33" t="e">
+      <c r="E70" s="23" t="e">
         <f>SUM(E65:E69)/10</f>
         <v>#REF!</v>
       </c>
-      <c r="F70" s="33" t="e">
+      <c r="F70" s="23" t="e">
         <f>SUM(F65:F69)/10</f>
         <v>#REF!</v>
       </c>
@@ -2667,337 +2946,305 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54B06D35-F870-9847-BA9B-1E2F9FFBE611}">
-  <dimension ref="B2:C15"/>
+  <dimension ref="A2:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="B2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="13.9"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25"/>
   <cols>
+    <col min="1" max="1" width="2.46484375" customWidth="1"/>
     <col min="2" max="2" width="24.6640625" customWidth="1"/>
     <col min="3" max="3" width="51" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3">
-      <c r="B2" s="15" t="s">
+    <row r="2" spans="1:3" ht="15.4">
+      <c r="A2" s="3"/>
+      <c r="B2" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3">
-      <c r="B4" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3">
-      <c r="B6" s="15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3">
-      <c r="B7" t="s">
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="16" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3">
-      <c r="B8" s="55" t="s">
-        <v>163</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3">
-      <c r="B9" s="55" t="s">
-        <v>162</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3">
-      <c r="B11" s="21" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3">
-      <c r="B12" t="s">
-        <v>76</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3">
-      <c r="B14" s="15" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3">
-      <c r="B15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>81</v>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C7" r:id="rId1" xr:uid="{BD2948D7-96D9-264F-B0D8-E6D98C96444B}"/>
-    <hyperlink ref="C12" r:id="rId2" xr:uid="{00B87B71-2B64-7648-8C06-ED4B13CF1CAC}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{2EBA3D15-8A74-E446-A2A5-3050276DAEF0}"/>
-    <hyperlink ref="C15" r:id="rId4" xr:uid="{C49E8DEC-BC7E-F34D-949B-76A17DA7B973}"/>
-    <hyperlink ref="C2" r:id="rId5" xr:uid="{18F23401-4E80-A24F-B5F3-B57C2EA041C5}"/>
-    <hyperlink ref="C9" r:id="rId6" xr:uid="{5B060AD5-B453-475A-AE85-6F08E6150FB3}"/>
-    <hyperlink ref="C8" r:id="rId7" xr:uid="{55E080AE-5E7C-47FD-A5AD-AADFA910A2B5}"/>
+    <hyperlink ref="C8" r:id="rId1" xr:uid="{BD2948D7-96D9-264F-B0D8-E6D98C96444B}"/>
+    <hyperlink ref="C13" r:id="rId2" xr:uid="{00B87B71-2B64-7648-8C06-ED4B13CF1CAC}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{2EBA3D15-8A74-E446-A2A5-3050276DAEF0}"/>
+    <hyperlink ref="C16" r:id="rId4" xr:uid="{C49E8DEC-BC7E-F34D-949B-76A17DA7B973}"/>
+    <hyperlink ref="C3" r:id="rId5" xr:uid="{18F23401-4E80-A24F-B5F3-B57C2EA041C5}"/>
+    <hyperlink ref="C10" r:id="rId6" xr:uid="{5B060AD5-B453-475A-AE85-6F08E6150FB3}"/>
+    <hyperlink ref="C9" r:id="rId7" xr:uid="{55E080AE-5E7C-47FD-A5AD-AADFA910A2B5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CEBDF31-D93E-6148-9E83-2491198D4CE1}">
-  <dimension ref="B2:D13"/>
+  <dimension ref="A2:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="13.9"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25"/>
   <cols>
+    <col min="1" max="1" width="2.46484375" customWidth="1"/>
     <col min="2" max="2" width="18.46484375" customWidth="1"/>
     <col min="3" max="3" width="38.6640625" customWidth="1"/>
     <col min="4" max="4" width="34.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4">
-      <c r="C2" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4">
-      <c r="B3" t="s">
+    <row r="2" spans="1:4" ht="15.4">
+      <c r="A2" s="3"/>
+      <c r="B2" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="C3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4">
-      <c r="B5" t="s">
+      <c r="C4" s="13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="B6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:4">
-      <c r="B7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4">
-      <c r="B9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4">
-      <c r="B11" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4">
-      <c r="B13" t="s">
-        <v>108</v>
+    <row r="8" spans="1:4">
+      <c r="B8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="B10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="B12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="B14" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{D5EB599C-0AC8-C945-97CD-4616A9DA5B5A}"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{D5EB599C-0AC8-C945-97CD-4616A9DA5B5A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B29DA212-C2AF-4D3E-9C01-BCAB145BF990}">
-  <dimension ref="A2:C27"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A061C73F-1F33-4614-90A5-D5D9D7C58056}">
+  <dimension ref="A2:E15"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9"/>
   <cols>
-    <col min="1" max="1" width="2.46484375" style="8" customWidth="1"/>
-    <col min="2" max="2" width="41.796875" style="8" customWidth="1"/>
-    <col min="3" max="6" width="20.796875" style="8" customWidth="1"/>
-    <col min="7" max="16384" width="8.796875" style="8"/>
+    <col min="1" max="1" width="2.46484375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="30.19921875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="15.59765625" style="7" customWidth="1"/>
+    <col min="6" max="16384" width="8.796875" style="7"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" ht="15">
+    <row r="2" spans="1:5" ht="15">
       <c r="A2" s="3"/>
       <c r="B2" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C2" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="B3" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="B4" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="B5" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="C6" s="16"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="B7" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="B8" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="C9" s="16"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="B10" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="B11" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C11" s="16" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="B3" s="52" t="s">
-        <v>119</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="B4" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="B5" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="B7" s="52" t="s">
-        <v>116</v>
-      </c>
-      <c r="C7" s="25"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="B8" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="B9" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="B11" s="52" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="B12" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="B14" s="52" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="B15" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17" s="52" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="B18" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="B20" s="52" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3">
-      <c r="B21" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="52" t="s">
+    <row r="12" spans="1:5">
+      <c r="C12" s="16"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="B13" s="7" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="8" t="s">
+      <c r="C13" s="16" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="B15" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C15" s="16" t="s">
         <v>187</v>
-      </c>
-      <c r="C24" s="25" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="52" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3">
-      <c r="B27" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="C27" s="25" t="s">
-        <v>188</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" xr:uid="{7EA46E5E-057B-48C9-8A0D-B56B623EF344}"/>
-    <hyperlink ref="C4" r:id="rId2" xr:uid="{8FF96C9D-4D1A-4741-A8FC-C93FF0BAEB17}"/>
-    <hyperlink ref="C12" r:id="rId3" xr:uid="{7720DD14-3F75-4F25-8D70-F6180ED9FB8E}"/>
-    <hyperlink ref="C9" r:id="rId4" xr:uid="{24CE27D2-F11F-4C96-99C0-31B5BD7EA483}"/>
-    <hyperlink ref="C18" r:id="rId5" xr:uid="{09648102-1869-492C-87E8-7FC427C0F56E}"/>
-    <hyperlink ref="C15" r:id="rId6" xr:uid="{2EDD765B-40DE-4D2D-9531-556EBBD3F442}"/>
-    <hyperlink ref="C2" r:id="rId7" xr:uid="{7787D8AC-7779-42B9-928B-03FC735FB8BD}"/>
-    <hyperlink ref="C8" r:id="rId8" xr:uid="{BA156D29-558F-489F-A67F-2DF63DB9298F}"/>
-    <hyperlink ref="C21" r:id="rId9" xr:uid="{7654C459-BEF7-4D12-A6F9-A473435AB19D}"/>
-    <hyperlink ref="C24" r:id="rId10" xr:uid="{CCF57805-2741-4C93-98B7-D361D0EE1D76}"/>
-    <hyperlink ref="C27" r:id="rId11" xr:uid="{1AD065D4-1978-475F-AE7F-D0045B9251B4}"/>
-    <hyperlink ref="C3" r:id="rId12" xr:uid="{E821A63E-EBB2-4817-A8B2-87D71FC5D7D5}"/>
+    <hyperlink ref="C7" r:id="rId1" xr:uid="{45D5643F-FA1A-3C48-B2D9-4B6082295A37}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{8FF27AF7-25A6-F443-A0E6-DAC1AFC8FB4A}"/>
+    <hyperlink ref="C13" r:id="rId3" xr:uid="{E414D4D1-755D-2A43-AB81-B4A0517E9107}"/>
+    <hyperlink ref="C4" r:id="rId4" xr:uid="{BD25C893-4B01-48BE-AB6E-FA9F70DB6325}"/>
+    <hyperlink ref="C8" r:id="rId5" xr:uid="{01B23463-056A-45A3-AFE5-8FCBFF68216B}"/>
+    <hyperlink ref="C10" r:id="rId6" xr:uid="{CA446899-0FC4-4E1D-9FA6-827A1A2C6101}"/>
+    <hyperlink ref="C11" r:id="rId7" xr:uid="{2A60B260-D4EE-4AB2-B4D5-2C97E9E3A2EB}"/>
+    <hyperlink ref="C5" r:id="rId8" xr:uid="{7EACBB86-54AE-4C08-9D45-813ABBBD2BC8}"/>
+    <hyperlink ref="C15" r:id="rId9" xr:uid="{30137619-E054-41EB-9359-F9138F1700F2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId13"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId10"/>
 </worksheet>
 </file>